--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Confirmacions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367213FD-ABDA-4A54-97D7-9B8868772B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE08A8-42FA-4096-8B07-EADCD8EB1A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEEAE0F-87B7-4CFD-9217-CD5D622A9875}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="148">
   <si>
     <t>Cognons</t>
   </si>
@@ -268,6 +268,222 @@
   </si>
   <si>
     <t>Escoda Falcó Camilda?</t>
+  </si>
+  <si>
+    <t>Pedrós Vidal Josepa</t>
+  </si>
+  <si>
+    <t>Vilamajo Pallás Maria</t>
+  </si>
+  <si>
+    <t>Planes Massal Rosa</t>
+  </si>
+  <si>
+    <t>Maichs? Mill Antonia</t>
+  </si>
+  <si>
+    <t>Solé Roig Carmen</t>
+  </si>
+  <si>
+    <t>Mas Davin Maria</t>
+  </si>
+  <si>
+    <t>Pedra Pedrós Maria</t>
+  </si>
+  <si>
+    <t>Lotet Frotuny Maria</t>
+  </si>
+  <si>
+    <t>Vilaplana Bonjorn Quiteria</t>
+  </si>
+  <si>
+    <t>Palou Hondat ? Antonia</t>
+  </si>
+  <si>
+    <t>Figueres Galceran Mercedes</t>
+  </si>
+  <si>
+    <t>Lamarca Casadellà Monserrat</t>
+  </si>
+  <si>
+    <t>Planes Massal Dolors</t>
+  </si>
+  <si>
+    <t>Guasch Bosch Maria</t>
+  </si>
+  <si>
+    <t>Mas Pallerola Idora?</t>
+  </si>
+  <si>
+    <t>Gili Pujol Josepa</t>
+  </si>
+  <si>
+    <t>Balp Caparos Maria</t>
+  </si>
+  <si>
+    <t>Droguet Artillach Josepa</t>
+  </si>
+  <si>
+    <t>Cos Robira Josepa</t>
+  </si>
+  <si>
+    <t>Pedrós Fusté Carme</t>
+  </si>
+  <si>
+    <t>Riera Palou ¿?</t>
+  </si>
+  <si>
+    <t>Martí Gene ¿?</t>
+  </si>
+  <si>
+    <t>¿? Serra Antonia</t>
+  </si>
+  <si>
+    <t>Guasch Bosch Francisca</t>
+  </si>
+  <si>
+    <t>Padulles Tarragó Maria</t>
+  </si>
+  <si>
+    <t>Netgs? Serra Maria</t>
+  </si>
+  <si>
+    <t>Vilamajó Pallás Ines</t>
+  </si>
+  <si>
+    <t>Pedrós Mosset Maria</t>
+  </si>
+  <si>
+    <t>Trepat Trepat Rosa</t>
+  </si>
+  <si>
+    <t>Pedrós Mosset Mercedes</t>
+  </si>
+  <si>
+    <t>Planes Mosset Manuela</t>
+  </si>
+  <si>
+    <t>Marti Català Dolors</t>
+  </si>
+  <si>
+    <t>Giné ¿? Maria</t>
+  </si>
+  <si>
+    <t>Pedrós Xifré Cecilia</t>
+  </si>
+  <si>
+    <t>Solé Maigs Ramona</t>
+  </si>
+  <si>
+    <t>Cisteró Ginesta ¿?</t>
+  </si>
+  <si>
+    <t>Pedrós Xifré Dolores</t>
+  </si>
+  <si>
+    <t>Serra Ginestà Teresa</t>
+  </si>
+  <si>
+    <t>Plà Coll Teresa</t>
+  </si>
+  <si>
+    <t>Arrufat Vilaplana Maria</t>
+  </si>
+  <si>
+    <t>Bonjorn Gabernet Teresa</t>
+  </si>
+  <si>
+    <t>Batlle Balcells Maria</t>
+  </si>
+  <si>
+    <t>Pedrós Vallés Josepa</t>
+  </si>
+  <si>
+    <t>Bauló Piera Carme</t>
+  </si>
+  <si>
+    <t>Morera Martí Dolors</t>
+  </si>
+  <si>
+    <t>Rossal? Bonjorn Antonia</t>
+  </si>
+  <si>
+    <t>Caba Ortiz Mercedes</t>
+  </si>
+  <si>
+    <t>Solsona Llovera Consol</t>
+  </si>
+  <si>
+    <t>Binefa Torren Rosa</t>
+  </si>
+  <si>
+    <t>Tolosa Gispert Maria</t>
+  </si>
+  <si>
+    <t>Escolà Falcó Rosa</t>
+  </si>
+  <si>
+    <t>Moragues Bonet Carmen</t>
+  </si>
+  <si>
+    <t>Torres Sales Maria</t>
+  </si>
+  <si>
+    <t>Badia Solé Ramona</t>
+  </si>
+  <si>
+    <t>Martí Català Maria</t>
+  </si>
+  <si>
+    <t>Vilimelis? Pedra Encarnació</t>
+  </si>
+  <si>
+    <t>Mata Mas Dolors</t>
+  </si>
+  <si>
+    <t>Majoral Pedrós Carmen</t>
+  </si>
+  <si>
+    <t>Llovera Vila Antonia</t>
+  </si>
+  <si>
+    <t>Serra Ginestà Maria</t>
+  </si>
+  <si>
+    <t>Xuclà Sans Mercedes</t>
+  </si>
+  <si>
+    <t>Setó Tribó Josepa</t>
+  </si>
+  <si>
+    <t>Balasch Fabregat Natalia</t>
+  </si>
+  <si>
+    <t>Pedrós Balagué Teresa</t>
+  </si>
+  <si>
+    <t>Mas Giné Carmen</t>
+  </si>
+  <si>
+    <t>Roig Vallés Maria</t>
+  </si>
+  <si>
+    <t>Balagué Vergé Ramona</t>
+  </si>
+  <si>
+    <t>Martí Bellet Tecla</t>
+  </si>
+  <si>
+    <t>Martí Vila Magdalena</t>
+  </si>
+  <si>
+    <t>Macià Mas Maria</t>
+  </si>
+  <si>
+    <t>Pedrós Querol Manuela</t>
+  </si>
+  <si>
+    <t>Pedrós Vidal Carmen</t>
   </si>
 </sst>
 </file>
@@ -620,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,6 +2625,2094 @@
         <v>12</v>
       </c>
       <c r="K61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>1911</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>1911</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>1911</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64">
+        <v>47</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>1911</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>1911</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>47</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1911</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1911</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>1911</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>1911</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>1911</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <v>1911</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72">
+        <v>47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <v>1911</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73">
+        <v>47</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>66</v>
+      </c>
+      <c r="B74">
+        <v>1911</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>47</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>66</v>
+      </c>
+      <c r="B75">
+        <v>1911</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75">
+        <v>47</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>66</v>
+      </c>
+      <c r="B76">
+        <v>1911</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76">
+        <v>47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>66</v>
+      </c>
+      <c r="B77">
+        <v>1911</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>47</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>66</v>
+      </c>
+      <c r="B78">
+        <v>1911</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>66</v>
+      </c>
+      <c r="B79">
+        <v>1911</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>66</v>
+      </c>
+      <c r="B80">
+        <v>1911</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>66</v>
+      </c>
+      <c r="B81">
+        <v>1911</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>66</v>
+      </c>
+      <c r="B82">
+        <v>1911</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>66</v>
+      </c>
+      <c r="B83">
+        <v>1911</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>66</v>
+      </c>
+      <c r="B84">
+        <v>1911</v>
+      </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>66</v>
+      </c>
+      <c r="B85">
+        <v>1911</v>
+      </c>
+      <c r="C85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85">
+        <v>47</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>66</v>
+      </c>
+      <c r="B86">
+        <v>1911</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>66</v>
+      </c>
+      <c r="B87">
+        <v>1911</v>
+      </c>
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>66</v>
+      </c>
+      <c r="B88">
+        <v>1911</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88">
+        <v>47</v>
+      </c>
+      <c r="J88" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>66</v>
+      </c>
+      <c r="B89">
+        <v>1911</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <v>47</v>
+      </c>
+      <c r="J89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>66</v>
+      </c>
+      <c r="B90">
+        <v>1911</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s">
+        <v>12</v>
+      </c>
+      <c r="K90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>66</v>
+      </c>
+      <c r="B91">
+        <v>1911</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91">
+        <v>47</v>
+      </c>
+      <c r="J91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>1911</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>47</v>
+      </c>
+      <c r="J92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>66</v>
+      </c>
+      <c r="B93">
+        <v>1911</v>
+      </c>
+      <c r="C93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <v>47</v>
+      </c>
+      <c r="J93" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>66</v>
+      </c>
+      <c r="B94">
+        <v>1911</v>
+      </c>
+      <c r="C94" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94">
+        <v>47</v>
+      </c>
+      <c r="J94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>66</v>
+      </c>
+      <c r="B95">
+        <v>1911</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95">
+        <v>47</v>
+      </c>
+      <c r="J95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>66</v>
+      </c>
+      <c r="B96">
+        <v>1911</v>
+      </c>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <v>47</v>
+      </c>
+      <c r="J96" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>66</v>
+      </c>
+      <c r="B97">
+        <v>1911</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97">
+        <v>47</v>
+      </c>
+      <c r="J97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>66</v>
+      </c>
+      <c r="B98">
+        <v>1911</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>47</v>
+      </c>
+      <c r="J98" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>66</v>
+      </c>
+      <c r="B99">
+        <v>1911</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99">
+        <v>47</v>
+      </c>
+      <c r="J99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>66</v>
+      </c>
+      <c r="B100">
+        <v>1911</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="F100" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100">
+        <v>47</v>
+      </c>
+      <c r="J100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>66</v>
+      </c>
+      <c r="B101">
+        <v>1911</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101">
+        <v>47</v>
+      </c>
+      <c r="J101" t="s">
+        <v>12</v>
+      </c>
+      <c r="K101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>66</v>
+      </c>
+      <c r="B102">
+        <v>1911</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102">
+        <v>47</v>
+      </c>
+      <c r="J102" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>66</v>
+      </c>
+      <c r="B103">
+        <v>1911</v>
+      </c>
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103">
+        <v>47</v>
+      </c>
+      <c r="J103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>66</v>
+      </c>
+      <c r="B104">
+        <v>1911</v>
+      </c>
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="F104" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104">
+        <v>47</v>
+      </c>
+      <c r="J104" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>66</v>
+      </c>
+      <c r="B105">
+        <v>1911</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105">
+        <v>47</v>
+      </c>
+      <c r="J105" t="s">
+        <v>12</v>
+      </c>
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>66</v>
+      </c>
+      <c r="B106">
+        <v>1911</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>47</v>
+      </c>
+      <c r="J106" t="s">
+        <v>12</v>
+      </c>
+      <c r="K106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>66</v>
+      </c>
+      <c r="B107">
+        <v>1911</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="F107" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107">
+        <v>47</v>
+      </c>
+      <c r="J107" t="s">
+        <v>12</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>66</v>
+      </c>
+      <c r="B108">
+        <v>1911</v>
+      </c>
+      <c r="C108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108">
+        <v>47</v>
+      </c>
+      <c r="J108" t="s">
+        <v>12</v>
+      </c>
+      <c r="K108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>66</v>
+      </c>
+      <c r="B109">
+        <v>1911</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109">
+        <v>47</v>
+      </c>
+      <c r="J109" t="s">
+        <v>12</v>
+      </c>
+      <c r="K109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>66</v>
+      </c>
+      <c r="B110">
+        <v>1911</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110">
+        <v>47</v>
+      </c>
+      <c r="J110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>66</v>
+      </c>
+      <c r="B111">
+        <v>1911</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111">
+        <v>47</v>
+      </c>
+      <c r="J111" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>66</v>
+      </c>
+      <c r="B112">
+        <v>1911</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112">
+        <v>47</v>
+      </c>
+      <c r="J112" t="s">
+        <v>12</v>
+      </c>
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>66</v>
+      </c>
+      <c r="B113">
+        <v>1911</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113">
+        <v>47</v>
+      </c>
+      <c r="J113" t="s">
+        <v>12</v>
+      </c>
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>66</v>
+      </c>
+      <c r="B114">
+        <v>1911</v>
+      </c>
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114">
+        <v>47</v>
+      </c>
+      <c r="J114" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>66</v>
+      </c>
+      <c r="B115">
+        <v>1911</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115">
+        <v>47</v>
+      </c>
+      <c r="J115" t="s">
+        <v>12</v>
+      </c>
+      <c r="K115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>66</v>
+      </c>
+      <c r="B116">
+        <v>1911</v>
+      </c>
+      <c r="C116" t="s">
+        <v>130</v>
+      </c>
+      <c r="F116" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116">
+        <v>47</v>
+      </c>
+      <c r="J116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>66</v>
+      </c>
+      <c r="B117">
+        <v>1911</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="F117" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117">
+        <v>47</v>
+      </c>
+      <c r="J117" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>66</v>
+      </c>
+      <c r="B118">
+        <v>1911</v>
+      </c>
+      <c r="C118" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118">
+        <v>47</v>
+      </c>
+      <c r="J118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>66</v>
+      </c>
+      <c r="B119">
+        <v>1911</v>
+      </c>
+      <c r="C119" t="s">
+        <v>133</v>
+      </c>
+      <c r="F119" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119">
+        <v>47</v>
+      </c>
+      <c r="J119" t="s">
+        <v>12</v>
+      </c>
+      <c r="K119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>66</v>
+      </c>
+      <c r="B120">
+        <v>1911</v>
+      </c>
+      <c r="C120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120">
+        <v>47</v>
+      </c>
+      <c r="J120" t="s">
+        <v>12</v>
+      </c>
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>66</v>
+      </c>
+      <c r="B121">
+        <v>1911</v>
+      </c>
+      <c r="C121" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121">
+        <v>47</v>
+      </c>
+      <c r="J121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>66</v>
+      </c>
+      <c r="B122">
+        <v>1911</v>
+      </c>
+      <c r="C122" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122">
+        <v>47</v>
+      </c>
+      <c r="J122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>66</v>
+      </c>
+      <c r="B123">
+        <v>1911</v>
+      </c>
+      <c r="C123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F123" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123">
+        <v>47</v>
+      </c>
+      <c r="J123" t="s">
+        <v>12</v>
+      </c>
+      <c r="K123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>66</v>
+      </c>
+      <c r="B124">
+        <v>1911</v>
+      </c>
+      <c r="C124" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124">
+        <v>47</v>
+      </c>
+      <c r="J124" t="s">
+        <v>12</v>
+      </c>
+      <c r="K124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>66</v>
+      </c>
+      <c r="B125">
+        <v>1911</v>
+      </c>
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125">
+        <v>47</v>
+      </c>
+      <c r="J125" t="s">
+        <v>12</v>
+      </c>
+      <c r="K125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>66</v>
+      </c>
+      <c r="B126">
+        <v>1911</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="F126" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126">
+        <v>47</v>
+      </c>
+      <c r="J126" t="s">
+        <v>12</v>
+      </c>
+      <c r="K126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>66</v>
+      </c>
+      <c r="B127">
+        <v>1911</v>
+      </c>
+      <c r="C127" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127">
+        <v>47</v>
+      </c>
+      <c r="J127" t="s">
+        <v>12</v>
+      </c>
+      <c r="K127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>66</v>
+      </c>
+      <c r="B128">
+        <v>1911</v>
+      </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128">
+        <v>47</v>
+      </c>
+      <c r="J128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>66</v>
+      </c>
+      <c r="B129">
+        <v>1911</v>
+      </c>
+      <c r="C129" t="s">
+        <v>143</v>
+      </c>
+      <c r="F129" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129">
+        <v>47</v>
+      </c>
+      <c r="J129" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>66</v>
+      </c>
+      <c r="B130">
+        <v>1911</v>
+      </c>
+      <c r="C130" t="s">
+        <v>144</v>
+      </c>
+      <c r="F130" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130">
+        <v>47</v>
+      </c>
+      <c r="J130" t="s">
+        <v>12</v>
+      </c>
+      <c r="K130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>66</v>
+      </c>
+      <c r="B131">
+        <v>1911</v>
+      </c>
+      <c r="C131" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131">
+        <v>47</v>
+      </c>
+      <c r="J131" t="s">
+        <v>12</v>
+      </c>
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>66</v>
+      </c>
+      <c r="B132">
+        <v>1911</v>
+      </c>
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+      <c r="F132" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132">
+        <v>47</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
+      </c>
+      <c r="K132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>66</v>
+      </c>
+      <c r="B133">
+        <v>1911</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="F133" s="1">
+        <v>4311</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133">
+        <v>47</v>
+      </c>
+      <c r="J133" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Confirmacions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084226F7-ECC3-4BF2-A41E-D42699A15F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3CDCE-C534-4EFE-A0BF-1893F7E08655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEEAE0F-87B7-4CFD-9217-CD5D622A9875}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="912">
   <si>
     <t>Cognons</t>
   </si>
@@ -2497,6 +2497,285 @@
   </si>
   <si>
     <t>Pujades Vallés Caterina</t>
+  </si>
+  <si>
+    <t>Pedrós Querol Jaume</t>
+  </si>
+  <si>
+    <t>Ortiz Vila Jaume</t>
+  </si>
+  <si>
+    <t>Escolà Espinal Josep</t>
+  </si>
+  <si>
+    <t>Coll Sunyé Francisco</t>
+  </si>
+  <si>
+    <t>Gasol Tort Francisca</t>
+  </si>
+  <si>
+    <t>Balcells Roig Francisca</t>
+  </si>
+  <si>
+    <t>Majoral Tarragó Francisca</t>
+  </si>
+  <si>
+    <t>Oriol Enguese Rosa</t>
+  </si>
+  <si>
+    <t>Querol Massà Antonia</t>
+  </si>
+  <si>
+    <t>Mas Corbella Dolors</t>
+  </si>
+  <si>
+    <t>Mas Macià Josep</t>
+  </si>
+  <si>
+    <t>Castelló Riba Magi</t>
+  </si>
+  <si>
+    <t>Galitó Majoral Josep</t>
+  </si>
+  <si>
+    <t>Pedrós Balagué Rosa</t>
+  </si>
+  <si>
+    <t>Padulles Martí Palmira</t>
+  </si>
+  <si>
+    <t>Domingo Renye Josepa</t>
+  </si>
+  <si>
+    <t>Badia Solé Rafael</t>
+  </si>
+  <si>
+    <t>Piulats Gispert Maria</t>
+  </si>
+  <si>
+    <t>Sole Coll Josep Maria</t>
+  </si>
+  <si>
+    <t>Bonjorn Huguet Teresa</t>
+  </si>
+  <si>
+    <t>Llanes Gili Francisco</t>
+  </si>
+  <si>
+    <t>Vilaplana Domenjo Eusebi</t>
+  </si>
+  <si>
+    <t>Mas Camarasa Maria</t>
+  </si>
+  <si>
+    <t>Cisteré Galceran Francisco</t>
+  </si>
+  <si>
+    <t>Solé Vergé Ramon</t>
+  </si>
+  <si>
+    <t>Plà Coll Manuela</t>
+  </si>
+  <si>
+    <t>Torrades Oliva Estanislao</t>
+  </si>
+  <si>
+    <t>Torrades Oliva Ramon</t>
+  </si>
+  <si>
+    <t>Bonjorn Camprubí Eloi</t>
+  </si>
+  <si>
+    <t>Trepat Trepat Ramon</t>
+  </si>
+  <si>
+    <t>Giné Pedrós Francisco</t>
+  </si>
+  <si>
+    <t>Saball Chuclà Rosa</t>
+  </si>
+  <si>
+    <t>Majoral Pujoil Esteve</t>
+  </si>
+  <si>
+    <t>Seball Xuvlà Miquel</t>
+  </si>
+  <si>
+    <t>Gasol Tort Rosa</t>
+  </si>
+  <si>
+    <t>Palou Civit Josep</t>
+  </si>
+  <si>
+    <t>Pujades Coll Teresa</t>
+  </si>
+  <si>
+    <t>Bosch Galceran Concepció</t>
+  </si>
+  <si>
+    <t>Planes Mauri Jaume</t>
+  </si>
+  <si>
+    <t>Balasch Torrent Cecilia</t>
+  </si>
+  <si>
+    <t>Saball Xuclà Secundina</t>
+  </si>
+  <si>
+    <t>Colell Pujades Andreu</t>
+  </si>
+  <si>
+    <t>Solsona Llovera Ramon</t>
+  </si>
+  <si>
+    <t>Duart Pallerola María</t>
+  </si>
+  <si>
+    <t>Bosch Galceran Josepa</t>
+  </si>
+  <si>
+    <t>Roma Majoral Francisco</t>
+  </si>
+  <si>
+    <t>Tacies Cunyat Francisco</t>
+  </si>
+  <si>
+    <t>Roca Sans Jaume</t>
+  </si>
+  <si>
+    <t>Gispert Segarra Regina</t>
+  </si>
+  <si>
+    <t>Ortiz Vila Joan</t>
+  </si>
+  <si>
+    <t>Oliva Figuera Antonia</t>
+  </si>
+  <si>
+    <t>Oliva Figuera Maria</t>
+  </si>
+  <si>
+    <t>Gili Pons Agustí</t>
+  </si>
+  <si>
+    <t>Colell Majoral Francisco</t>
+  </si>
+  <si>
+    <t>Vives Morera Rosa</t>
+  </si>
+  <si>
+    <t>Balcells Pedrós Francisco</t>
+  </si>
+  <si>
+    <t>Vilamajó Pallàs Domingo</t>
+  </si>
+  <si>
+    <t>Pedrós Querol Antonia</t>
+  </si>
+  <si>
+    <t>Gispert Segarra Margarita</t>
+  </si>
+  <si>
+    <t>Majoral Vergé Dolors</t>
+  </si>
+  <si>
+    <t>Eroles Majoral Manuel</t>
+  </si>
+  <si>
+    <t>Eroles Majoral Josep</t>
+  </si>
+  <si>
+    <t>Colell Pujades Josep</t>
+  </si>
+  <si>
+    <t>Mas Combella Arnengol</t>
+  </si>
+  <si>
+    <t>Massana Boldú Josep</t>
+  </si>
+  <si>
+    <t>Bonjorn Pedrós Maria</t>
+  </si>
+  <si>
+    <t>Solé Rubies Antonio</t>
+  </si>
+  <si>
+    <t>Binefa Torrent Antonia</t>
+  </si>
+  <si>
+    <t>Marti Plassa Joan</t>
+  </si>
+  <si>
+    <t>Gispert Segarra Erminia</t>
+  </si>
+  <si>
+    <t>Mas Gené Andres</t>
+  </si>
+  <si>
+    <t>Solé Rubies Teresa</t>
+  </si>
+  <si>
+    <t>Cascalló Ribes Trinidad</t>
+  </si>
+  <si>
+    <t>Gené Marti Josep</t>
+  </si>
+  <si>
+    <t>Gene Marti Rosa</t>
+  </si>
+  <si>
+    <t>Riera Palou Rafael</t>
+  </si>
+  <si>
+    <t>Foguet Arderiu Manuela</t>
+  </si>
+  <si>
+    <t>Mas Gispert Rosa</t>
+  </si>
+  <si>
+    <t>Gispert Martí Elisa?</t>
+  </si>
+  <si>
+    <t>Coll Sunyé Dolors</t>
+  </si>
+  <si>
+    <t>Velimelis Pedra Roc</t>
+  </si>
+  <si>
+    <t>Farré Castelló Maria</t>
+  </si>
+  <si>
+    <t>Palau Tarragó Dolors</t>
+  </si>
+  <si>
+    <t>Mosset Arbós Rosa</t>
+  </si>
+  <si>
+    <t>Majoral Pedrós Consol</t>
+  </si>
+  <si>
+    <t>Roca Sans Josep</t>
+  </si>
+  <si>
+    <t>Domenjó Renyé Amparo</t>
+  </si>
+  <si>
+    <t>Vilamajó Oakkes Sebastian</t>
+  </si>
+  <si>
+    <t>Bosch Galceran Ramon</t>
+  </si>
+  <si>
+    <t>Palau Tarragó María</t>
+  </si>
+  <si>
+    <t>Gené Trepat Josep</t>
+  </si>
+  <si>
+    <t>Paul Castarleuas? Antonia</t>
+  </si>
+  <si>
+    <t>Ginestà Borrell Ramon</t>
   </si>
 </sst>
 </file>
@@ -2862,10 +3141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}">
-  <dimension ref="A1:L794"/>
+  <dimension ref="A1:L887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="A795" sqref="A795"/>
+    <sheetView tabSelected="1" topLeftCell="A855" workbookViewId="0">
+      <selection activeCell="E883" sqref="E883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25276,6 +25555,2424 @@
         <v>12</v>
       </c>
       <c r="K794" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>54</v>
+      </c>
+      <c r="B795">
+        <v>1804</v>
+      </c>
+      <c r="C795" t="s">
+        <v>819</v>
+      </c>
+      <c r="F795" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H795" t="s">
+        <v>11</v>
+      </c>
+      <c r="I795">
+        <v>47</v>
+      </c>
+      <c r="J795" t="s">
+        <v>12</v>
+      </c>
+      <c r="K795" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>54</v>
+      </c>
+      <c r="B796">
+        <v>1804</v>
+      </c>
+      <c r="C796" t="s">
+        <v>820</v>
+      </c>
+      <c r="F796" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H796" t="s">
+        <v>11</v>
+      </c>
+      <c r="I796">
+        <v>47</v>
+      </c>
+      <c r="J796" t="s">
+        <v>12</v>
+      </c>
+      <c r="K796" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>54</v>
+      </c>
+      <c r="B797">
+        <v>1804</v>
+      </c>
+      <c r="C797" t="s">
+        <v>821</v>
+      </c>
+      <c r="F797" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H797" t="s">
+        <v>11</v>
+      </c>
+      <c r="I797">
+        <v>47</v>
+      </c>
+      <c r="J797" t="s">
+        <v>12</v>
+      </c>
+      <c r="K797" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>54</v>
+      </c>
+      <c r="B798">
+        <v>1804</v>
+      </c>
+      <c r="C798" t="s">
+        <v>822</v>
+      </c>
+      <c r="F798" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H798" t="s">
+        <v>11</v>
+      </c>
+      <c r="I798">
+        <v>47</v>
+      </c>
+      <c r="J798" t="s">
+        <v>12</v>
+      </c>
+      <c r="K798" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>54</v>
+      </c>
+      <c r="B799">
+        <v>1804</v>
+      </c>
+      <c r="C799" t="s">
+        <v>823</v>
+      </c>
+      <c r="F799" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H799" t="s">
+        <v>11</v>
+      </c>
+      <c r="I799">
+        <v>47</v>
+      </c>
+      <c r="J799" t="s">
+        <v>12</v>
+      </c>
+      <c r="K799" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>54</v>
+      </c>
+      <c r="B800">
+        <v>1804</v>
+      </c>
+      <c r="C800" t="s">
+        <v>824</v>
+      </c>
+      <c r="F800" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H800" t="s">
+        <v>11</v>
+      </c>
+      <c r="I800">
+        <v>47</v>
+      </c>
+      <c r="J800" t="s">
+        <v>12</v>
+      </c>
+      <c r="K800" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>54</v>
+      </c>
+      <c r="B801">
+        <v>1804</v>
+      </c>
+      <c r="C801" t="s">
+        <v>825</v>
+      </c>
+      <c r="F801" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H801" t="s">
+        <v>11</v>
+      </c>
+      <c r="I801">
+        <v>47</v>
+      </c>
+      <c r="J801" t="s">
+        <v>12</v>
+      </c>
+      <c r="K801" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>54</v>
+      </c>
+      <c r="B802">
+        <v>1804</v>
+      </c>
+      <c r="C802" t="s">
+        <v>826</v>
+      </c>
+      <c r="F802" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H802" t="s">
+        <v>11</v>
+      </c>
+      <c r="I802">
+        <v>47</v>
+      </c>
+      <c r="J802" t="s">
+        <v>12</v>
+      </c>
+      <c r="K802" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>54</v>
+      </c>
+      <c r="B803">
+        <v>1804</v>
+      </c>
+      <c r="C803" t="s">
+        <v>827</v>
+      </c>
+      <c r="F803" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H803" t="s">
+        <v>11</v>
+      </c>
+      <c r="I803">
+        <v>47</v>
+      </c>
+      <c r="J803" t="s">
+        <v>12</v>
+      </c>
+      <c r="K803" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>54</v>
+      </c>
+      <c r="B804">
+        <v>1804</v>
+      </c>
+      <c r="C804" t="s">
+        <v>828</v>
+      </c>
+      <c r="F804" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H804" t="s">
+        <v>11</v>
+      </c>
+      <c r="I804">
+        <v>47</v>
+      </c>
+      <c r="J804" t="s">
+        <v>12</v>
+      </c>
+      <c r="K804" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>54</v>
+      </c>
+      <c r="B805">
+        <v>1804</v>
+      </c>
+      <c r="C805" t="s">
+        <v>829</v>
+      </c>
+      <c r="F805" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H805" t="s">
+        <v>11</v>
+      </c>
+      <c r="I805">
+        <v>47</v>
+      </c>
+      <c r="J805" t="s">
+        <v>12</v>
+      </c>
+      <c r="K805" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>54</v>
+      </c>
+      <c r="B806">
+        <v>1804</v>
+      </c>
+      <c r="C806" t="s">
+        <v>830</v>
+      </c>
+      <c r="F806" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H806" t="s">
+        <v>11</v>
+      </c>
+      <c r="I806">
+        <v>47</v>
+      </c>
+      <c r="J806" t="s">
+        <v>12</v>
+      </c>
+      <c r="K806" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>54</v>
+      </c>
+      <c r="B807">
+        <v>1804</v>
+      </c>
+      <c r="C807" t="s">
+        <v>831</v>
+      </c>
+      <c r="F807" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H807" t="s">
+        <v>11</v>
+      </c>
+      <c r="I807">
+        <v>47</v>
+      </c>
+      <c r="J807" t="s">
+        <v>12</v>
+      </c>
+      <c r="K807" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>54</v>
+      </c>
+      <c r="B808">
+        <v>1804</v>
+      </c>
+      <c r="C808" t="s">
+        <v>832</v>
+      </c>
+      <c r="F808" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H808" t="s">
+        <v>11</v>
+      </c>
+      <c r="I808">
+        <v>47</v>
+      </c>
+      <c r="J808" t="s">
+        <v>12</v>
+      </c>
+      <c r="K808" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>54</v>
+      </c>
+      <c r="B809">
+        <v>1804</v>
+      </c>
+      <c r="C809" t="s">
+        <v>833</v>
+      </c>
+      <c r="F809" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H809" t="s">
+        <v>11</v>
+      </c>
+      <c r="I809">
+        <v>47</v>
+      </c>
+      <c r="J809" t="s">
+        <v>12</v>
+      </c>
+      <c r="K809" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>54</v>
+      </c>
+      <c r="B810">
+        <v>1804</v>
+      </c>
+      <c r="C810" t="s">
+        <v>834</v>
+      </c>
+      <c r="F810" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H810" t="s">
+        <v>11</v>
+      </c>
+      <c r="I810">
+        <v>47</v>
+      </c>
+      <c r="J810" t="s">
+        <v>12</v>
+      </c>
+      <c r="K810" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>54</v>
+      </c>
+      <c r="B811">
+        <v>1804</v>
+      </c>
+      <c r="C811" t="s">
+        <v>835</v>
+      </c>
+      <c r="F811" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H811" t="s">
+        <v>11</v>
+      </c>
+      <c r="I811">
+        <v>47</v>
+      </c>
+      <c r="J811" t="s">
+        <v>12</v>
+      </c>
+      <c r="K811" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>54</v>
+      </c>
+      <c r="B812">
+        <v>1804</v>
+      </c>
+      <c r="C812" t="s">
+        <v>836</v>
+      </c>
+      <c r="F812" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H812" t="s">
+        <v>11</v>
+      </c>
+      <c r="I812">
+        <v>47</v>
+      </c>
+      <c r="J812" t="s">
+        <v>12</v>
+      </c>
+      <c r="K812" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>54</v>
+      </c>
+      <c r="B813">
+        <v>1804</v>
+      </c>
+      <c r="C813" t="s">
+        <v>837</v>
+      </c>
+      <c r="F813" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H813" t="s">
+        <v>11</v>
+      </c>
+      <c r="I813">
+        <v>47</v>
+      </c>
+      <c r="J813" t="s">
+        <v>12</v>
+      </c>
+      <c r="K813" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>54</v>
+      </c>
+      <c r="B814">
+        <v>1804</v>
+      </c>
+      <c r="C814" t="s">
+        <v>838</v>
+      </c>
+      <c r="F814" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H814" t="s">
+        <v>11</v>
+      </c>
+      <c r="I814">
+        <v>47</v>
+      </c>
+      <c r="J814" t="s">
+        <v>12</v>
+      </c>
+      <c r="K814" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>54</v>
+      </c>
+      <c r="B815">
+        <v>1804</v>
+      </c>
+      <c r="C815" t="s">
+        <v>839</v>
+      </c>
+      <c r="F815" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H815" t="s">
+        <v>11</v>
+      </c>
+      <c r="I815">
+        <v>47</v>
+      </c>
+      <c r="J815" t="s">
+        <v>12</v>
+      </c>
+      <c r="K815" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>54</v>
+      </c>
+      <c r="B816">
+        <v>1804</v>
+      </c>
+      <c r="C816" t="s">
+        <v>840</v>
+      </c>
+      <c r="F816" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H816" t="s">
+        <v>11</v>
+      </c>
+      <c r="I816">
+        <v>47</v>
+      </c>
+      <c r="J816" t="s">
+        <v>12</v>
+      </c>
+      <c r="K816" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>54</v>
+      </c>
+      <c r="B817">
+        <v>1804</v>
+      </c>
+      <c r="C817" t="s">
+        <v>841</v>
+      </c>
+      <c r="F817" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H817" t="s">
+        <v>11</v>
+      </c>
+      <c r="I817">
+        <v>47</v>
+      </c>
+      <c r="J817" t="s">
+        <v>12</v>
+      </c>
+      <c r="K817" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>54</v>
+      </c>
+      <c r="B818">
+        <v>1804</v>
+      </c>
+      <c r="C818" t="s">
+        <v>842</v>
+      </c>
+      <c r="F818" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H818" t="s">
+        <v>11</v>
+      </c>
+      <c r="I818">
+        <v>47</v>
+      </c>
+      <c r="J818" t="s">
+        <v>12</v>
+      </c>
+      <c r="K818" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>54</v>
+      </c>
+      <c r="B819">
+        <v>1804</v>
+      </c>
+      <c r="C819" t="s">
+        <v>843</v>
+      </c>
+      <c r="F819" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H819" t="s">
+        <v>11</v>
+      </c>
+      <c r="I819">
+        <v>47</v>
+      </c>
+      <c r="J819" t="s">
+        <v>12</v>
+      </c>
+      <c r="K819" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>54</v>
+      </c>
+      <c r="B820">
+        <v>1804</v>
+      </c>
+      <c r="C820" t="s">
+        <v>844</v>
+      </c>
+      <c r="F820" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H820" t="s">
+        <v>11</v>
+      </c>
+      <c r="I820">
+        <v>47</v>
+      </c>
+      <c r="J820" t="s">
+        <v>12</v>
+      </c>
+      <c r="K820" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>54</v>
+      </c>
+      <c r="B821">
+        <v>1804</v>
+      </c>
+      <c r="C821" t="s">
+        <v>845</v>
+      </c>
+      <c r="F821" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H821" t="s">
+        <v>11</v>
+      </c>
+      <c r="I821">
+        <v>47</v>
+      </c>
+      <c r="J821" t="s">
+        <v>12</v>
+      </c>
+      <c r="K821" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>54</v>
+      </c>
+      <c r="B822">
+        <v>1804</v>
+      </c>
+      <c r="C822" t="s">
+        <v>846</v>
+      </c>
+      <c r="F822" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H822" t="s">
+        <v>11</v>
+      </c>
+      <c r="I822">
+        <v>47</v>
+      </c>
+      <c r="J822" t="s">
+        <v>12</v>
+      </c>
+      <c r="K822" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>54</v>
+      </c>
+      <c r="B823">
+        <v>1804</v>
+      </c>
+      <c r="C823" t="s">
+        <v>847</v>
+      </c>
+      <c r="F823" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H823" t="s">
+        <v>11</v>
+      </c>
+      <c r="I823">
+        <v>47</v>
+      </c>
+      <c r="J823" t="s">
+        <v>12</v>
+      </c>
+      <c r="K823" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>54</v>
+      </c>
+      <c r="B824">
+        <v>1804</v>
+      </c>
+      <c r="C824" t="s">
+        <v>848</v>
+      </c>
+      <c r="F824" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H824" t="s">
+        <v>11</v>
+      </c>
+      <c r="I824">
+        <v>47</v>
+      </c>
+      <c r="J824" t="s">
+        <v>12</v>
+      </c>
+      <c r="K824" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>54</v>
+      </c>
+      <c r="B825">
+        <v>1804</v>
+      </c>
+      <c r="C825" t="s">
+        <v>849</v>
+      </c>
+      <c r="F825" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H825" t="s">
+        <v>11</v>
+      </c>
+      <c r="I825">
+        <v>47</v>
+      </c>
+      <c r="J825" t="s">
+        <v>12</v>
+      </c>
+      <c r="K825" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>54</v>
+      </c>
+      <c r="B826">
+        <v>1804</v>
+      </c>
+      <c r="C826" t="s">
+        <v>850</v>
+      </c>
+      <c r="F826" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H826" t="s">
+        <v>11</v>
+      </c>
+      <c r="I826">
+        <v>47</v>
+      </c>
+      <c r="J826" t="s">
+        <v>12</v>
+      </c>
+      <c r="K826" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>54</v>
+      </c>
+      <c r="B827">
+        <v>1804</v>
+      </c>
+      <c r="C827" t="s">
+        <v>851</v>
+      </c>
+      <c r="F827" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H827" t="s">
+        <v>11</v>
+      </c>
+      <c r="I827">
+        <v>47</v>
+      </c>
+      <c r="J827" t="s">
+        <v>12</v>
+      </c>
+      <c r="K827" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>54</v>
+      </c>
+      <c r="B828">
+        <v>1804</v>
+      </c>
+      <c r="C828" t="s">
+        <v>852</v>
+      </c>
+      <c r="F828" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H828" t="s">
+        <v>11</v>
+      </c>
+      <c r="I828">
+        <v>47</v>
+      </c>
+      <c r="J828" t="s">
+        <v>12</v>
+      </c>
+      <c r="K828" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>54</v>
+      </c>
+      <c r="B829">
+        <v>1804</v>
+      </c>
+      <c r="C829" t="s">
+        <v>853</v>
+      </c>
+      <c r="F829" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H829" t="s">
+        <v>11</v>
+      </c>
+      <c r="I829">
+        <v>47</v>
+      </c>
+      <c r="J829" t="s">
+        <v>12</v>
+      </c>
+      <c r="K829" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>54</v>
+      </c>
+      <c r="B830">
+        <v>1804</v>
+      </c>
+      <c r="C830" t="s">
+        <v>854</v>
+      </c>
+      <c r="F830" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H830" t="s">
+        <v>11</v>
+      </c>
+      <c r="I830">
+        <v>47</v>
+      </c>
+      <c r="J830" t="s">
+        <v>12</v>
+      </c>
+      <c r="K830" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>54</v>
+      </c>
+      <c r="B831">
+        <v>1804</v>
+      </c>
+      <c r="C831" t="s">
+        <v>855</v>
+      </c>
+      <c r="F831" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H831" t="s">
+        <v>11</v>
+      </c>
+      <c r="I831">
+        <v>47</v>
+      </c>
+      <c r="J831" t="s">
+        <v>12</v>
+      </c>
+      <c r="K831" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>54</v>
+      </c>
+      <c r="B832">
+        <v>1804</v>
+      </c>
+      <c r="C832" t="s">
+        <v>856</v>
+      </c>
+      <c r="F832" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H832" t="s">
+        <v>11</v>
+      </c>
+      <c r="I832">
+        <v>47</v>
+      </c>
+      <c r="J832" t="s">
+        <v>12</v>
+      </c>
+      <c r="K832" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>54</v>
+      </c>
+      <c r="B833">
+        <v>1804</v>
+      </c>
+      <c r="C833" t="s">
+        <v>857</v>
+      </c>
+      <c r="F833" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H833" t="s">
+        <v>11</v>
+      </c>
+      <c r="I833">
+        <v>47</v>
+      </c>
+      <c r="J833" t="s">
+        <v>12</v>
+      </c>
+      <c r="K833" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>54</v>
+      </c>
+      <c r="B834">
+        <v>1804</v>
+      </c>
+      <c r="C834" t="s">
+        <v>858</v>
+      </c>
+      <c r="F834" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H834" t="s">
+        <v>11</v>
+      </c>
+      <c r="I834">
+        <v>47</v>
+      </c>
+      <c r="J834" t="s">
+        <v>12</v>
+      </c>
+      <c r="K834" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>54</v>
+      </c>
+      <c r="B835">
+        <v>1804</v>
+      </c>
+      <c r="C835" t="s">
+        <v>859</v>
+      </c>
+      <c r="F835" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H835" t="s">
+        <v>11</v>
+      </c>
+      <c r="I835">
+        <v>47</v>
+      </c>
+      <c r="J835" t="s">
+        <v>12</v>
+      </c>
+      <c r="K835" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>54</v>
+      </c>
+      <c r="B836">
+        <v>1804</v>
+      </c>
+      <c r="C836" t="s">
+        <v>860</v>
+      </c>
+      <c r="F836" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H836" t="s">
+        <v>11</v>
+      </c>
+      <c r="I836">
+        <v>47</v>
+      </c>
+      <c r="J836" t="s">
+        <v>12</v>
+      </c>
+      <c r="K836" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>54</v>
+      </c>
+      <c r="B837">
+        <v>1804</v>
+      </c>
+      <c r="C837" t="s">
+        <v>861</v>
+      </c>
+      <c r="F837" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H837" t="s">
+        <v>11</v>
+      </c>
+      <c r="I837">
+        <v>47</v>
+      </c>
+      <c r="J837" t="s">
+        <v>12</v>
+      </c>
+      <c r="K837" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>54</v>
+      </c>
+      <c r="B838">
+        <v>1804</v>
+      </c>
+      <c r="C838" t="s">
+        <v>862</v>
+      </c>
+      <c r="F838" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H838" t="s">
+        <v>11</v>
+      </c>
+      <c r="I838">
+        <v>47</v>
+      </c>
+      <c r="J838" t="s">
+        <v>12</v>
+      </c>
+      <c r="K838" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>54</v>
+      </c>
+      <c r="B839">
+        <v>1804</v>
+      </c>
+      <c r="C839" t="s">
+        <v>863</v>
+      </c>
+      <c r="F839" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H839" t="s">
+        <v>11</v>
+      </c>
+      <c r="I839">
+        <v>47</v>
+      </c>
+      <c r="J839" t="s">
+        <v>12</v>
+      </c>
+      <c r="K839" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>54</v>
+      </c>
+      <c r="B840">
+        <v>1804</v>
+      </c>
+      <c r="C840" t="s">
+        <v>864</v>
+      </c>
+      <c r="F840" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H840" t="s">
+        <v>11</v>
+      </c>
+      <c r="I840">
+        <v>47</v>
+      </c>
+      <c r="J840" t="s">
+        <v>12</v>
+      </c>
+      <c r="K840" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>54</v>
+      </c>
+      <c r="B841">
+        <v>1804</v>
+      </c>
+      <c r="C841" t="s">
+        <v>865</v>
+      </c>
+      <c r="F841" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H841" t="s">
+        <v>11</v>
+      </c>
+      <c r="I841">
+        <v>47</v>
+      </c>
+      <c r="J841" t="s">
+        <v>12</v>
+      </c>
+      <c r="K841" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>54</v>
+      </c>
+      <c r="B842">
+        <v>1804</v>
+      </c>
+      <c r="C842" t="s">
+        <v>866</v>
+      </c>
+      <c r="F842" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H842" t="s">
+        <v>11</v>
+      </c>
+      <c r="I842">
+        <v>47</v>
+      </c>
+      <c r="J842" t="s">
+        <v>12</v>
+      </c>
+      <c r="K842" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>54</v>
+      </c>
+      <c r="B843">
+        <v>1804</v>
+      </c>
+      <c r="C843" t="s">
+        <v>867</v>
+      </c>
+      <c r="F843" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H843" t="s">
+        <v>11</v>
+      </c>
+      <c r="I843">
+        <v>47</v>
+      </c>
+      <c r="J843" t="s">
+        <v>12</v>
+      </c>
+      <c r="K843" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>54</v>
+      </c>
+      <c r="B844">
+        <v>1804</v>
+      </c>
+      <c r="C844" t="s">
+        <v>868</v>
+      </c>
+      <c r="F844" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H844" t="s">
+        <v>11</v>
+      </c>
+      <c r="I844">
+        <v>47</v>
+      </c>
+      <c r="J844" t="s">
+        <v>12</v>
+      </c>
+      <c r="K844" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>54</v>
+      </c>
+      <c r="B845">
+        <v>1804</v>
+      </c>
+      <c r="C845" t="s">
+        <v>869</v>
+      </c>
+      <c r="F845" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H845" t="s">
+        <v>11</v>
+      </c>
+      <c r="I845">
+        <v>47</v>
+      </c>
+      <c r="J845" t="s">
+        <v>12</v>
+      </c>
+      <c r="K845" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>54</v>
+      </c>
+      <c r="B846">
+        <v>1804</v>
+      </c>
+      <c r="C846" t="s">
+        <v>870</v>
+      </c>
+      <c r="F846" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H846" t="s">
+        <v>11</v>
+      </c>
+      <c r="I846">
+        <v>47</v>
+      </c>
+      <c r="J846" t="s">
+        <v>12</v>
+      </c>
+      <c r="K846" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>54</v>
+      </c>
+      <c r="B847">
+        <v>1804</v>
+      </c>
+      <c r="C847" t="s">
+        <v>871</v>
+      </c>
+      <c r="F847" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H847" t="s">
+        <v>11</v>
+      </c>
+      <c r="I847">
+        <v>47</v>
+      </c>
+      <c r="J847" t="s">
+        <v>12</v>
+      </c>
+      <c r="K847" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>54</v>
+      </c>
+      <c r="B848">
+        <v>1804</v>
+      </c>
+      <c r="C848" t="s">
+        <v>872</v>
+      </c>
+      <c r="F848" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H848" t="s">
+        <v>11</v>
+      </c>
+      <c r="I848">
+        <v>47</v>
+      </c>
+      <c r="J848" t="s">
+        <v>12</v>
+      </c>
+      <c r="K848" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>54</v>
+      </c>
+      <c r="B849">
+        <v>1804</v>
+      </c>
+      <c r="C849" t="s">
+        <v>873</v>
+      </c>
+      <c r="F849" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H849" t="s">
+        <v>11</v>
+      </c>
+      <c r="I849">
+        <v>47</v>
+      </c>
+      <c r="J849" t="s">
+        <v>12</v>
+      </c>
+      <c r="K849" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>54</v>
+      </c>
+      <c r="B850">
+        <v>1804</v>
+      </c>
+      <c r="C850" t="s">
+        <v>874</v>
+      </c>
+      <c r="F850" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H850" t="s">
+        <v>11</v>
+      </c>
+      <c r="I850">
+        <v>47</v>
+      </c>
+      <c r="J850" t="s">
+        <v>12</v>
+      </c>
+      <c r="K850" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>54</v>
+      </c>
+      <c r="B851">
+        <v>1804</v>
+      </c>
+      <c r="C851" t="s">
+        <v>875</v>
+      </c>
+      <c r="F851" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H851" t="s">
+        <v>11</v>
+      </c>
+      <c r="I851">
+        <v>47</v>
+      </c>
+      <c r="J851" t="s">
+        <v>12</v>
+      </c>
+      <c r="K851" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>54</v>
+      </c>
+      <c r="B852">
+        <v>1804</v>
+      </c>
+      <c r="C852" t="s">
+        <v>876</v>
+      </c>
+      <c r="F852" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H852" t="s">
+        <v>11</v>
+      </c>
+      <c r="I852">
+        <v>47</v>
+      </c>
+      <c r="J852" t="s">
+        <v>12</v>
+      </c>
+      <c r="K852" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>54</v>
+      </c>
+      <c r="B853">
+        <v>1804</v>
+      </c>
+      <c r="C853" t="s">
+        <v>877</v>
+      </c>
+      <c r="F853" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H853" t="s">
+        <v>11</v>
+      </c>
+      <c r="I853">
+        <v>47</v>
+      </c>
+      <c r="J853" t="s">
+        <v>12</v>
+      </c>
+      <c r="K853" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>54</v>
+      </c>
+      <c r="B854">
+        <v>1804</v>
+      </c>
+      <c r="C854" t="s">
+        <v>878</v>
+      </c>
+      <c r="F854" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H854" t="s">
+        <v>11</v>
+      </c>
+      <c r="I854">
+        <v>47</v>
+      </c>
+      <c r="J854" t="s">
+        <v>12</v>
+      </c>
+      <c r="K854" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>54</v>
+      </c>
+      <c r="B855">
+        <v>1804</v>
+      </c>
+      <c r="C855" t="s">
+        <v>879</v>
+      </c>
+      <c r="F855" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H855" t="s">
+        <v>11</v>
+      </c>
+      <c r="I855">
+        <v>47</v>
+      </c>
+      <c r="J855" t="s">
+        <v>12</v>
+      </c>
+      <c r="K855" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>54</v>
+      </c>
+      <c r="B856">
+        <v>1804</v>
+      </c>
+      <c r="C856" t="s">
+        <v>880</v>
+      </c>
+      <c r="F856" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H856" t="s">
+        <v>11</v>
+      </c>
+      <c r="I856">
+        <v>47</v>
+      </c>
+      <c r="J856" t="s">
+        <v>12</v>
+      </c>
+      <c r="K856" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>54</v>
+      </c>
+      <c r="B857">
+        <v>1804</v>
+      </c>
+      <c r="C857" t="s">
+        <v>881</v>
+      </c>
+      <c r="F857" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H857" t="s">
+        <v>11</v>
+      </c>
+      <c r="I857">
+        <v>47</v>
+      </c>
+      <c r="J857" t="s">
+        <v>12</v>
+      </c>
+      <c r="K857" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>54</v>
+      </c>
+      <c r="B858">
+        <v>1804</v>
+      </c>
+      <c r="C858" t="s">
+        <v>882</v>
+      </c>
+      <c r="F858" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H858" t="s">
+        <v>11</v>
+      </c>
+      <c r="I858">
+        <v>47</v>
+      </c>
+      <c r="J858" t="s">
+        <v>12</v>
+      </c>
+      <c r="K858" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>54</v>
+      </c>
+      <c r="B859">
+        <v>1804</v>
+      </c>
+      <c r="C859" t="s">
+        <v>883</v>
+      </c>
+      <c r="F859" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H859" t="s">
+        <v>11</v>
+      </c>
+      <c r="I859">
+        <v>47</v>
+      </c>
+      <c r="J859" t="s">
+        <v>12</v>
+      </c>
+      <c r="K859" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>54</v>
+      </c>
+      <c r="B860">
+        <v>1804</v>
+      </c>
+      <c r="C860" t="s">
+        <v>884</v>
+      </c>
+      <c r="F860" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H860" t="s">
+        <v>11</v>
+      </c>
+      <c r="I860">
+        <v>47</v>
+      </c>
+      <c r="J860" t="s">
+        <v>12</v>
+      </c>
+      <c r="K860" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>54</v>
+      </c>
+      <c r="B861">
+        <v>1804</v>
+      </c>
+      <c r="C861" t="s">
+        <v>885</v>
+      </c>
+      <c r="F861" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H861" t="s">
+        <v>11</v>
+      </c>
+      <c r="I861">
+        <v>47</v>
+      </c>
+      <c r="J861" t="s">
+        <v>12</v>
+      </c>
+      <c r="K861" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>54</v>
+      </c>
+      <c r="B862">
+        <v>1804</v>
+      </c>
+      <c r="C862" t="s">
+        <v>886</v>
+      </c>
+      <c r="F862" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H862" t="s">
+        <v>11</v>
+      </c>
+      <c r="I862">
+        <v>47</v>
+      </c>
+      <c r="J862" t="s">
+        <v>12</v>
+      </c>
+      <c r="K862" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>54</v>
+      </c>
+      <c r="B863">
+        <v>1804</v>
+      </c>
+      <c r="C863" t="s">
+        <v>887</v>
+      </c>
+      <c r="F863" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H863" t="s">
+        <v>11</v>
+      </c>
+      <c r="I863">
+        <v>47</v>
+      </c>
+      <c r="J863" t="s">
+        <v>12</v>
+      </c>
+      <c r="K863" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>54</v>
+      </c>
+      <c r="B864">
+        <v>1804</v>
+      </c>
+      <c r="C864" t="s">
+        <v>888</v>
+      </c>
+      <c r="F864" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H864" t="s">
+        <v>11</v>
+      </c>
+      <c r="I864">
+        <v>47</v>
+      </c>
+      <c r="J864" t="s">
+        <v>12</v>
+      </c>
+      <c r="K864" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>54</v>
+      </c>
+      <c r="B865">
+        <v>1804</v>
+      </c>
+      <c r="C865" t="s">
+        <v>889</v>
+      </c>
+      <c r="F865" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H865" t="s">
+        <v>11</v>
+      </c>
+      <c r="I865">
+        <v>47</v>
+      </c>
+      <c r="J865" t="s">
+        <v>12</v>
+      </c>
+      <c r="K865" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>54</v>
+      </c>
+      <c r="B866">
+        <v>1804</v>
+      </c>
+      <c r="C866" t="s">
+        <v>890</v>
+      </c>
+      <c r="F866" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H866" t="s">
+        <v>11</v>
+      </c>
+      <c r="I866">
+        <v>47</v>
+      </c>
+      <c r="J866" t="s">
+        <v>12</v>
+      </c>
+      <c r="K866" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>54</v>
+      </c>
+      <c r="B867">
+        <v>1804</v>
+      </c>
+      <c r="C867" t="s">
+        <v>891</v>
+      </c>
+      <c r="F867" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H867" t="s">
+        <v>11</v>
+      </c>
+      <c r="I867">
+        <v>47</v>
+      </c>
+      <c r="J867" t="s">
+        <v>12</v>
+      </c>
+      <c r="K867" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>54</v>
+      </c>
+      <c r="B868">
+        <v>1804</v>
+      </c>
+      <c r="C868" t="s">
+        <v>892</v>
+      </c>
+      <c r="F868" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H868" t="s">
+        <v>11</v>
+      </c>
+      <c r="I868">
+        <v>47</v>
+      </c>
+      <c r="J868" t="s">
+        <v>12</v>
+      </c>
+      <c r="K868" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>54</v>
+      </c>
+      <c r="B869">
+        <v>1804</v>
+      </c>
+      <c r="C869" t="s">
+        <v>893</v>
+      </c>
+      <c r="F869" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H869" t="s">
+        <v>11</v>
+      </c>
+      <c r="I869">
+        <v>47</v>
+      </c>
+      <c r="J869" t="s">
+        <v>12</v>
+      </c>
+      <c r="K869" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>54</v>
+      </c>
+      <c r="B870">
+        <v>1804</v>
+      </c>
+      <c r="C870" t="s">
+        <v>894</v>
+      </c>
+      <c r="F870" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H870" t="s">
+        <v>11</v>
+      </c>
+      <c r="I870">
+        <v>47</v>
+      </c>
+      <c r="J870" t="s">
+        <v>12</v>
+      </c>
+      <c r="K870" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>54</v>
+      </c>
+      <c r="B871">
+        <v>1804</v>
+      </c>
+      <c r="C871" t="s">
+        <v>895</v>
+      </c>
+      <c r="F871" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H871" t="s">
+        <v>11</v>
+      </c>
+      <c r="I871">
+        <v>47</v>
+      </c>
+      <c r="J871" t="s">
+        <v>12</v>
+      </c>
+      <c r="K871" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>54</v>
+      </c>
+      <c r="B872">
+        <v>1804</v>
+      </c>
+      <c r="C872" t="s">
+        <v>896</v>
+      </c>
+      <c r="F872" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H872" t="s">
+        <v>11</v>
+      </c>
+      <c r="I872">
+        <v>47</v>
+      </c>
+      <c r="J872" t="s">
+        <v>12</v>
+      </c>
+      <c r="K872" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>54</v>
+      </c>
+      <c r="B873">
+        <v>1804</v>
+      </c>
+      <c r="C873" t="s">
+        <v>897</v>
+      </c>
+      <c r="F873" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H873" t="s">
+        <v>11</v>
+      </c>
+      <c r="I873">
+        <v>47</v>
+      </c>
+      <c r="J873" t="s">
+        <v>12</v>
+      </c>
+      <c r="K873" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>54</v>
+      </c>
+      <c r="B874">
+        <v>1804</v>
+      </c>
+      <c r="C874" t="s">
+        <v>898</v>
+      </c>
+      <c r="F874" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H874" t="s">
+        <v>11</v>
+      </c>
+      <c r="I874">
+        <v>47</v>
+      </c>
+      <c r="J874" t="s">
+        <v>12</v>
+      </c>
+      <c r="K874" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>53</v>
+      </c>
+      <c r="B875">
+        <v>1804</v>
+      </c>
+      <c r="C875" t="s">
+        <v>899</v>
+      </c>
+      <c r="F875" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H875" t="s">
+        <v>11</v>
+      </c>
+      <c r="I875">
+        <v>47</v>
+      </c>
+      <c r="J875" t="s">
+        <v>12</v>
+      </c>
+      <c r="K875" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>53</v>
+      </c>
+      <c r="B876">
+        <v>1804</v>
+      </c>
+      <c r="C876" t="s">
+        <v>900</v>
+      </c>
+      <c r="F876" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H876" t="s">
+        <v>11</v>
+      </c>
+      <c r="I876">
+        <v>47</v>
+      </c>
+      <c r="J876" t="s">
+        <v>12</v>
+      </c>
+      <c r="K876" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>53</v>
+      </c>
+      <c r="B877">
+        <v>1804</v>
+      </c>
+      <c r="C877" t="s">
+        <v>901</v>
+      </c>
+      <c r="F877" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H877" t="s">
+        <v>11</v>
+      </c>
+      <c r="I877">
+        <v>47</v>
+      </c>
+      <c r="J877" t="s">
+        <v>12</v>
+      </c>
+      <c r="K877" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>53</v>
+      </c>
+      <c r="B878">
+        <v>1804</v>
+      </c>
+      <c r="C878" t="s">
+        <v>902</v>
+      </c>
+      <c r="F878" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H878" t="s">
+        <v>11</v>
+      </c>
+      <c r="I878">
+        <v>47</v>
+      </c>
+      <c r="J878" t="s">
+        <v>12</v>
+      </c>
+      <c r="K878" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>53</v>
+      </c>
+      <c r="B879">
+        <v>1804</v>
+      </c>
+      <c r="C879" t="s">
+        <v>903</v>
+      </c>
+      <c r="F879" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H879" t="s">
+        <v>11</v>
+      </c>
+      <c r="I879">
+        <v>47</v>
+      </c>
+      <c r="J879" t="s">
+        <v>12</v>
+      </c>
+      <c r="K879" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>53</v>
+      </c>
+      <c r="B880">
+        <v>1804</v>
+      </c>
+      <c r="C880" t="s">
+        <v>904</v>
+      </c>
+      <c r="F880" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H880" t="s">
+        <v>11</v>
+      </c>
+      <c r="I880">
+        <v>47</v>
+      </c>
+      <c r="J880" t="s">
+        <v>12</v>
+      </c>
+      <c r="K880" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>53</v>
+      </c>
+      <c r="B881">
+        <v>1804</v>
+      </c>
+      <c r="C881" t="s">
+        <v>905</v>
+      </c>
+      <c r="F881" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H881" t="s">
+        <v>11</v>
+      </c>
+      <c r="I881">
+        <v>47</v>
+      </c>
+      <c r="J881" t="s">
+        <v>12</v>
+      </c>
+      <c r="K881" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>53</v>
+      </c>
+      <c r="B882">
+        <v>1804</v>
+      </c>
+      <c r="C882" t="s">
+        <v>906</v>
+      </c>
+      <c r="F882" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H882" t="s">
+        <v>11</v>
+      </c>
+      <c r="I882">
+        <v>47</v>
+      </c>
+      <c r="J882" t="s">
+        <v>12</v>
+      </c>
+      <c r="K882" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>53</v>
+      </c>
+      <c r="B883">
+        <v>1804</v>
+      </c>
+      <c r="C883" t="s">
+        <v>907</v>
+      </c>
+      <c r="F883" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H883" t="s">
+        <v>11</v>
+      </c>
+      <c r="I883">
+        <v>47</v>
+      </c>
+      <c r="J883" t="s">
+        <v>12</v>
+      </c>
+      <c r="K883" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>53</v>
+      </c>
+      <c r="B884">
+        <v>1804</v>
+      </c>
+      <c r="C884" t="s">
+        <v>908</v>
+      </c>
+      <c r="F884" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H884" t="s">
+        <v>11</v>
+      </c>
+      <c r="I884">
+        <v>47</v>
+      </c>
+      <c r="J884" t="s">
+        <v>12</v>
+      </c>
+      <c r="K884" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>53</v>
+      </c>
+      <c r="B885">
+        <v>1804</v>
+      </c>
+      <c r="C885" t="s">
+        <v>909</v>
+      </c>
+      <c r="F885" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H885" t="s">
+        <v>11</v>
+      </c>
+      <c r="I885">
+        <v>47</v>
+      </c>
+      <c r="J885" t="s">
+        <v>12</v>
+      </c>
+      <c r="K885" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>53</v>
+      </c>
+      <c r="B886">
+        <v>1804</v>
+      </c>
+      <c r="C886" t="s">
+        <v>910</v>
+      </c>
+      <c r="F886" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H886" t="s">
+        <v>11</v>
+      </c>
+      <c r="I886">
+        <v>47</v>
+      </c>
+      <c r="J886" t="s">
+        <v>12</v>
+      </c>
+      <c r="K886" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>53</v>
+      </c>
+      <c r="B887">
+        <v>1804</v>
+      </c>
+      <c r="C887" t="s">
+        <v>911</v>
+      </c>
+      <c r="F887" s="1">
+        <v>1744</v>
+      </c>
+      <c r="H887" t="s">
+        <v>11</v>
+      </c>
+      <c r="I887">
+        <v>47</v>
+      </c>
+      <c r="J887" t="s">
+        <v>12</v>
+      </c>
+      <c r="K887" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Confirmacions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3CDCE-C534-4EFE-A0BF-1893F7E08655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C609C9-5665-4B74-B2CC-A9E839FB7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEEAE0F-87B7-4CFD-9217-CD5D622A9875}"/>
   </bookViews>
@@ -3143,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}">
   <dimension ref="A1:L887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A855" workbookViewId="0">
-      <selection activeCell="E883" sqref="E883"/>
+    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
+      <selection activeCell="A888" sqref="A888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13946,7 +13946,7 @@
         <v>60</v>
       </c>
       <c r="B370">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C370" t="s">
         <v>395</v>
@@ -13975,7 +13975,7 @@
         <v>60</v>
       </c>
       <c r="B371">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C371" t="s">
         <v>396</v>
@@ -14004,7 +14004,7 @@
         <v>60</v>
       </c>
       <c r="B372">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C372" t="s">
         <v>397</v>
@@ -14033,7 +14033,7 @@
         <v>60</v>
       </c>
       <c r="B373">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C373" t="s">
         <v>398</v>
@@ -14062,7 +14062,7 @@
         <v>60</v>
       </c>
       <c r="B374">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C374" t="s">
         <v>399</v>
@@ -14091,7 +14091,7 @@
         <v>60</v>
       </c>
       <c r="B375">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C375" t="s">
         <v>400</v>
@@ -14120,7 +14120,7 @@
         <v>60</v>
       </c>
       <c r="B376">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C376" t="s">
         <v>401</v>
@@ -14149,7 +14149,7 @@
         <v>60</v>
       </c>
       <c r="B377">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C377" t="s">
         <v>402</v>
@@ -14178,7 +14178,7 @@
         <v>60</v>
       </c>
       <c r="B378">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C378" t="s">
         <v>403</v>
@@ -14207,7 +14207,7 @@
         <v>60</v>
       </c>
       <c r="B379">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C379" t="s">
         <v>404</v>
@@ -14236,7 +14236,7 @@
         <v>60</v>
       </c>
       <c r="B380">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C380" t="s">
         <v>405</v>
@@ -14265,7 +14265,7 @@
         <v>60</v>
       </c>
       <c r="B381">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C381" t="s">
         <v>406</v>
@@ -14294,7 +14294,7 @@
         <v>60</v>
       </c>
       <c r="B382">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C382" t="s">
         <v>407</v>
@@ -14323,7 +14323,7 @@
         <v>60</v>
       </c>
       <c r="B383">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C383" t="s">
         <v>408</v>
@@ -14352,7 +14352,7 @@
         <v>60</v>
       </c>
       <c r="B384">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C384" t="s">
         <v>409</v>
@@ -14381,7 +14381,7 @@
         <v>60</v>
       </c>
       <c r="B385">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C385" t="s">
         <v>410</v>
@@ -14410,7 +14410,7 @@
         <v>60</v>
       </c>
       <c r="B386">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C386" t="s">
         <v>411</v>
@@ -14439,7 +14439,7 @@
         <v>60</v>
       </c>
       <c r="B387">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C387" t="s">
         <v>412</v>
@@ -14468,7 +14468,7 @@
         <v>60</v>
       </c>
       <c r="B388">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C388" t="s">
         <v>413</v>
@@ -14497,7 +14497,7 @@
         <v>60</v>
       </c>
       <c r="B389">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C389" t="s">
         <v>414</v>
@@ -14526,7 +14526,7 @@
         <v>60</v>
       </c>
       <c r="B390">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C390" t="s">
         <v>415</v>
@@ -14555,7 +14555,7 @@
         <v>60</v>
       </c>
       <c r="B391">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C391" t="s">
         <v>416</v>
@@ -14584,7 +14584,7 @@
         <v>60</v>
       </c>
       <c r="B392">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C392" t="s">
         <v>417</v>
@@ -14613,7 +14613,7 @@
         <v>60</v>
       </c>
       <c r="B393">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C393" t="s">
         <v>418</v>
@@ -14642,7 +14642,7 @@
         <v>60</v>
       </c>
       <c r="B394">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C394" t="s">
         <v>419</v>
@@ -14671,7 +14671,7 @@
         <v>60</v>
       </c>
       <c r="B395">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C395" t="s">
         <v>420</v>
@@ -14700,7 +14700,7 @@
         <v>60</v>
       </c>
       <c r="B396">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C396" t="s">
         <v>421</v>
@@ -14729,7 +14729,7 @@
         <v>59</v>
       </c>
       <c r="B397">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C397" t="s">
         <v>422</v>
@@ -14758,7 +14758,7 @@
         <v>59</v>
       </c>
       <c r="B398">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C398" t="s">
         <v>423</v>
@@ -14787,7 +14787,7 @@
         <v>59</v>
       </c>
       <c r="B399">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C399" t="s">
         <v>424</v>
@@ -14816,7 +14816,7 @@
         <v>59</v>
       </c>
       <c r="B400">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C400" t="s">
         <v>425</v>
@@ -14845,7 +14845,7 @@
         <v>59</v>
       </c>
       <c r="B401">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C401" t="s">
         <v>426</v>
@@ -14874,7 +14874,7 @@
         <v>59</v>
       </c>
       <c r="B402">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C402" t="s">
         <v>427</v>
@@ -14903,7 +14903,7 @@
         <v>59</v>
       </c>
       <c r="B403">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C403" t="s">
         <v>428</v>
@@ -14932,7 +14932,7 @@
         <v>59</v>
       </c>
       <c r="B404">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C404" t="s">
         <v>429</v>
@@ -14961,7 +14961,7 @@
         <v>59</v>
       </c>
       <c r="B405">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C405" t="s">
         <v>430</v>
@@ -14990,7 +14990,7 @@
         <v>59</v>
       </c>
       <c r="B406">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C406" t="s">
         <v>431</v>
@@ -15019,7 +15019,7 @@
         <v>59</v>
       </c>
       <c r="B407">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C407" t="s">
         <v>432</v>
@@ -15048,7 +15048,7 @@
         <v>59</v>
       </c>
       <c r="B408">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C408" t="s">
         <v>433</v>
@@ -15077,7 +15077,7 @@
         <v>59</v>
       </c>
       <c r="B409">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C409" t="s">
         <v>434</v>
@@ -15106,7 +15106,7 @@
         <v>59</v>
       </c>
       <c r="B410">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C410" t="s">
         <v>435</v>
@@ -15135,7 +15135,7 @@
         <v>59</v>
       </c>
       <c r="B411">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C411" t="s">
         <v>436</v>
@@ -15164,7 +15164,7 @@
         <v>59</v>
       </c>
       <c r="B412">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C412" t="s">
         <v>437</v>
@@ -15193,7 +15193,7 @@
         <v>59</v>
       </c>
       <c r="B413">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C413" t="s">
         <v>438</v>
@@ -15222,7 +15222,7 @@
         <v>59</v>
       </c>
       <c r="B414">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C414" t="s">
         <v>439</v>
@@ -15251,7 +15251,7 @@
         <v>59</v>
       </c>
       <c r="B415">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C415" t="s">
         <v>440</v>
@@ -15280,7 +15280,7 @@
         <v>59</v>
       </c>
       <c r="B416">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C416" t="s">
         <v>441</v>
@@ -15309,7 +15309,7 @@
         <v>59</v>
       </c>
       <c r="B417">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C417" t="s">
         <v>442</v>
@@ -15338,7 +15338,7 @@
         <v>59</v>
       </c>
       <c r="B418">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C418" t="s">
         <v>443</v>
@@ -15367,7 +15367,7 @@
         <v>59</v>
       </c>
       <c r="B419">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C419" t="s">
         <v>444</v>
@@ -15396,7 +15396,7 @@
         <v>59</v>
       </c>
       <c r="B420">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C420" t="s">
         <v>445</v>
@@ -15425,7 +15425,7 @@
         <v>59</v>
       </c>
       <c r="B421">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C421" t="s">
         <v>446</v>
@@ -15454,7 +15454,7 @@
         <v>59</v>
       </c>
       <c r="B422">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C422" t="s">
         <v>447</v>
@@ -15483,7 +15483,7 @@
         <v>59</v>
       </c>
       <c r="B423">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C423" t="s">
         <v>448</v>
@@ -15512,7 +15512,7 @@
         <v>59</v>
       </c>
       <c r="B424">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C424" t="s">
         <v>449</v>
@@ -15541,7 +15541,7 @@
         <v>59</v>
       </c>
       <c r="B425">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C425" t="s">
         <v>450</v>
@@ -15570,7 +15570,7 @@
         <v>59</v>
       </c>
       <c r="B426">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C426" t="s">
         <v>451</v>
@@ -15599,7 +15599,7 @@
         <v>59</v>
       </c>
       <c r="B427">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C427" t="s">
         <v>452</v>
@@ -15628,7 +15628,7 @@
         <v>59</v>
       </c>
       <c r="B428">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C428" t="s">
         <v>453</v>
@@ -15657,7 +15657,7 @@
         <v>59</v>
       </c>
       <c r="B429">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C429" t="s">
         <v>454</v>
@@ -15686,7 +15686,7 @@
         <v>59</v>
       </c>
       <c r="B430">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C430" t="s">
         <v>455</v>
@@ -15715,7 +15715,7 @@
         <v>59</v>
       </c>
       <c r="B431">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C431" t="s">
         <v>456</v>
@@ -15744,7 +15744,7 @@
         <v>59</v>
       </c>
       <c r="B432">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C432" t="s">
         <v>457</v>
@@ -15773,7 +15773,7 @@
         <v>59</v>
       </c>
       <c r="B433">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C433" t="s">
         <v>458</v>
@@ -15802,7 +15802,7 @@
         <v>59</v>
       </c>
       <c r="B434">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C434" t="s">
         <v>459</v>
@@ -15831,7 +15831,7 @@
         <v>59</v>
       </c>
       <c r="B435">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C435" t="s">
         <v>460</v>
@@ -15860,7 +15860,7 @@
         <v>59</v>
       </c>
       <c r="B436">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C436" t="s">
         <v>461</v>
@@ -15889,7 +15889,7 @@
         <v>59</v>
       </c>
       <c r="B437">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C437" t="s">
         <v>462</v>
@@ -15918,7 +15918,7 @@
         <v>59</v>
       </c>
       <c r="B438">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C438" t="s">
         <v>463</v>
@@ -15947,7 +15947,7 @@
         <v>59</v>
       </c>
       <c r="B439">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C439" t="s">
         <v>464</v>
@@ -15976,7 +15976,7 @@
         <v>59</v>
       </c>
       <c r="B440">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C440" t="s">
         <v>465</v>
@@ -16005,7 +16005,7 @@
         <v>59</v>
       </c>
       <c r="B441">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C441" t="s">
         <v>466</v>
@@ -16034,7 +16034,7 @@
         <v>59</v>
       </c>
       <c r="B442">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C442" t="s">
         <v>467</v>
@@ -16063,7 +16063,7 @@
         <v>59</v>
       </c>
       <c r="B443">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C443" t="s">
         <v>468</v>
@@ -16092,7 +16092,7 @@
         <v>59</v>
       </c>
       <c r="B444">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C444" t="s">
         <v>469</v>
@@ -16121,7 +16121,7 @@
         <v>59</v>
       </c>
       <c r="B445">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C445" t="s">
         <v>470</v>
@@ -16150,7 +16150,7 @@
         <v>59</v>
       </c>
       <c r="B446">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C446" t="s">
         <v>471</v>
@@ -16179,7 +16179,7 @@
         <v>59</v>
       </c>
       <c r="B447">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C447" t="s">
         <v>472</v>
@@ -16208,7 +16208,7 @@
         <v>59</v>
       </c>
       <c r="B448">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C448" t="s">
         <v>473</v>
@@ -16237,7 +16237,7 @@
         <v>59</v>
       </c>
       <c r="B449">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C449" t="s">
         <v>474</v>
@@ -16266,7 +16266,7 @@
         <v>59</v>
       </c>
       <c r="B450">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C450" t="s">
         <v>475</v>
@@ -16295,7 +16295,7 @@
         <v>59</v>
       </c>
       <c r="B451">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C451" t="s">
         <v>476</v>
@@ -16324,7 +16324,7 @@
         <v>59</v>
       </c>
       <c r="B452">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C452" t="s">
         <v>477</v>
@@ -16353,7 +16353,7 @@
         <v>59</v>
       </c>
       <c r="B453">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C453" t="s">
         <v>478</v>
@@ -16382,7 +16382,7 @@
         <v>59</v>
       </c>
       <c r="B454">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C454" t="s">
         <v>479</v>
@@ -16411,7 +16411,7 @@
         <v>59</v>
       </c>
       <c r="B455">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C455" t="s">
         <v>480</v>
@@ -16440,7 +16440,7 @@
         <v>59</v>
       </c>
       <c r="B456">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C456" t="s">
         <v>481</v>
@@ -16469,7 +16469,7 @@
         <v>59</v>
       </c>
       <c r="B457">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C457" t="s">
         <v>482</v>
@@ -16498,7 +16498,7 @@
         <v>59</v>
       </c>
       <c r="B458">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C458" t="s">
         <v>483</v>
@@ -16527,7 +16527,7 @@
         <v>59</v>
       </c>
       <c r="B459">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C459" t="s">
         <v>484</v>
@@ -16556,7 +16556,7 @@
         <v>59</v>
       </c>
       <c r="B460">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C460" t="s">
         <v>485</v>
@@ -16585,7 +16585,7 @@
         <v>59</v>
       </c>
       <c r="B461">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C461" t="s">
         <v>486</v>
@@ -16614,7 +16614,7 @@
         <v>59</v>
       </c>
       <c r="B462">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C462" t="s">
         <v>487</v>
@@ -16643,7 +16643,7 @@
         <v>59</v>
       </c>
       <c r="B463">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C463" t="s">
         <v>488</v>
@@ -16672,7 +16672,7 @@
         <v>59</v>
       </c>
       <c r="B464">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C464" t="s">
         <v>489</v>
@@ -16701,7 +16701,7 @@
         <v>59</v>
       </c>
       <c r="B465">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C465" t="s">
         <v>490</v>
@@ -16730,7 +16730,7 @@
         <v>59</v>
       </c>
       <c r="B466">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C466" t="s">
         <v>491</v>
@@ -16759,7 +16759,7 @@
         <v>59</v>
       </c>
       <c r="B467">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C467" t="s">
         <v>492</v>
@@ -16788,7 +16788,7 @@
         <v>59</v>
       </c>
       <c r="B468">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C468" t="s">
         <v>493</v>
@@ -16817,7 +16817,7 @@
         <v>59</v>
       </c>
       <c r="B469">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C469" t="s">
         <v>494</v>
@@ -16846,7 +16846,7 @@
         <v>59</v>
       </c>
       <c r="B470">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C470" t="s">
         <v>495</v>
@@ -16875,7 +16875,7 @@
         <v>59</v>
       </c>
       <c r="B471">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C471" t="s">
         <v>496</v>
@@ -16904,7 +16904,7 @@
         <v>59</v>
       </c>
       <c r="B472">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C472" t="s">
         <v>497</v>
@@ -16933,7 +16933,7 @@
         <v>59</v>
       </c>
       <c r="B473">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C473" t="s">
         <v>498</v>
@@ -16962,7 +16962,7 @@
         <v>59</v>
       </c>
       <c r="B474">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C474" t="s">
         <v>499</v>
@@ -16991,7 +16991,7 @@
         <v>59</v>
       </c>
       <c r="B475">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C475" t="s">
         <v>500</v>
@@ -17020,7 +17020,7 @@
         <v>58</v>
       </c>
       <c r="B476">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C476" t="s">
         <v>504</v>
@@ -17049,7 +17049,7 @@
         <v>58</v>
       </c>
       <c r="B477">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C477" t="s">
         <v>505</v>
@@ -17078,7 +17078,7 @@
         <v>58</v>
       </c>
       <c r="B478">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C478" t="s">
         <v>506</v>
@@ -17107,7 +17107,7 @@
         <v>58</v>
       </c>
       <c r="B479">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C479" t="s">
         <v>507</v>
@@ -17136,7 +17136,7 @@
         <v>58</v>
       </c>
       <c r="B480">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C480" t="s">
         <v>508</v>
@@ -17165,7 +17165,7 @@
         <v>58</v>
       </c>
       <c r="B481">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C481" t="s">
         <v>509</v>
@@ -17194,7 +17194,7 @@
         <v>58</v>
       </c>
       <c r="B482">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C482" t="s">
         <v>510</v>
@@ -17223,7 +17223,7 @@
         <v>58</v>
       </c>
       <c r="B483">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C483" t="s">
         <v>511</v>
@@ -17252,7 +17252,7 @@
         <v>58</v>
       </c>
       <c r="B484">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C484" t="s">
         <v>512</v>
@@ -17281,7 +17281,7 @@
         <v>58</v>
       </c>
       <c r="B485">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C485" t="s">
         <v>513</v>
@@ -17310,7 +17310,7 @@
         <v>58</v>
       </c>
       <c r="B486">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C486" t="s">
         <v>514</v>
@@ -17339,7 +17339,7 @@
         <v>58</v>
       </c>
       <c r="B487">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C487" t="s">
         <v>515</v>
@@ -17368,7 +17368,7 @@
         <v>58</v>
       </c>
       <c r="B488">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C488" t="s">
         <v>516</v>
@@ -17397,7 +17397,7 @@
         <v>58</v>
       </c>
       <c r="B489">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C489" t="s">
         <v>517</v>
@@ -17426,7 +17426,7 @@
         <v>58</v>
       </c>
       <c r="B490">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C490" t="s">
         <v>518</v>
@@ -17455,7 +17455,7 @@
         <v>58</v>
       </c>
       <c r="B491">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C491" t="s">
         <v>519</v>
@@ -17484,7 +17484,7 @@
         <v>58</v>
       </c>
       <c r="B492">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C492" t="s">
         <v>520</v>
@@ -17513,7 +17513,7 @@
         <v>58</v>
       </c>
       <c r="B493">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C493" t="s">
         <v>521</v>
@@ -17542,7 +17542,7 @@
         <v>58</v>
       </c>
       <c r="B494">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C494" t="s">
         <v>522</v>
@@ -17571,7 +17571,7 @@
         <v>58</v>
       </c>
       <c r="B495">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C495" t="s">
         <v>523</v>
@@ -17600,7 +17600,7 @@
         <v>58</v>
       </c>
       <c r="B496">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C496" t="s">
         <v>524</v>
@@ -17629,7 +17629,7 @@
         <v>58</v>
       </c>
       <c r="B497">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C497" t="s">
         <v>525</v>
@@ -17658,7 +17658,7 @@
         <v>58</v>
       </c>
       <c r="B498">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C498" t="s">
         <v>526</v>
@@ -17687,7 +17687,7 @@
         <v>58</v>
       </c>
       <c r="B499">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C499" t="s">
         <v>527</v>
@@ -17716,7 +17716,7 @@
         <v>58</v>
       </c>
       <c r="B500">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C500" t="s">
         <v>528</v>
@@ -17745,7 +17745,7 @@
         <v>58</v>
       </c>
       <c r="B501">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C501" t="s">
         <v>529</v>
@@ -17774,7 +17774,7 @@
         <v>58</v>
       </c>
       <c r="B502">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C502" t="s">
         <v>347</v>
@@ -17803,7 +17803,7 @@
         <v>58</v>
       </c>
       <c r="B503">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C503" t="s">
         <v>530</v>
@@ -17832,7 +17832,7 @@
         <v>58</v>
       </c>
       <c r="B504">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C504" t="s">
         <v>531</v>
@@ -17861,7 +17861,7 @@
         <v>58</v>
       </c>
       <c r="B505">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C505" t="s">
         <v>532</v>
@@ -17890,7 +17890,7 @@
         <v>58</v>
       </c>
       <c r="B506">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C506" t="s">
         <v>533</v>
@@ -17919,7 +17919,7 @@
         <v>58</v>
       </c>
       <c r="B507">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C507" t="s">
         <v>534</v>
@@ -17948,7 +17948,7 @@
         <v>58</v>
       </c>
       <c r="B508">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C508" t="s">
         <v>535</v>
@@ -17977,7 +17977,7 @@
         <v>58</v>
       </c>
       <c r="B509">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C509" t="s">
         <v>536</v>
@@ -18006,7 +18006,7 @@
         <v>58</v>
       </c>
       <c r="B510">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C510" t="s">
         <v>537</v>
@@ -18035,7 +18035,7 @@
         <v>58</v>
       </c>
       <c r="B511">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C511" t="s">
         <v>538</v>
@@ -18064,7 +18064,7 @@
         <v>58</v>
       </c>
       <c r="B512">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C512" t="s">
         <v>539</v>
@@ -18093,7 +18093,7 @@
         <v>58</v>
       </c>
       <c r="B513">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C513" t="s">
         <v>540</v>
@@ -18122,7 +18122,7 @@
         <v>58</v>
       </c>
       <c r="B514">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C514" t="s">
         <v>541</v>
@@ -18151,7 +18151,7 @@
         <v>58</v>
       </c>
       <c r="B515">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C515" t="s">
         <v>542</v>
@@ -18180,7 +18180,7 @@
         <v>58</v>
       </c>
       <c r="B516">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C516" t="s">
         <v>543</v>
@@ -18209,7 +18209,7 @@
         <v>58</v>
       </c>
       <c r="B517">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C517" t="s">
         <v>544</v>
@@ -18238,7 +18238,7 @@
         <v>58</v>
       </c>
       <c r="B518">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C518" t="s">
         <v>545</v>
@@ -18267,7 +18267,7 @@
         <v>58</v>
       </c>
       <c r="B519">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C519" t="s">
         <v>546</v>
@@ -18296,7 +18296,7 @@
         <v>58</v>
       </c>
       <c r="B520">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C520" t="s">
         <v>547</v>
@@ -18325,7 +18325,7 @@
         <v>58</v>
       </c>
       <c r="B521">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C521" t="s">
         <v>548</v>
@@ -18354,7 +18354,7 @@
         <v>58</v>
       </c>
       <c r="B522">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C522" t="s">
         <v>549</v>
@@ -18383,7 +18383,7 @@
         <v>58</v>
       </c>
       <c r="B523">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C523" t="s">
         <v>550</v>
@@ -18412,7 +18412,7 @@
         <v>58</v>
       </c>
       <c r="B524">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C524" t="s">
         <v>551</v>
@@ -18441,7 +18441,7 @@
         <v>58</v>
       </c>
       <c r="B525">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C525" t="s">
         <v>552</v>
@@ -18470,7 +18470,7 @@
         <v>58</v>
       </c>
       <c r="B526">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C526" t="s">
         <v>553</v>
@@ -18499,7 +18499,7 @@
         <v>58</v>
       </c>
       <c r="B527">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C527" t="s">
         <v>554</v>
@@ -18528,7 +18528,7 @@
         <v>58</v>
       </c>
       <c r="B528">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C528" t="s">
         <v>555</v>
@@ -18557,7 +18557,7 @@
         <v>58</v>
       </c>
       <c r="B529">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C529" t="s">
         <v>556</v>
@@ -18586,7 +18586,7 @@
         <v>58</v>
       </c>
       <c r="B530">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C530" t="s">
         <v>557</v>
@@ -18615,7 +18615,7 @@
         <v>58</v>
       </c>
       <c r="B531">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C531" t="s">
         <v>558</v>
@@ -18644,7 +18644,7 @@
         <v>58</v>
       </c>
       <c r="B532">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C532" t="s">
         <v>559</v>
@@ -18673,7 +18673,7 @@
         <v>58</v>
       </c>
       <c r="B533">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C533" t="s">
         <v>560</v>
@@ -18702,7 +18702,7 @@
         <v>58</v>
       </c>
       <c r="B534">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C534" t="s">
         <v>561</v>
@@ -18731,7 +18731,7 @@
         <v>58</v>
       </c>
       <c r="B535">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C535" t="s">
         <v>562</v>
@@ -18760,7 +18760,7 @@
         <v>58</v>
       </c>
       <c r="B536">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C536" t="s">
         <v>563</v>
@@ -18789,7 +18789,7 @@
         <v>58</v>
       </c>
       <c r="B537">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C537" t="s">
         <v>564</v>
@@ -18818,7 +18818,7 @@
         <v>58</v>
       </c>
       <c r="B538">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C538" t="s">
         <v>565</v>
@@ -18847,7 +18847,7 @@
         <v>58</v>
       </c>
       <c r="B539">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C539" t="s">
         <v>566</v>
@@ -18876,7 +18876,7 @@
         <v>58</v>
       </c>
       <c r="B540">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C540" t="s">
         <v>567</v>
@@ -18905,7 +18905,7 @@
         <v>58</v>
       </c>
       <c r="B541">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C541" t="s">
         <v>568</v>
@@ -18934,7 +18934,7 @@
         <v>58</v>
       </c>
       <c r="B542">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C542" t="s">
         <v>569</v>
@@ -18963,7 +18963,7 @@
         <v>58</v>
       </c>
       <c r="B543">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C543" t="s">
         <v>570</v>
@@ -18992,7 +18992,7 @@
         <v>58</v>
       </c>
       <c r="B544">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C544" t="s">
         <v>571</v>
@@ -19021,7 +19021,7 @@
         <v>58</v>
       </c>
       <c r="B545">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C545" t="s">
         <v>572</v>
@@ -19050,7 +19050,7 @@
         <v>58</v>
       </c>
       <c r="B546">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C546" t="s">
         <v>573</v>
@@ -19079,7 +19079,7 @@
         <v>58</v>
       </c>
       <c r="B547">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C547" t="s">
         <v>574</v>
@@ -19108,7 +19108,7 @@
         <v>58</v>
       </c>
       <c r="B548">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C548" t="s">
         <v>575</v>
@@ -19137,7 +19137,7 @@
         <v>58</v>
       </c>
       <c r="B549">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C549" t="s">
         <v>576</v>
@@ -19166,7 +19166,7 @@
         <v>58</v>
       </c>
       <c r="B550">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C550" t="s">
         <v>577</v>
@@ -19195,7 +19195,7 @@
         <v>58</v>
       </c>
       <c r="B551">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C551" t="s">
         <v>578</v>
@@ -19224,7 +19224,7 @@
         <v>58</v>
       </c>
       <c r="B552">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C552" t="s">
         <v>579</v>
@@ -19253,7 +19253,7 @@
         <v>58</v>
       </c>
       <c r="B553">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C553" t="s">
         <v>580</v>
@@ -19282,7 +19282,7 @@
         <v>58</v>
       </c>
       <c r="B554">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C554" t="s">
         <v>581</v>
@@ -19311,7 +19311,7 @@
         <v>58</v>
       </c>
       <c r="B555">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C555" t="s">
         <v>582</v>
@@ -19340,7 +19340,7 @@
         <v>58</v>
       </c>
       <c r="B556">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C556" t="s">
         <v>583</v>
@@ -19369,7 +19369,7 @@
         <v>57</v>
       </c>
       <c r="B557">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C557" t="s">
         <v>585</v>
@@ -19395,7 +19395,7 @@
         <v>57</v>
       </c>
       <c r="B558">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C558" t="s">
         <v>584</v>
@@ -19421,7 +19421,7 @@
         <v>57</v>
       </c>
       <c r="B559">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C559" t="s">
         <v>586</v>
@@ -19447,7 +19447,7 @@
         <v>57</v>
       </c>
       <c r="B560">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C560" t="s">
         <v>587</v>
@@ -19473,7 +19473,7 @@
         <v>57</v>
       </c>
       <c r="B561">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C561" t="s">
         <v>588</v>
@@ -19499,7 +19499,7 @@
         <v>57</v>
       </c>
       <c r="B562">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C562" t="s">
         <v>589</v>
@@ -19525,7 +19525,7 @@
         <v>57</v>
       </c>
       <c r="B563">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C563" t="s">
         <v>590</v>
@@ -19551,7 +19551,7 @@
         <v>57</v>
       </c>
       <c r="B564">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C564" t="s">
         <v>591</v>
@@ -19577,7 +19577,7 @@
         <v>57</v>
       </c>
       <c r="B565">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C565" t="s">
         <v>592</v>
@@ -19603,7 +19603,7 @@
         <v>57</v>
       </c>
       <c r="B566">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C566" t="s">
         <v>593</v>
@@ -19629,7 +19629,7 @@
         <v>57</v>
       </c>
       <c r="B567">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C567" t="s">
         <v>594</v>
@@ -19655,7 +19655,7 @@
         <v>57</v>
       </c>
       <c r="B568">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C568" t="s">
         <v>595</v>
@@ -19681,7 +19681,7 @@
         <v>57</v>
       </c>
       <c r="B569">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C569" t="s">
         <v>596</v>
@@ -19707,7 +19707,7 @@
         <v>57</v>
       </c>
       <c r="B570">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C570" t="s">
         <v>597</v>
@@ -19733,7 +19733,7 @@
         <v>57</v>
       </c>
       <c r="B571">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C571" t="s">
         <v>598</v>
@@ -19759,7 +19759,7 @@
         <v>57</v>
       </c>
       <c r="B572">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C572" t="s">
         <v>599</v>
@@ -19785,7 +19785,7 @@
         <v>57</v>
       </c>
       <c r="B573">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C573" t="s">
         <v>600</v>
@@ -19811,7 +19811,7 @@
         <v>57</v>
       </c>
       <c r="B574">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C574" t="s">
         <v>601</v>
@@ -19837,7 +19837,7 @@
         <v>57</v>
       </c>
       <c r="B575">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C575" t="s">
         <v>602</v>
@@ -19863,7 +19863,7 @@
         <v>57</v>
       </c>
       <c r="B576">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C576" t="s">
         <v>603</v>
@@ -19889,7 +19889,7 @@
         <v>57</v>
       </c>
       <c r="B577">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C577" t="s">
         <v>508</v>
@@ -19915,7 +19915,7 @@
         <v>57</v>
       </c>
       <c r="B578">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C578" t="s">
         <v>604</v>
@@ -19941,7 +19941,7 @@
         <v>57</v>
       </c>
       <c r="B579">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C579" t="s">
         <v>605</v>
@@ -19967,7 +19967,7 @@
         <v>57</v>
       </c>
       <c r="B580">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C580" t="s">
         <v>606</v>
@@ -19993,7 +19993,7 @@
         <v>57</v>
       </c>
       <c r="B581">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C581" t="s">
         <v>607</v>
@@ -20019,7 +20019,7 @@
         <v>57</v>
       </c>
       <c r="B582">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C582" t="s">
         <v>608</v>
@@ -20045,7 +20045,7 @@
         <v>57</v>
       </c>
       <c r="B583">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C583" t="s">
         <v>609</v>
@@ -20071,7 +20071,7 @@
         <v>57</v>
       </c>
       <c r="B584">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C584" t="s">
         <v>610</v>
@@ -20097,7 +20097,7 @@
         <v>57</v>
       </c>
       <c r="B585">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C585" t="s">
         <v>611</v>
@@ -20123,7 +20123,7 @@
         <v>57</v>
       </c>
       <c r="B586">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C586" t="s">
         <v>612</v>
@@ -20149,7 +20149,7 @@
         <v>57</v>
       </c>
       <c r="B587">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C587" t="s">
         <v>613</v>
@@ -20175,7 +20175,7 @@
         <v>57</v>
       </c>
       <c r="B588">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C588" t="s">
         <v>614</v>
@@ -20201,7 +20201,7 @@
         <v>57</v>
       </c>
       <c r="B589">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C589" t="s">
         <v>615</v>
@@ -20227,7 +20227,7 @@
         <v>57</v>
       </c>
       <c r="B590">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C590" t="s">
         <v>616</v>
@@ -20253,7 +20253,7 @@
         <v>57</v>
       </c>
       <c r="B591">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C591" t="s">
         <v>617</v>
@@ -20279,7 +20279,7 @@
         <v>57</v>
       </c>
       <c r="B592">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C592" t="s">
         <v>618</v>
@@ -20305,7 +20305,7 @@
         <v>57</v>
       </c>
       <c r="B593">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C593" t="s">
         <v>619</v>
@@ -20331,7 +20331,7 @@
         <v>57</v>
       </c>
       <c r="B594">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C594" t="s">
         <v>620</v>
@@ -20357,7 +20357,7 @@
         <v>57</v>
       </c>
       <c r="B595">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C595" t="s">
         <v>621</v>
@@ -20383,7 +20383,7 @@
         <v>57</v>
       </c>
       <c r="B596">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C596" t="s">
         <v>622</v>
@@ -20409,7 +20409,7 @@
         <v>57</v>
       </c>
       <c r="B597">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C597" t="s">
         <v>623</v>
@@ -20435,7 +20435,7 @@
         <v>57</v>
       </c>
       <c r="B598">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C598" t="s">
         <v>624</v>
@@ -20461,7 +20461,7 @@
         <v>57</v>
       </c>
       <c r="B599">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C599" t="s">
         <v>625</v>
@@ -20487,7 +20487,7 @@
         <v>57</v>
       </c>
       <c r="B600">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C600" t="s">
         <v>626</v>
@@ -20513,7 +20513,7 @@
         <v>57</v>
       </c>
       <c r="B601">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C601" t="s">
         <v>627</v>
@@ -20539,7 +20539,7 @@
         <v>57</v>
       </c>
       <c r="B602">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C602" t="s">
         <v>628</v>
@@ -20565,7 +20565,7 @@
         <v>57</v>
       </c>
       <c r="B603">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C603" t="s">
         <v>629</v>
@@ -20591,7 +20591,7 @@
         <v>57</v>
       </c>
       <c r="B604">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C604" t="s">
         <v>630</v>
@@ -20617,7 +20617,7 @@
         <v>57</v>
       </c>
       <c r="B605">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C605" t="s">
         <v>631</v>
@@ -20643,7 +20643,7 @@
         <v>57</v>
       </c>
       <c r="B606">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C606" t="s">
         <v>632</v>
@@ -20669,7 +20669,7 @@
         <v>57</v>
       </c>
       <c r="B607">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C607" t="s">
         <v>633</v>
@@ -20695,7 +20695,7 @@
         <v>57</v>
       </c>
       <c r="B608">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C608" t="s">
         <v>634</v>
@@ -20721,7 +20721,7 @@
         <v>57</v>
       </c>
       <c r="B609">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C609" t="s">
         <v>635</v>
@@ -20747,7 +20747,7 @@
         <v>57</v>
       </c>
       <c r="B610">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C610" t="s">
         <v>636</v>
@@ -20773,7 +20773,7 @@
         <v>57</v>
       </c>
       <c r="B611">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C611" t="s">
         <v>637</v>
@@ -20799,7 +20799,7 @@
         <v>57</v>
       </c>
       <c r="B612">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C612" t="s">
         <v>638</v>
@@ -20825,7 +20825,7 @@
         <v>57</v>
       </c>
       <c r="B613">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C613" t="s">
         <v>639</v>
@@ -20851,7 +20851,7 @@
         <v>57</v>
       </c>
       <c r="B614">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C614" t="s">
         <v>640</v>
@@ -20877,7 +20877,7 @@
         <v>57</v>
       </c>
       <c r="B615">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C615" t="s">
         <v>641</v>
@@ -20903,7 +20903,7 @@
         <v>57</v>
       </c>
       <c r="B616">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C616" t="s">
         <v>642</v>
@@ -20929,7 +20929,7 @@
         <v>57</v>
       </c>
       <c r="B617">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C617" t="s">
         <v>643</v>
@@ -20955,7 +20955,7 @@
         <v>57</v>
       </c>
       <c r="B618">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C618" t="s">
         <v>644</v>
@@ -20981,7 +20981,7 @@
         <v>57</v>
       </c>
       <c r="B619">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C619" t="s">
         <v>645</v>
@@ -21007,7 +21007,7 @@
         <v>57</v>
       </c>
       <c r="B620">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C620" t="s">
         <v>646</v>
@@ -21033,7 +21033,7 @@
         <v>57</v>
       </c>
       <c r="B621">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C621" t="s">
         <v>647</v>
@@ -21059,7 +21059,7 @@
         <v>57</v>
       </c>
       <c r="B622">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C622" t="s">
         <v>648</v>
@@ -21085,7 +21085,7 @@
         <v>57</v>
       </c>
       <c r="B623">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C623" t="s">
         <v>649</v>
@@ -21111,7 +21111,7 @@
         <v>57</v>
       </c>
       <c r="B624">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C624" t="s">
         <v>650</v>
@@ -21137,7 +21137,7 @@
         <v>57</v>
       </c>
       <c r="B625">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C625" t="s">
         <v>651</v>
@@ -21163,7 +21163,7 @@
         <v>57</v>
       </c>
       <c r="B626">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C626" t="s">
         <v>652</v>
@@ -21189,7 +21189,7 @@
         <v>57</v>
       </c>
       <c r="B627">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C627" t="s">
         <v>653</v>
@@ -21215,7 +21215,7 @@
         <v>57</v>
       </c>
       <c r="B628">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C628" t="s">
         <v>654</v>
@@ -21241,7 +21241,7 @@
         <v>57</v>
       </c>
       <c r="B629">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C629" t="s">
         <v>655</v>
@@ -21267,7 +21267,7 @@
         <v>57</v>
       </c>
       <c r="B630">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C630" t="s">
         <v>656</v>
@@ -21293,7 +21293,7 @@
         <v>57</v>
       </c>
       <c r="B631">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C631" t="s">
         <v>657</v>
@@ -21319,7 +21319,7 @@
         <v>57</v>
       </c>
       <c r="B632">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C632" t="s">
         <v>658</v>
@@ -21345,7 +21345,7 @@
         <v>57</v>
       </c>
       <c r="B633">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C633" t="s">
         <v>659</v>
@@ -21371,7 +21371,7 @@
         <v>57</v>
       </c>
       <c r="B634">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C634" t="s">
         <v>660</v>
@@ -21397,7 +21397,7 @@
         <v>57</v>
       </c>
       <c r="B635">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C635" t="s">
         <v>661</v>
@@ -21423,7 +21423,7 @@
         <v>57</v>
       </c>
       <c r="B636">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C636" t="s">
         <v>662</v>
@@ -21449,7 +21449,7 @@
         <v>57</v>
       </c>
       <c r="B637">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C637" t="s">
         <v>663</v>
@@ -21475,7 +21475,7 @@
         <v>56</v>
       </c>
       <c r="B638">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C638" t="s">
         <v>664</v>
@@ -21501,7 +21501,7 @@
         <v>56</v>
       </c>
       <c r="B639">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C639" t="s">
         <v>665</v>
@@ -21527,7 +21527,7 @@
         <v>56</v>
       </c>
       <c r="B640">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C640" t="s">
         <v>666</v>
@@ -21553,7 +21553,7 @@
         <v>56</v>
       </c>
       <c r="B641">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C641" t="s">
         <v>667</v>
@@ -21579,7 +21579,7 @@
         <v>56</v>
       </c>
       <c r="B642">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C642" t="s">
         <v>668</v>
@@ -21605,7 +21605,7 @@
         <v>56</v>
       </c>
       <c r="B643">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C643" t="s">
         <v>669</v>
@@ -21631,7 +21631,7 @@
         <v>56</v>
       </c>
       <c r="B644">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C644" t="s">
         <v>670</v>
@@ -21657,7 +21657,7 @@
         <v>56</v>
       </c>
       <c r="B645">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C645" t="s">
         <v>671</v>
@@ -21683,7 +21683,7 @@
         <v>56</v>
       </c>
       <c r="B646">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C646" t="s">
         <v>672</v>
@@ -21709,7 +21709,7 @@
         <v>56</v>
       </c>
       <c r="B647">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C647" t="s">
         <v>673</v>
@@ -21735,7 +21735,7 @@
         <v>56</v>
       </c>
       <c r="B648">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C648" t="s">
         <v>674</v>
@@ -21761,7 +21761,7 @@
         <v>56</v>
       </c>
       <c r="B649">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C649" t="s">
         <v>675</v>
@@ -21787,7 +21787,7 @@
         <v>56</v>
       </c>
       <c r="B650">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C650" t="s">
         <v>676</v>
@@ -21813,7 +21813,7 @@
         <v>56</v>
       </c>
       <c r="B651">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C651" t="s">
         <v>677</v>
@@ -21839,7 +21839,7 @@
         <v>56</v>
       </c>
       <c r="B652">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C652" t="s">
         <v>678</v>
@@ -21865,7 +21865,7 @@
         <v>56</v>
       </c>
       <c r="B653">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C653" t="s">
         <v>679</v>
@@ -21891,7 +21891,7 @@
         <v>56</v>
       </c>
       <c r="B654">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C654" t="s">
         <v>680</v>
@@ -21917,7 +21917,7 @@
         <v>56</v>
       </c>
       <c r="B655">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C655" t="s">
         <v>681</v>
@@ -21943,7 +21943,7 @@
         <v>56</v>
       </c>
       <c r="B656">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C656" t="s">
         <v>682</v>
@@ -21969,7 +21969,7 @@
         <v>56</v>
       </c>
       <c r="B657">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C657" t="s">
         <v>683</v>
@@ -21995,7 +21995,7 @@
         <v>56</v>
       </c>
       <c r="B658">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C658" t="s">
         <v>684</v>
@@ -22021,7 +22021,7 @@
         <v>56</v>
       </c>
       <c r="B659">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C659" t="s">
         <v>685</v>
@@ -22047,7 +22047,7 @@
         <v>56</v>
       </c>
       <c r="B660">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C660" t="s">
         <v>686</v>
@@ -22073,7 +22073,7 @@
         <v>56</v>
       </c>
       <c r="B661">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C661" t="s">
         <v>687</v>
@@ -22099,7 +22099,7 @@
         <v>56</v>
       </c>
       <c r="B662">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C662" t="s">
         <v>688</v>
@@ -22125,7 +22125,7 @@
         <v>56</v>
       </c>
       <c r="B663">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C663" t="s">
         <v>689</v>
@@ -22151,7 +22151,7 @@
         <v>56</v>
       </c>
       <c r="B664">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C664" t="s">
         <v>690</v>
@@ -22177,7 +22177,7 @@
         <v>56</v>
       </c>
       <c r="B665">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C665" t="s">
         <v>691</v>
@@ -22203,7 +22203,7 @@
         <v>56</v>
       </c>
       <c r="B666">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C666" t="s">
         <v>692</v>
@@ -22229,7 +22229,7 @@
         <v>56</v>
       </c>
       <c r="B667">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C667" t="s">
         <v>693</v>
@@ -22255,7 +22255,7 @@
         <v>56</v>
       </c>
       <c r="B668">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C668" t="s">
         <v>694</v>
@@ -22281,7 +22281,7 @@
         <v>56</v>
       </c>
       <c r="B669">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C669" t="s">
         <v>695</v>
@@ -22307,7 +22307,7 @@
         <v>56</v>
       </c>
       <c r="B670">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C670" t="s">
         <v>696</v>
@@ -22333,7 +22333,7 @@
         <v>56</v>
       </c>
       <c r="B671">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C671" t="s">
         <v>697</v>
@@ -22359,7 +22359,7 @@
         <v>56</v>
       </c>
       <c r="B672">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C672" t="s">
         <v>698</v>
@@ -22385,7 +22385,7 @@
         <v>56</v>
       </c>
       <c r="B673">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C673" t="s">
         <v>699</v>
@@ -22411,7 +22411,7 @@
         <v>56</v>
       </c>
       <c r="B674">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C674" t="s">
         <v>700</v>
@@ -22437,7 +22437,7 @@
         <v>56</v>
       </c>
       <c r="B675">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C675" t="s">
         <v>701</v>
@@ -22463,7 +22463,7 @@
         <v>56</v>
       </c>
       <c r="B676">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C676" t="s">
         <v>702</v>
@@ -22489,7 +22489,7 @@
         <v>56</v>
       </c>
       <c r="B677">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C677" t="s">
         <v>703</v>
@@ -22515,7 +22515,7 @@
         <v>56</v>
       </c>
       <c r="B678">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C678" t="s">
         <v>704</v>
@@ -22541,7 +22541,7 @@
         <v>56</v>
       </c>
       <c r="B679">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C679" t="s">
         <v>705</v>
@@ -22567,7 +22567,7 @@
         <v>56</v>
       </c>
       <c r="B680">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C680" t="s">
         <v>706</v>
@@ -22593,7 +22593,7 @@
         <v>56</v>
       </c>
       <c r="B681">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C681" t="s">
         <v>707</v>
@@ -22619,7 +22619,7 @@
         <v>56</v>
       </c>
       <c r="B682">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C682" t="s">
         <v>708</v>
@@ -22645,7 +22645,7 @@
         <v>56</v>
       </c>
       <c r="B683">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C683" t="s">
         <v>709</v>
@@ -22671,7 +22671,7 @@
         <v>56</v>
       </c>
       <c r="B684">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C684" t="s">
         <v>710</v>
@@ -22697,7 +22697,7 @@
         <v>56</v>
       </c>
       <c r="B685">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C685" t="s">
         <v>711</v>
@@ -22723,7 +22723,7 @@
         <v>56</v>
       </c>
       <c r="B686">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C686" t="s">
         <v>712</v>
@@ -22749,7 +22749,7 @@
         <v>56</v>
       </c>
       <c r="B687">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C687" t="s">
         <v>713</v>
@@ -22775,7 +22775,7 @@
         <v>56</v>
       </c>
       <c r="B688">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C688" t="s">
         <v>714</v>
@@ -22801,7 +22801,7 @@
         <v>56</v>
       </c>
       <c r="B689">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C689" t="s">
         <v>715</v>
@@ -22827,7 +22827,7 @@
         <v>56</v>
       </c>
       <c r="B690">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C690" t="s">
         <v>715</v>
@@ -22853,7 +22853,7 @@
         <v>56</v>
       </c>
       <c r="B691">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C691" t="s">
         <v>716</v>
@@ -22879,7 +22879,7 @@
         <v>56</v>
       </c>
       <c r="B692">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C692" t="s">
         <v>717</v>
@@ -22905,7 +22905,7 @@
         <v>56</v>
       </c>
       <c r="B693">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C693" t="s">
         <v>718</v>
@@ -22931,7 +22931,7 @@
         <v>56</v>
       </c>
       <c r="B694">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C694" t="s">
         <v>719</v>
@@ -22957,7 +22957,7 @@
         <v>56</v>
       </c>
       <c r="B695">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C695" t="s">
         <v>720</v>
@@ -22983,7 +22983,7 @@
         <v>56</v>
       </c>
       <c r="B696">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C696" t="s">
         <v>721</v>
@@ -23009,7 +23009,7 @@
         <v>56</v>
       </c>
       <c r="B697">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C697" t="s">
         <v>722</v>
@@ -23035,7 +23035,7 @@
         <v>56</v>
       </c>
       <c r="B698">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C698" t="s">
         <v>723</v>
@@ -23061,7 +23061,7 @@
         <v>56</v>
       </c>
       <c r="B699">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C699" t="s">
         <v>724</v>
@@ -23087,7 +23087,7 @@
         <v>56</v>
       </c>
       <c r="B700">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C700" t="s">
         <v>725</v>
@@ -23113,7 +23113,7 @@
         <v>56</v>
       </c>
       <c r="B701">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C701" t="s">
         <v>726</v>
@@ -23139,7 +23139,7 @@
         <v>56</v>
       </c>
       <c r="B702">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C702" t="s">
         <v>727</v>
@@ -23165,7 +23165,7 @@
         <v>56</v>
       </c>
       <c r="B703">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C703" t="s">
         <v>728</v>
@@ -23191,7 +23191,7 @@
         <v>56</v>
       </c>
       <c r="B704">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C704" t="s">
         <v>729</v>
@@ -23217,7 +23217,7 @@
         <v>56</v>
       </c>
       <c r="B705">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C705" t="s">
         <v>730</v>
@@ -23243,7 +23243,7 @@
         <v>56</v>
       </c>
       <c r="B706">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C706" t="s">
         <v>731</v>
@@ -23269,7 +23269,7 @@
         <v>56</v>
       </c>
       <c r="B707">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C707" t="s">
         <v>732</v>
@@ -23295,7 +23295,7 @@
         <v>56</v>
       </c>
       <c r="B708">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C708" t="s">
         <v>733</v>
@@ -23321,7 +23321,7 @@
         <v>56</v>
       </c>
       <c r="B709">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C709" t="s">
         <v>734</v>
@@ -23347,7 +23347,7 @@
         <v>56</v>
       </c>
       <c r="B710">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C710" t="s">
         <v>735</v>
@@ -23373,7 +23373,7 @@
         <v>56</v>
       </c>
       <c r="B711">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C711" t="s">
         <v>736</v>
@@ -23399,7 +23399,7 @@
         <v>56</v>
       </c>
       <c r="B712">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C712" t="s">
         <v>737</v>
@@ -23425,7 +23425,7 @@
         <v>56</v>
       </c>
       <c r="B713">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C713" t="s">
         <v>738</v>
@@ -23451,7 +23451,7 @@
         <v>56</v>
       </c>
       <c r="B714">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C714" t="s">
         <v>739</v>
@@ -23477,7 +23477,7 @@
         <v>56</v>
       </c>
       <c r="B715">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C715" t="s">
         <v>740</v>
@@ -23503,7 +23503,7 @@
         <v>55</v>
       </c>
       <c r="B716">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C716" t="s">
         <v>741</v>
@@ -23535,7 +23535,7 @@
         <v>55</v>
       </c>
       <c r="B717">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C717" t="s">
         <v>743</v>
@@ -23561,7 +23561,7 @@
         <v>55</v>
       </c>
       <c r="B718">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C718" t="s">
         <v>742</v>
@@ -23587,7 +23587,7 @@
         <v>55</v>
       </c>
       <c r="B719">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C719" t="s">
         <v>744</v>
@@ -23613,7 +23613,7 @@
         <v>55</v>
       </c>
       <c r="B720">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C720" t="s">
         <v>745</v>
@@ -23639,7 +23639,7 @@
         <v>55</v>
       </c>
       <c r="B721">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C721" t="s">
         <v>746</v>
@@ -23665,7 +23665,7 @@
         <v>55</v>
       </c>
       <c r="B722">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C722" t="s">
         <v>747</v>
@@ -23691,7 +23691,7 @@
         <v>55</v>
       </c>
       <c r="B723">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C723" t="s">
         <v>748</v>
@@ -23717,7 +23717,7 @@
         <v>55</v>
       </c>
       <c r="B724">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C724" t="s">
         <v>749</v>
@@ -23743,7 +23743,7 @@
         <v>55</v>
       </c>
       <c r="B725">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C725" t="s">
         <v>750</v>
@@ -23769,7 +23769,7 @@
         <v>55</v>
       </c>
       <c r="B726">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C726" t="s">
         <v>751</v>
@@ -23795,7 +23795,7 @@
         <v>55</v>
       </c>
       <c r="B727">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C727" t="s">
         <v>752</v>
@@ -23821,7 +23821,7 @@
         <v>55</v>
       </c>
       <c r="B728">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C728" t="s">
         <v>753</v>
@@ -23847,7 +23847,7 @@
         <v>55</v>
       </c>
       <c r="B729">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C729" t="s">
         <v>754</v>
@@ -23873,7 +23873,7 @@
         <v>55</v>
       </c>
       <c r="B730">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C730" t="s">
         <v>755</v>
@@ -23899,7 +23899,7 @@
         <v>55</v>
       </c>
       <c r="B731">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C731" t="s">
         <v>756</v>
@@ -23925,7 +23925,7 @@
         <v>55</v>
       </c>
       <c r="B732">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C732" t="s">
         <v>757</v>
@@ -23951,7 +23951,7 @@
         <v>55</v>
       </c>
       <c r="B733">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C733" t="s">
         <v>758</v>
@@ -23977,7 +23977,7 @@
         <v>55</v>
       </c>
       <c r="B734">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C734" t="s">
         <v>759</v>
@@ -24003,7 +24003,7 @@
         <v>55</v>
       </c>
       <c r="B735">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C735" t="s">
         <v>760</v>
@@ -24029,7 +24029,7 @@
         <v>55</v>
       </c>
       <c r="B736">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C736" t="s">
         <v>761</v>
@@ -24055,7 +24055,7 @@
         <v>55</v>
       </c>
       <c r="B737">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C737" t="s">
         <v>762</v>
@@ -24081,7 +24081,7 @@
         <v>55</v>
       </c>
       <c r="B738">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C738" t="s">
         <v>763</v>
@@ -24107,7 +24107,7 @@
         <v>55</v>
       </c>
       <c r="B739">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C739" t="s">
         <v>764</v>
@@ -24133,7 +24133,7 @@
         <v>55</v>
       </c>
       <c r="B740">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C740" t="s">
         <v>765</v>
@@ -24159,7 +24159,7 @@
         <v>55</v>
       </c>
       <c r="B741">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C741" t="s">
         <v>766</v>
@@ -24185,7 +24185,7 @@
         <v>55</v>
       </c>
       <c r="B742">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C742" t="s">
         <v>767</v>
@@ -24211,7 +24211,7 @@
         <v>55</v>
       </c>
       <c r="B743">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C743" t="s">
         <v>768</v>
@@ -24237,7 +24237,7 @@
         <v>55</v>
       </c>
       <c r="B744">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C744" t="s">
         <v>769</v>
@@ -24263,7 +24263,7 @@
         <v>55</v>
       </c>
       <c r="B745">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C745" t="s">
         <v>770</v>
@@ -24289,7 +24289,7 @@
         <v>55</v>
       </c>
       <c r="B746">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C746" t="s">
         <v>771</v>
@@ -24315,7 +24315,7 @@
         <v>55</v>
       </c>
       <c r="B747">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C747" t="s">
         <v>772</v>
@@ -24341,7 +24341,7 @@
         <v>55</v>
       </c>
       <c r="B748">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C748" t="s">
         <v>773</v>
@@ -24367,7 +24367,7 @@
         <v>55</v>
       </c>
       <c r="B749">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C749" t="s">
         <v>774</v>
@@ -24393,7 +24393,7 @@
         <v>55</v>
       </c>
       <c r="B750">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C750" t="s">
         <v>775</v>
@@ -24419,7 +24419,7 @@
         <v>55</v>
       </c>
       <c r="B751">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C751" t="s">
         <v>776</v>
@@ -24445,7 +24445,7 @@
         <v>55</v>
       </c>
       <c r="B752">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C752" t="s">
         <v>777</v>
@@ -24471,7 +24471,7 @@
         <v>55</v>
       </c>
       <c r="B753">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C753" t="s">
         <v>778</v>
@@ -24497,7 +24497,7 @@
         <v>55</v>
       </c>
       <c r="B754">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C754" t="s">
         <v>779</v>
@@ -24523,7 +24523,7 @@
         <v>55</v>
       </c>
       <c r="B755">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C755" t="s">
         <v>781</v>
@@ -24549,7 +24549,7 @@
         <v>55</v>
       </c>
       <c r="B756">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C756" t="s">
         <v>780</v>
@@ -24575,7 +24575,7 @@
         <v>55</v>
       </c>
       <c r="B757">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C757" t="s">
         <v>782</v>
@@ -24601,7 +24601,7 @@
         <v>55</v>
       </c>
       <c r="B758">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C758" t="s">
         <v>783</v>
@@ -24627,7 +24627,7 @@
         <v>55</v>
       </c>
       <c r="B759">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C759" t="s">
         <v>784</v>
@@ -24653,7 +24653,7 @@
         <v>55</v>
       </c>
       <c r="B760">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C760" t="s">
         <v>785</v>
@@ -24679,7 +24679,7 @@
         <v>55</v>
       </c>
       <c r="B761">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C761" t="s">
         <v>786</v>
@@ -24705,7 +24705,7 @@
         <v>55</v>
       </c>
       <c r="B762">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C762" t="s">
         <v>787</v>
@@ -24731,7 +24731,7 @@
         <v>55</v>
       </c>
       <c r="B763">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C763" t="s">
         <v>788</v>
@@ -24757,7 +24757,7 @@
         <v>55</v>
       </c>
       <c r="B764">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C764" t="s">
         <v>789</v>
@@ -24783,7 +24783,7 @@
         <v>55</v>
       </c>
       <c r="B765">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C765" t="s">
         <v>790</v>
@@ -24809,7 +24809,7 @@
         <v>55</v>
       </c>
       <c r="B766">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C766" t="s">
         <v>791</v>
@@ -24835,7 +24835,7 @@
         <v>55</v>
       </c>
       <c r="B767">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C767" t="s">
         <v>792</v>
@@ -24861,7 +24861,7 @@
         <v>55</v>
       </c>
       <c r="B768">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C768" t="s">
         <v>793</v>
@@ -24887,7 +24887,7 @@
         <v>55</v>
       </c>
       <c r="B769">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C769" t="s">
         <v>794</v>
@@ -24913,7 +24913,7 @@
         <v>55</v>
       </c>
       <c r="B770">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C770" t="s">
         <v>795</v>
@@ -24939,7 +24939,7 @@
         <v>55</v>
       </c>
       <c r="B771">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C771" t="s">
         <v>796</v>
@@ -24965,7 +24965,7 @@
         <v>55</v>
       </c>
       <c r="B772">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C772" t="s">
         <v>797</v>
@@ -24991,7 +24991,7 @@
         <v>55</v>
       </c>
       <c r="B773">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C773" t="s">
         <v>134</v>
@@ -25017,7 +25017,7 @@
         <v>55</v>
       </c>
       <c r="B774">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C774" t="s">
         <v>798</v>
@@ -25043,7 +25043,7 @@
         <v>55</v>
       </c>
       <c r="B775">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C775" t="s">
         <v>799</v>
@@ -25069,7 +25069,7 @@
         <v>55</v>
       </c>
       <c r="B776">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C776" t="s">
         <v>800</v>
@@ -25095,7 +25095,7 @@
         <v>55</v>
       </c>
       <c r="B777">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C777" t="s">
         <v>801</v>
@@ -25121,7 +25121,7 @@
         <v>55</v>
       </c>
       <c r="B778">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C778" t="s">
         <v>802</v>
@@ -25147,7 +25147,7 @@
         <v>55</v>
       </c>
       <c r="B779">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C779" t="s">
         <v>803</v>
@@ -25173,7 +25173,7 @@
         <v>55</v>
       </c>
       <c r="B780">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C780" t="s">
         <v>804</v>
@@ -25199,7 +25199,7 @@
         <v>55</v>
       </c>
       <c r="B781">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C781" t="s">
         <v>805</v>
@@ -25225,7 +25225,7 @@
         <v>55</v>
       </c>
       <c r="B782">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C782" t="s">
         <v>806</v>
@@ -25251,7 +25251,7 @@
         <v>55</v>
       </c>
       <c r="B783">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C783" t="s">
         <v>807</v>
@@ -25277,7 +25277,7 @@
         <v>55</v>
       </c>
       <c r="B784">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C784" t="s">
         <v>808</v>
@@ -25303,7 +25303,7 @@
         <v>55</v>
       </c>
       <c r="B785">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C785" t="s">
         <v>809</v>
@@ -25329,7 +25329,7 @@
         <v>55</v>
       </c>
       <c r="B786">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C786" t="s">
         <v>810</v>
@@ -25355,7 +25355,7 @@
         <v>55</v>
       </c>
       <c r="B787">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C787" t="s">
         <v>811</v>
@@ -25381,7 +25381,7 @@
         <v>55</v>
       </c>
       <c r="B788">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C788" t="s">
         <v>812</v>
@@ -25407,7 +25407,7 @@
         <v>55</v>
       </c>
       <c r="B789">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C789" t="s">
         <v>813</v>
@@ -25433,7 +25433,7 @@
         <v>55</v>
       </c>
       <c r="B790">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C790" t="s">
         <v>814</v>
@@ -25459,7 +25459,7 @@
         <v>55</v>
       </c>
       <c r="B791">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C791" t="s">
         <v>815</v>
@@ -25485,7 +25485,7 @@
         <v>55</v>
       </c>
       <c r="B792">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C792" t="s">
         <v>816</v>
@@ -25511,7 +25511,7 @@
         <v>55</v>
       </c>
       <c r="B793">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C793" t="s">
         <v>817</v>
@@ -25537,7 +25537,7 @@
         <v>55</v>
       </c>
       <c r="B794">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C794" t="s">
         <v>818</v>
@@ -25563,7 +25563,7 @@
         <v>54</v>
       </c>
       <c r="B795">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C795" t="s">
         <v>819</v>
@@ -25589,7 +25589,7 @@
         <v>54</v>
       </c>
       <c r="B796">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C796" t="s">
         <v>820</v>
@@ -25615,7 +25615,7 @@
         <v>54</v>
       </c>
       <c r="B797">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C797" t="s">
         <v>821</v>
@@ -25641,7 +25641,7 @@
         <v>54</v>
       </c>
       <c r="B798">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C798" t="s">
         <v>822</v>
@@ -25667,7 +25667,7 @@
         <v>54</v>
       </c>
       <c r="B799">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C799" t="s">
         <v>823</v>
@@ -25693,7 +25693,7 @@
         <v>54</v>
       </c>
       <c r="B800">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C800" t="s">
         <v>824</v>
@@ -25719,7 +25719,7 @@
         <v>54</v>
       </c>
       <c r="B801">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C801" t="s">
         <v>825</v>
@@ -25745,7 +25745,7 @@
         <v>54</v>
       </c>
       <c r="B802">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C802" t="s">
         <v>826</v>
@@ -25771,7 +25771,7 @@
         <v>54</v>
       </c>
       <c r="B803">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C803" t="s">
         <v>827</v>
@@ -25797,7 +25797,7 @@
         <v>54</v>
       </c>
       <c r="B804">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C804" t="s">
         <v>828</v>
@@ -25823,7 +25823,7 @@
         <v>54</v>
       </c>
       <c r="B805">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C805" t="s">
         <v>829</v>
@@ -25849,7 +25849,7 @@
         <v>54</v>
       </c>
       <c r="B806">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C806" t="s">
         <v>830</v>
@@ -25875,7 +25875,7 @@
         <v>54</v>
       </c>
       <c r="B807">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C807" t="s">
         <v>831</v>
@@ -25901,7 +25901,7 @@
         <v>54</v>
       </c>
       <c r="B808">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C808" t="s">
         <v>832</v>
@@ -25927,7 +25927,7 @@
         <v>54</v>
       </c>
       <c r="B809">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C809" t="s">
         <v>833</v>
@@ -25953,7 +25953,7 @@
         <v>54</v>
       </c>
       <c r="B810">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C810" t="s">
         <v>834</v>
@@ -25979,7 +25979,7 @@
         <v>54</v>
       </c>
       <c r="B811">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C811" t="s">
         <v>835</v>
@@ -26005,7 +26005,7 @@
         <v>54</v>
       </c>
       <c r="B812">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C812" t="s">
         <v>836</v>
@@ -26031,7 +26031,7 @@
         <v>54</v>
       </c>
       <c r="B813">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C813" t="s">
         <v>837</v>
@@ -26057,7 +26057,7 @@
         <v>54</v>
       </c>
       <c r="B814">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C814" t="s">
         <v>838</v>
@@ -26083,7 +26083,7 @@
         <v>54</v>
       </c>
       <c r="B815">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C815" t="s">
         <v>839</v>
@@ -26109,7 +26109,7 @@
         <v>54</v>
       </c>
       <c r="B816">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C816" t="s">
         <v>840</v>
@@ -26135,7 +26135,7 @@
         <v>54</v>
       </c>
       <c r="B817">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C817" t="s">
         <v>841</v>
@@ -26161,7 +26161,7 @@
         <v>54</v>
       </c>
       <c r="B818">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C818" t="s">
         <v>842</v>
@@ -26187,7 +26187,7 @@
         <v>54</v>
       </c>
       <c r="B819">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C819" t="s">
         <v>843</v>
@@ -26213,7 +26213,7 @@
         <v>54</v>
       </c>
       <c r="B820">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C820" t="s">
         <v>844</v>
@@ -26239,7 +26239,7 @@
         <v>54</v>
       </c>
       <c r="B821">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C821" t="s">
         <v>845</v>
@@ -26265,7 +26265,7 @@
         <v>54</v>
       </c>
       <c r="B822">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C822" t="s">
         <v>846</v>
@@ -26291,7 +26291,7 @@
         <v>54</v>
       </c>
       <c r="B823">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C823" t="s">
         <v>847</v>
@@ -26317,7 +26317,7 @@
         <v>54</v>
       </c>
       <c r="B824">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C824" t="s">
         <v>848</v>
@@ -26343,7 +26343,7 @@
         <v>54</v>
       </c>
       <c r="B825">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C825" t="s">
         <v>849</v>
@@ -26369,7 +26369,7 @@
         <v>54</v>
       </c>
       <c r="B826">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C826" t="s">
         <v>850</v>
@@ -26395,7 +26395,7 @@
         <v>54</v>
       </c>
       <c r="B827">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C827" t="s">
         <v>851</v>
@@ -26421,7 +26421,7 @@
         <v>54</v>
       </c>
       <c r="B828">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C828" t="s">
         <v>852</v>
@@ -26447,7 +26447,7 @@
         <v>54</v>
       </c>
       <c r="B829">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C829" t="s">
         <v>853</v>
@@ -26473,7 +26473,7 @@
         <v>54</v>
       </c>
       <c r="B830">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C830" t="s">
         <v>854</v>
@@ -26499,7 +26499,7 @@
         <v>54</v>
       </c>
       <c r="B831">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C831" t="s">
         <v>855</v>
@@ -26525,7 +26525,7 @@
         <v>54</v>
       </c>
       <c r="B832">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C832" t="s">
         <v>856</v>
@@ -26551,7 +26551,7 @@
         <v>54</v>
       </c>
       <c r="B833">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C833" t="s">
         <v>857</v>
@@ -26577,7 +26577,7 @@
         <v>54</v>
       </c>
       <c r="B834">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C834" t="s">
         <v>858</v>
@@ -26603,7 +26603,7 @@
         <v>54</v>
       </c>
       <c r="B835">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C835" t="s">
         <v>859</v>
@@ -26629,7 +26629,7 @@
         <v>54</v>
       </c>
       <c r="B836">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C836" t="s">
         <v>860</v>
@@ -26655,7 +26655,7 @@
         <v>54</v>
       </c>
       <c r="B837">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C837" t="s">
         <v>861</v>
@@ -26681,7 +26681,7 @@
         <v>54</v>
       </c>
       <c r="B838">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C838" t="s">
         <v>862</v>
@@ -26707,7 +26707,7 @@
         <v>54</v>
       </c>
       <c r="B839">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C839" t="s">
         <v>863</v>
@@ -26733,7 +26733,7 @@
         <v>54</v>
       </c>
       <c r="B840">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C840" t="s">
         <v>864</v>
@@ -26759,7 +26759,7 @@
         <v>54</v>
       </c>
       <c r="B841">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C841" t="s">
         <v>865</v>
@@ -26785,7 +26785,7 @@
         <v>54</v>
       </c>
       <c r="B842">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C842" t="s">
         <v>866</v>
@@ -26811,7 +26811,7 @@
         <v>54</v>
       </c>
       <c r="B843">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C843" t="s">
         <v>867</v>
@@ -26837,7 +26837,7 @@
         <v>54</v>
       </c>
       <c r="B844">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C844" t="s">
         <v>868</v>
@@ -26863,7 +26863,7 @@
         <v>54</v>
       </c>
       <c r="B845">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C845" t="s">
         <v>869</v>
@@ -26889,7 +26889,7 @@
         <v>54</v>
       </c>
       <c r="B846">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C846" t="s">
         <v>870</v>
@@ -26915,7 +26915,7 @@
         <v>54</v>
       </c>
       <c r="B847">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C847" t="s">
         <v>871</v>
@@ -26941,7 +26941,7 @@
         <v>54</v>
       </c>
       <c r="B848">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C848" t="s">
         <v>872</v>
@@ -26967,7 +26967,7 @@
         <v>54</v>
       </c>
       <c r="B849">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C849" t="s">
         <v>873</v>
@@ -26993,7 +26993,7 @@
         <v>54</v>
       </c>
       <c r="B850">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C850" t="s">
         <v>874</v>
@@ -27019,7 +27019,7 @@
         <v>54</v>
       </c>
       <c r="B851">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C851" t="s">
         <v>875</v>
@@ -27045,7 +27045,7 @@
         <v>54</v>
       </c>
       <c r="B852">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C852" t="s">
         <v>876</v>
@@ -27071,7 +27071,7 @@
         <v>54</v>
       </c>
       <c r="B853">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C853" t="s">
         <v>877</v>
@@ -27097,7 +27097,7 @@
         <v>54</v>
       </c>
       <c r="B854">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C854" t="s">
         <v>878</v>
@@ -27123,7 +27123,7 @@
         <v>54</v>
       </c>
       <c r="B855">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C855" t="s">
         <v>879</v>
@@ -27149,7 +27149,7 @@
         <v>54</v>
       </c>
       <c r="B856">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C856" t="s">
         <v>880</v>
@@ -27175,7 +27175,7 @@
         <v>54</v>
       </c>
       <c r="B857">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C857" t="s">
         <v>881</v>
@@ -27201,7 +27201,7 @@
         <v>54</v>
       </c>
       <c r="B858">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C858" t="s">
         <v>882</v>
@@ -27227,7 +27227,7 @@
         <v>54</v>
       </c>
       <c r="B859">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C859" t="s">
         <v>883</v>
@@ -27253,7 +27253,7 @@
         <v>54</v>
       </c>
       <c r="B860">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C860" t="s">
         <v>884</v>
@@ -27279,7 +27279,7 @@
         <v>54</v>
       </c>
       <c r="B861">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C861" t="s">
         <v>885</v>
@@ -27305,7 +27305,7 @@
         <v>54</v>
       </c>
       <c r="B862">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C862" t="s">
         <v>886</v>
@@ -27331,7 +27331,7 @@
         <v>54</v>
       </c>
       <c r="B863">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C863" t="s">
         <v>887</v>
@@ -27357,7 +27357,7 @@
         <v>54</v>
       </c>
       <c r="B864">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C864" t="s">
         <v>888</v>
@@ -27383,7 +27383,7 @@
         <v>54</v>
       </c>
       <c r="B865">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C865" t="s">
         <v>889</v>
@@ -27409,7 +27409,7 @@
         <v>54</v>
       </c>
       <c r="B866">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C866" t="s">
         <v>890</v>
@@ -27435,7 +27435,7 @@
         <v>54</v>
       </c>
       <c r="B867">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C867" t="s">
         <v>891</v>
@@ -27461,7 +27461,7 @@
         <v>54</v>
       </c>
       <c r="B868">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C868" t="s">
         <v>892</v>
@@ -27487,7 +27487,7 @@
         <v>54</v>
       </c>
       <c r="B869">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C869" t="s">
         <v>893</v>
@@ -27513,7 +27513,7 @@
         <v>54</v>
       </c>
       <c r="B870">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C870" t="s">
         <v>894</v>
@@ -27539,7 +27539,7 @@
         <v>54</v>
       </c>
       <c r="B871">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C871" t="s">
         <v>895</v>
@@ -27565,7 +27565,7 @@
         <v>54</v>
       </c>
       <c r="B872">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C872" t="s">
         <v>896</v>
@@ -27591,7 +27591,7 @@
         <v>54</v>
       </c>
       <c r="B873">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C873" t="s">
         <v>897</v>
@@ -27617,7 +27617,7 @@
         <v>54</v>
       </c>
       <c r="B874">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C874" t="s">
         <v>898</v>
@@ -27643,7 +27643,7 @@
         <v>53</v>
       </c>
       <c r="B875">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C875" t="s">
         <v>899</v>
@@ -27669,7 +27669,7 @@
         <v>53</v>
       </c>
       <c r="B876">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C876" t="s">
         <v>900</v>
@@ -27695,7 +27695,7 @@
         <v>53</v>
       </c>
       <c r="B877">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C877" t="s">
         <v>901</v>
@@ -27721,7 +27721,7 @@
         <v>53</v>
       </c>
       <c r="B878">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C878" t="s">
         <v>902</v>
@@ -27747,7 +27747,7 @@
         <v>53</v>
       </c>
       <c r="B879">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C879" t="s">
         <v>903</v>
@@ -27773,7 +27773,7 @@
         <v>53</v>
       </c>
       <c r="B880">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C880" t="s">
         <v>904</v>
@@ -27799,7 +27799,7 @@
         <v>53</v>
       </c>
       <c r="B881">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C881" t="s">
         <v>905</v>
@@ -27825,7 +27825,7 @@
         <v>53</v>
       </c>
       <c r="B882">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C882" t="s">
         <v>906</v>
@@ -27851,7 +27851,7 @@
         <v>53</v>
       </c>
       <c r="B883">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C883" t="s">
         <v>907</v>
@@ -27877,7 +27877,7 @@
         <v>53</v>
       </c>
       <c r="B884">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C884" t="s">
         <v>908</v>
@@ -27903,7 +27903,7 @@
         <v>53</v>
       </c>
       <c r="B885">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C885" t="s">
         <v>909</v>
@@ -27929,7 +27929,7 @@
         <v>53</v>
       </c>
       <c r="B886">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C886" t="s">
         <v>910</v>
@@ -27955,7 +27955,7 @@
         <v>53</v>
       </c>
       <c r="B887">
-        <v>1804</v>
+        <v>1904</v>
       </c>
       <c r="C887" t="s">
         <v>911</v>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Confirmacions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F0437B-45E1-4C90-ACB2-6F7CBFFA75B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E74A3F-3EBE-4EAC-B48B-398A0740FD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEEAE0F-87B7-4CFD-9217-CD5D622A9875}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8438" uniqueCount="1710">
   <si>
     <t>Cognons</t>
   </si>
@@ -4399,6 +4399,777 @@
   </si>
   <si>
     <t>Ortiz Rabaget Manuela</t>
+  </si>
+  <si>
+    <t>Roig Palou Maria Antonia</t>
+  </si>
+  <si>
+    <t>Macià Cisteró Maria Teresa</t>
+  </si>
+  <si>
+    <t>Figuera Sunyé Margarida</t>
+  </si>
+  <si>
+    <t>Majoral Formiguera Antonia</t>
+  </si>
+  <si>
+    <t>Colell Pedrós Maria</t>
+  </si>
+  <si>
+    <t>Pedrós Vilamajó Inés</t>
+  </si>
+  <si>
+    <t>Mosset Mas Francisca</t>
+  </si>
+  <si>
+    <t>Sales Curcó Emilia</t>
+  </si>
+  <si>
+    <t>Macià Cisteró Emilia</t>
+  </si>
+  <si>
+    <t>Vallés Roig Maria Dolors</t>
+  </si>
+  <si>
+    <t>Pedrós Sunyé Maria Rosa</t>
+  </si>
+  <si>
+    <t>Balcells Huguet Francisca</t>
+  </si>
+  <si>
+    <t>Aldomà Brescó Navidad</t>
+  </si>
+  <si>
+    <t>Arderiu Valls Teresa</t>
+  </si>
+  <si>
+    <t>Solé Ginestà Filomena</t>
+  </si>
+  <si>
+    <t>Nabau Cisteró Magdalena</t>
+  </si>
+  <si>
+    <t>Ginestà Teixidó Rosa</t>
+  </si>
+  <si>
+    <t>Querol Cases Virginia</t>
+  </si>
+  <si>
+    <t>Torrent Droguet Antonia</t>
+  </si>
+  <si>
+    <t>Coll Sunyé Maria</t>
+  </si>
+  <si>
+    <t>Sisteró Falcó Teresa</t>
+  </si>
+  <si>
+    <t>Sisteró Sunyé Maria</t>
+  </si>
+  <si>
+    <t>Cercós Sunyé Francisca</t>
+  </si>
+  <si>
+    <t>Galceran Barqué Teresa</t>
+  </si>
+  <si>
+    <t>Coll Formiguera Antonia</t>
+  </si>
+  <si>
+    <t>Pedrós Renyé Teresa</t>
+  </si>
+  <si>
+    <t>Ginestà Giné Cecilia</t>
+  </si>
+  <si>
+    <t>Balcells Pedrós Maria del Carmen</t>
+  </si>
+  <si>
+    <t>Camrubí Arderich Antonia</t>
+  </si>
+  <si>
+    <t>Coll Farré Agustina</t>
+  </si>
+  <si>
+    <t>Escolà Formiguera Maria de los Dolores</t>
+  </si>
+  <si>
+    <t>Pallerola Bondia Leonor</t>
+  </si>
+  <si>
+    <t>Roma Giné Teresa</t>
+  </si>
+  <si>
+    <t>Trepat Fabregat Teresa</t>
+  </si>
+  <si>
+    <t>Soler Pallerola Delfin</t>
+  </si>
+  <si>
+    <t>Ros Rabajet Andreu</t>
+  </si>
+  <si>
+    <t>Soler Pallerola Felip</t>
+  </si>
+  <si>
+    <t>Soler Pallerola Pere</t>
+  </si>
+  <si>
+    <t>Solé  Vergé Ramona</t>
+  </si>
+  <si>
+    <t>Carné Cases Magdalena</t>
+  </si>
+  <si>
+    <t>Ros Rabajet Maria</t>
+  </si>
+  <si>
+    <t>Farràs Ortiz Antonio</t>
+  </si>
+  <si>
+    <t>Farras Ortiz Ramona</t>
+  </si>
+  <si>
+    <t>Coll Bresoli Josep</t>
+  </si>
+  <si>
+    <t>Pedrós Perera Sebastia</t>
+  </si>
+  <si>
+    <t>Pedrós Casderó Jaume</t>
+  </si>
+  <si>
+    <t>Plà Ortiz Francisco</t>
+  </si>
+  <si>
+    <t>Pedrós Cava Agustí</t>
+  </si>
+  <si>
+    <t>Vila Mases Jaume</t>
+  </si>
+  <si>
+    <t>Pedrós Codina Pere</t>
+  </si>
+  <si>
+    <t>Berengué Cisteró Ramon</t>
+  </si>
+  <si>
+    <t>París Pedrós Llorenç</t>
+  </si>
+  <si>
+    <t>Mirada Droguet Josep</t>
+  </si>
+  <si>
+    <t>Pla Ortiz Joan</t>
+  </si>
+  <si>
+    <t>Sisteró Boldú Ramona</t>
+  </si>
+  <si>
+    <t>Vila Mases Antonia</t>
+  </si>
+  <si>
+    <t>Sisteró Boldú Magdalena</t>
+  </si>
+  <si>
+    <t>Pedrós Sentenà Josepa</t>
+  </si>
+  <si>
+    <t>Pedrós Perera Sabina</t>
+  </si>
+  <si>
+    <t>Mases Farré Antonia</t>
+  </si>
+  <si>
+    <t>Pedrós Cava Filomena</t>
+  </si>
+  <si>
+    <t>Paris Pedrós Enrica</t>
+  </si>
+  <si>
+    <t>Matamala Badia Antonia</t>
+  </si>
+  <si>
+    <t>Plà Ortiz Rosa</t>
+  </si>
+  <si>
+    <t>Pla Ortiz Josepa</t>
+  </si>
+  <si>
+    <t>Bonjan Altisen Josepa</t>
+  </si>
+  <si>
+    <t>Pijoan Segura Ramona</t>
+  </si>
+  <si>
+    <t>Berengué Cisteró Paula</t>
+  </si>
+  <si>
+    <t>Pedrós Sentenà Teresa</t>
+  </si>
+  <si>
+    <t>Teixidó Morera Maria</t>
+  </si>
+  <si>
+    <t>Cisteró Boldú Maria del Carmen</t>
+  </si>
+  <si>
+    <t>Teixidó Morera Francisca</t>
+  </si>
+  <si>
+    <t>Gaitó Altisen Rosalia</t>
+  </si>
+  <si>
+    <t>Teixidó Morera Josepa</t>
+  </si>
+  <si>
+    <t>Batalla Pallicé Ramon</t>
+  </si>
+  <si>
+    <t>Maria Boldu Joan</t>
+  </si>
+  <si>
+    <t>Companys Camarasa Manuel</t>
+  </si>
+  <si>
+    <t>Ortiz Falcó Francisco</t>
+  </si>
+  <si>
+    <t>Ortiz Falcó Josep</t>
+  </si>
+  <si>
+    <t>Ortiz Falcó Pascual</t>
+  </si>
+  <si>
+    <t>Companys Camarasa Maria</t>
+  </si>
+  <si>
+    <t>Ortiz Falcó Maria</t>
+  </si>
+  <si>
+    <t>Planes Roca Ramona</t>
+  </si>
+  <si>
+    <t>Planes Roca Carme</t>
+  </si>
+  <si>
+    <t>Companys Camarasa Margarita</t>
+  </si>
+  <si>
+    <t>Batalla Pallicé Maria</t>
+  </si>
+  <si>
+    <t>Batalla Pallicé Antonia</t>
+  </si>
+  <si>
+    <t>Gine Formiguera Antonia</t>
+  </si>
+  <si>
+    <t>Cisteró Jové Angela</t>
+  </si>
+  <si>
+    <t>Camarasa Balcells Magdalena</t>
+  </si>
+  <si>
+    <t>Fabregat Duart Francisca</t>
+  </si>
+  <si>
+    <t>Formiguera Coll Maria de les Neus</t>
+  </si>
+  <si>
+    <t>Civit Vilamajó Ignés</t>
+  </si>
+  <si>
+    <t>Morera Mata Rosa</t>
+  </si>
+  <si>
+    <t>Pedrós Pujades Antonia</t>
+  </si>
+  <si>
+    <t>Porta Centenà Teresa</t>
+  </si>
+  <si>
+    <t>Tarragó Gilavert Manuela</t>
+  </si>
+  <si>
+    <t>Marià Cisteró Josepa</t>
+  </si>
+  <si>
+    <t>Escolà Pascual Maria Teresa</t>
+  </si>
+  <si>
+    <t>Majoral Pallerola Rosalia</t>
+  </si>
+  <si>
+    <t>Brunet Cava Maria dels Angels</t>
+  </si>
+  <si>
+    <t>Brasset Cava Maria del Carme</t>
+  </si>
+  <si>
+    <t>Mas Niubó Elena</t>
+  </si>
+  <si>
+    <t>Salles Coll Teresa</t>
+  </si>
+  <si>
+    <t>Bonell Casamajó Francisca</t>
+  </si>
+  <si>
+    <t>Serra Escolà Ramona</t>
+  </si>
+  <si>
+    <t>Torrent Droguet Rosalia</t>
+  </si>
+  <si>
+    <t>Roca Camrubí Carme</t>
+  </si>
+  <si>
+    <t>Torrades Vergé Teresa</t>
+  </si>
+  <si>
+    <t>Giné Ginestà Cecilia</t>
+  </si>
+  <si>
+    <t>Vilamajó Duart Maria</t>
+  </si>
+  <si>
+    <t>Bellet Escolà Gertrudis</t>
+  </si>
+  <si>
+    <t>Mas Balcells Matilde</t>
+  </si>
+  <si>
+    <t>Fabregat Miquel Cecilia</t>
+  </si>
+  <si>
+    <t>Galí Pedrós Maria</t>
+  </si>
+  <si>
+    <t>Galí Pedrós Enrica</t>
+  </si>
+  <si>
+    <t>Ginestà Giné Paula</t>
+  </si>
+  <si>
+    <t>Macià Sisteró Maria Teresa</t>
+  </si>
+  <si>
+    <t>Fabregat Mata Rosa</t>
+  </si>
+  <si>
+    <t>Martí Sellart Magdalena</t>
+  </si>
+  <si>
+    <t>Trepat Ginestà Magdalena</t>
+  </si>
+  <si>
+    <t>Martí Trilla Maria Teresa</t>
+  </si>
+  <si>
+    <t>Vergé Joan Antonia</t>
+  </si>
+  <si>
+    <t>Pujades Talarn Ramona</t>
+  </si>
+  <si>
+    <t>Pedrós Solsona Ramona</t>
+  </si>
+  <si>
+    <t>Pedrós Solsona Enrica</t>
+  </si>
+  <si>
+    <t>Solsona Mas Antonia</t>
+  </si>
+  <si>
+    <t>Pujades Talarn Rosalia</t>
+  </si>
+  <si>
+    <t>Mas Vallés Catarina</t>
+  </si>
+  <si>
+    <t>Torrent Lamarca Maria</t>
+  </si>
+  <si>
+    <t>Civit Vilamajó Maria Dolors</t>
+  </si>
+  <si>
+    <t>Gali Pedrós Paula</t>
+  </si>
+  <si>
+    <t>Figuera Cunyé Maria del Pilar</t>
+  </si>
+  <si>
+    <t>Pedra Roiger Maria Antonia</t>
+  </si>
+  <si>
+    <t>Roca Camrubí Antonia</t>
+  </si>
+  <si>
+    <t>Castelló Escolà Maria Rosa</t>
+  </si>
+  <si>
+    <t>Pedrós Vilamajó Magdalena</t>
+  </si>
+  <si>
+    <t>Novell Morell Magdalena</t>
+  </si>
+  <si>
+    <t>Torrent Lamarca Teresa</t>
+  </si>
+  <si>
+    <t>Boreu Subrats Maria de la Concepcio</t>
+  </si>
+  <si>
+    <t>Cascalló Farré Antonia</t>
+  </si>
+  <si>
+    <t>Mosset Farré Maria de la Mesies?</t>
+  </si>
+  <si>
+    <t>Cisteró Palomés Francisca</t>
+  </si>
+  <si>
+    <t>Planes Fabregat Maria Rosa</t>
+  </si>
+  <si>
+    <t>Valls Arderiu Rosalia</t>
+  </si>
+  <si>
+    <t>Teixiné Huguet Maria del Carmen</t>
+  </si>
+  <si>
+    <t>Torrades Vergé Paula</t>
+  </si>
+  <si>
+    <t>Pujades Pedrós Magdalena</t>
+  </si>
+  <si>
+    <t>Arderiu Valls Candida</t>
+  </si>
+  <si>
+    <t>Arderiu Valls Obelina</t>
+  </si>
+  <si>
+    <t>Roma Balcells Ramona</t>
+  </si>
+  <si>
+    <t>Palou Vilaplana Teresa</t>
+  </si>
+  <si>
+    <t>Torrent Lamarca Feliucua</t>
+  </si>
+  <si>
+    <t>Valls Pujades Maria</t>
+  </si>
+  <si>
+    <t>Formiguera Escolà Maria</t>
+  </si>
+  <si>
+    <t>Roigé Porta Maria</t>
+  </si>
+  <si>
+    <t>Vallés Roig Ramona</t>
+  </si>
+  <si>
+    <t>Mas Vallés Francisca</t>
+  </si>
+  <si>
+    <t>Coll Sunyé  Ramona</t>
+  </si>
+  <si>
+    <t>Duart Vilamajó Rosa</t>
+  </si>
+  <si>
+    <t>Martí Palou Antonia</t>
+  </si>
+  <si>
+    <t>Plasa Boladeres Paula</t>
+  </si>
+  <si>
+    <t>Pujol Balagueró Francisca</t>
+  </si>
+  <si>
+    <t>Balagueró Huguet Maria del Carme</t>
+  </si>
+  <si>
+    <t>Palou Vilaplana Rosalia</t>
+  </si>
+  <si>
+    <t>Pedrós Pedrós Maria Rosa</t>
+  </si>
+  <si>
+    <t>Galceran Barqué Magdalena</t>
+  </si>
+  <si>
+    <t>Roigé Porta Maria Teresa</t>
+  </si>
+  <si>
+    <t>Camarasa Balcells Antonia</t>
+  </si>
+  <si>
+    <t>Giné Ginestà Antonia</t>
+  </si>
+  <si>
+    <t>Fabregat Miquel Maria Antonia</t>
+  </si>
+  <si>
+    <t>Solsona Pedrós Antonia</t>
+  </si>
+  <si>
+    <t>Boldú Vilaró Rosa</t>
+  </si>
+  <si>
+    <t>Pedrós Bresolí Maria Rosa</t>
+  </si>
+  <si>
+    <t>Balcells Huguet Antonia?</t>
+  </si>
+  <si>
+    <t>17/11/1879</t>
+  </si>
+  <si>
+    <t>Binefa Martí Antonio</t>
+  </si>
+  <si>
+    <t>Colell Sunyé Ignasi</t>
+  </si>
+  <si>
+    <t>Formiguera Bosch Joan Baptista</t>
+  </si>
+  <si>
+    <t>Palou Vidal Guillem</t>
+  </si>
+  <si>
+    <t>Coll Farré Jaume</t>
+  </si>
+  <si>
+    <t>Castelló Cava Pere Joan</t>
+  </si>
+  <si>
+    <t>Pujades Talarn Josep Antoni</t>
+  </si>
+  <si>
+    <t>Civit Vilamajó Cebastià</t>
+  </si>
+  <si>
+    <t>Ginestà Solé Ramon</t>
+  </si>
+  <si>
+    <t>Pedrós Pedrós Pere Joan</t>
+  </si>
+  <si>
+    <t>Cisteró Falcó Agusti</t>
+  </si>
+  <si>
+    <t>Mas Ricart Joan</t>
+  </si>
+  <si>
+    <t>Balagueró Huguet  Josep</t>
+  </si>
+  <si>
+    <t>Torrades Vergé Ramon</t>
+  </si>
+  <si>
+    <t>Bondia Pallerola Jaume</t>
+  </si>
+  <si>
+    <t>Martí Colell Antoni</t>
+  </si>
+  <si>
+    <t>Martí Bonjorn Leopoldo</t>
+  </si>
+  <si>
+    <t>Colell Duart Josep</t>
+  </si>
+  <si>
+    <t>Solsona Mas Josep Antonio</t>
+  </si>
+  <si>
+    <t>Solé Ginestà Josep</t>
+  </si>
+  <si>
+    <t>Teixené Huguet Francisco</t>
+  </si>
+  <si>
+    <t>Vilamajó Duart Pere</t>
+  </si>
+  <si>
+    <t>Pedrós Manyes Josep</t>
+  </si>
+  <si>
+    <t>Balcells Huguet Josep</t>
+  </si>
+  <si>
+    <t>Pujol Balagueró Cosme</t>
+  </si>
+  <si>
+    <t>Trepat Domenech Llorenç</t>
+  </si>
+  <si>
+    <t>Colell Pedrós Esteve</t>
+  </si>
+  <si>
+    <t>Sol Miró Lluís</t>
+  </si>
+  <si>
+    <t>Pedrós Bresolí Josep</t>
+  </si>
+  <si>
+    <t>Batliu Brescó Antoni</t>
+  </si>
+  <si>
+    <t>Sales Falcó Josep</t>
+  </si>
+  <si>
+    <t>Figuera Cunyé Joan</t>
+  </si>
+  <si>
+    <t>Bonjorn Salles Francisco</t>
+  </si>
+  <si>
+    <t>Brunet Cava Mariano</t>
+  </si>
+  <si>
+    <t>Pedrós Pujades Josep</t>
+  </si>
+  <si>
+    <t>Vallés Roig Ignasi</t>
+  </si>
+  <si>
+    <t>Novell Formiguera Joan Bautista</t>
+  </si>
+  <si>
+    <t>Majoral Formiguera Joan</t>
+  </si>
+  <si>
+    <t>Roige Porta Manuel</t>
+  </si>
+  <si>
+    <t>Escolà Formiguera Bautista</t>
+  </si>
+  <si>
+    <t>Farré Solsona Francisco</t>
+  </si>
+  <si>
+    <t>Brunet Cava Ramon</t>
+  </si>
+  <si>
+    <t>Fabregat Duart Josep</t>
+  </si>
+  <si>
+    <t>Coll Pujol Josep Maria</t>
+  </si>
+  <si>
+    <t>Pedra Roige Josep Antoni</t>
+  </si>
+  <si>
+    <t>Querol Casals Josep Antoni</t>
+  </si>
+  <si>
+    <t>Martí Traveria Josep Antoni</t>
+  </si>
+  <si>
+    <t>Morera Mata Josep</t>
+  </si>
+  <si>
+    <t>Pujades Talarn Francisco</t>
+  </si>
+  <si>
+    <t>Colell Sunyé Antoni</t>
+  </si>
+  <si>
+    <t>Nabau Sisteró Ramon</t>
+  </si>
+  <si>
+    <t>Riba Salles Josep</t>
+  </si>
+  <si>
+    <t>Balcells Mas Pau</t>
+  </si>
+  <si>
+    <t>Vergé Mases Jauma</t>
+  </si>
+  <si>
+    <t>Martí Palou Josep Antoni</t>
+  </si>
+  <si>
+    <t>Pedrós Pedrós Manuel</t>
+  </si>
+  <si>
+    <t>Cvit Rabajet Francisco</t>
+  </si>
+  <si>
+    <t>Novell Morell Jaume</t>
+  </si>
+  <si>
+    <t>Riba Salles Josep Miquel</t>
+  </si>
+  <si>
+    <t>Sol Miró Enric</t>
+  </si>
+  <si>
+    <t>Boreu Sobervalls Pere</t>
+  </si>
+  <si>
+    <t>Brunet Cava Tomas</t>
+  </si>
+  <si>
+    <t>Macià Cisteró Josep Maria</t>
+  </si>
+  <si>
+    <t>Balcells Huguet Antoni Ramon</t>
+  </si>
+  <si>
+    <t>Coca Palou Ignasi</t>
+  </si>
+  <si>
+    <t>Batlle Brescó Emili</t>
+  </si>
+  <si>
+    <t>Coll Farré Silbestre</t>
+  </si>
+  <si>
+    <t>Coca Palou Josep</t>
+  </si>
+  <si>
+    <t>Pujades Valls Manuel</t>
+  </si>
+  <si>
+    <t>Farré Solsona Antoni Ramón</t>
+  </si>
+  <si>
+    <t>Majoral Figuera Angel</t>
+  </si>
+  <si>
+    <t>Pujol Balagueró Josep</t>
+  </si>
+  <si>
+    <t>Martí Martí Antoni</t>
+  </si>
+  <si>
+    <t>Trepat Fabregat Josep</t>
+  </si>
+  <si>
+    <t>Roig Mas Josep</t>
+  </si>
+  <si>
+    <t>Riera Berengué Josep</t>
+  </si>
+  <si>
+    <t>Cisteró Palomes Esteve</t>
+  </si>
+  <si>
+    <t>Cisteró Nabau Ignasi</t>
+  </si>
+  <si>
+    <t>Mosset Farre Teresa</t>
+  </si>
+  <si>
+    <t>Coll Pujol Maria Teresa</t>
+  </si>
+  <si>
+    <t>Fabregat Miquel Dolors</t>
   </si>
 </sst>
 </file>
@@ -4765,16 +5536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}">
-  <dimension ref="A1:L1436"/>
+  <dimension ref="A1:L1696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1408" workbookViewId="0">
-      <selection activeCell="A1437" sqref="A1437"/>
+    <sheetView tabSelected="1" topLeftCell="A1684" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1697" sqref="A1697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -42293,13 +43064,13 @@
         <v>45</v>
       </c>
       <c r="B1376">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1376" s="5" t="s">
         <v>1392</v>
       </c>
       <c r="F1376" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1376" t="s">
         <v>11</v>
@@ -42319,13 +43090,13 @@
         <v>45</v>
       </c>
       <c r="B1377">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1377" t="s">
         <v>1396</v>
       </c>
       <c r="F1377" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1377" t="s">
         <v>11</v>
@@ -42345,13 +43116,13 @@
         <v>45</v>
       </c>
       <c r="B1378">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1378" t="s">
         <v>1393</v>
       </c>
       <c r="F1378" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1378" t="s">
         <v>11</v>
@@ -42371,13 +43142,13 @@
         <v>45</v>
       </c>
       <c r="B1379">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1379" t="s">
         <v>1394</v>
       </c>
       <c r="F1379" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1379" t="s">
         <v>11</v>
@@ -42397,13 +43168,13 @@
         <v>45</v>
       </c>
       <c r="B1380">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1380" t="s">
         <v>1395</v>
       </c>
       <c r="F1380" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1380" t="s">
         <v>11</v>
@@ -42423,13 +43194,13 @@
         <v>45</v>
       </c>
       <c r="B1381">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1381" t="s">
         <v>1397</v>
       </c>
       <c r="F1381" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1381" t="s">
         <v>11</v>
@@ -42449,13 +43220,13 @@
         <v>45</v>
       </c>
       <c r="B1382">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1382" t="s">
         <v>1398</v>
       </c>
       <c r="F1382" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1382" t="s">
         <v>11</v>
@@ -42475,13 +43246,13 @@
         <v>45</v>
       </c>
       <c r="B1383">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1383" t="s">
         <v>1399</v>
       </c>
       <c r="F1383" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1383" t="s">
         <v>11</v>
@@ -42501,13 +43272,13 @@
         <v>45</v>
       </c>
       <c r="B1384">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1384" t="s">
         <v>1400</v>
       </c>
       <c r="F1384" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1384" t="s">
         <v>11</v>
@@ -42527,13 +43298,13 @@
         <v>45</v>
       </c>
       <c r="B1385">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1385" t="s">
         <v>1401</v>
       </c>
       <c r="F1385" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1385" t="s">
         <v>11</v>
@@ -42553,13 +43324,13 @@
         <v>45</v>
       </c>
       <c r="B1386">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1386" t="s">
         <v>1402</v>
       </c>
       <c r="F1386" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1386" t="s">
         <v>11</v>
@@ -42579,13 +43350,13 @@
         <v>45</v>
       </c>
       <c r="B1387">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1387" t="s">
         <v>1403</v>
       </c>
       <c r="F1387" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1387" t="s">
         <v>11</v>
@@ -42605,13 +43376,13 @@
         <v>45</v>
       </c>
       <c r="B1388">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1388" t="s">
         <v>1404</v>
       </c>
       <c r="F1388" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1388" t="s">
         <v>11</v>
@@ -42631,13 +43402,13 @@
         <v>45</v>
       </c>
       <c r="B1389">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1389" t="s">
         <v>1405</v>
       </c>
       <c r="F1389" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1389" t="s">
         <v>11</v>
@@ -42657,13 +43428,13 @@
         <v>45</v>
       </c>
       <c r="B1390">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1390" t="s">
         <v>1406</v>
       </c>
       <c r="F1390" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1390" t="s">
         <v>11</v>
@@ -42683,13 +43454,13 @@
         <v>45</v>
       </c>
       <c r="B1391">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1391" t="s">
         <v>1407</v>
       </c>
       <c r="F1391" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1391" t="s">
         <v>11</v>
@@ -42709,13 +43480,13 @@
         <v>45</v>
       </c>
       <c r="B1392">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1392" t="s">
         <v>1408</v>
       </c>
       <c r="F1392" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1392" t="s">
         <v>11</v>
@@ -42735,13 +43506,13 @@
         <v>45</v>
       </c>
       <c r="B1393">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1393" t="s">
         <v>1409</v>
       </c>
       <c r="F1393" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1393" t="s">
         <v>11</v>
@@ -42761,13 +43532,13 @@
         <v>45</v>
       </c>
       <c r="B1394">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1394" t="s">
         <v>1410</v>
       </c>
       <c r="F1394" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1394" t="s">
         <v>11</v>
@@ -42787,13 +43558,13 @@
         <v>45</v>
       </c>
       <c r="B1395">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1395" t="s">
         <v>1411</v>
       </c>
       <c r="F1395" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1395" t="s">
         <v>11</v>
@@ -42813,13 +43584,13 @@
         <v>45</v>
       </c>
       <c r="B1396">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1396" t="s">
         <v>1412</v>
       </c>
       <c r="F1396" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1396" t="s">
         <v>11</v>
@@ -42839,13 +43610,13 @@
         <v>45</v>
       </c>
       <c r="B1397">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1397" t="s">
         <v>1413</v>
       </c>
       <c r="F1397" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1397" t="s">
         <v>11</v>
@@ -42865,13 +43636,13 @@
         <v>45</v>
       </c>
       <c r="B1398">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1398" t="s">
         <v>1414</v>
       </c>
       <c r="F1398" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1398" t="s">
         <v>11</v>
@@ -42891,13 +43662,13 @@
         <v>45</v>
       </c>
       <c r="B1399">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1399" t="s">
         <v>1415</v>
       </c>
       <c r="F1399" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1399" t="s">
         <v>11</v>
@@ -42917,13 +43688,13 @@
         <v>45</v>
       </c>
       <c r="B1400">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1400" t="s">
         <v>1416</v>
       </c>
       <c r="F1400" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1400" t="s">
         <v>11</v>
@@ -42943,13 +43714,13 @@
         <v>45</v>
       </c>
       <c r="B1401">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1401" t="s">
         <v>1417</v>
       </c>
       <c r="F1401" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1401" t="s">
         <v>11</v>
@@ -42969,13 +43740,13 @@
         <v>45</v>
       </c>
       <c r="B1402">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1402" t="s">
         <v>1418</v>
       </c>
       <c r="F1402" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1402" t="s">
         <v>11</v>
@@ -42995,13 +43766,13 @@
         <v>45</v>
       </c>
       <c r="B1403">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1403" t="s">
         <v>1419</v>
       </c>
       <c r="F1403" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1403" t="s">
         <v>11</v>
@@ -43021,13 +43792,13 @@
         <v>45</v>
       </c>
       <c r="B1404">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1404" t="s">
         <v>1420</v>
       </c>
       <c r="F1404" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1404" t="s">
         <v>11</v>
@@ -43047,13 +43818,13 @@
         <v>45</v>
       </c>
       <c r="B1405">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1405" t="s">
         <v>1421</v>
       </c>
       <c r="F1405" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1405" t="s">
         <v>11</v>
@@ -43073,13 +43844,13 @@
         <v>45</v>
       </c>
       <c r="B1406">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1406" t="s">
         <v>1422</v>
       </c>
       <c r="F1406" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1406" t="s">
         <v>11</v>
@@ -43099,13 +43870,13 @@
         <v>45</v>
       </c>
       <c r="B1407">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1407" t="s">
         <v>1423</v>
       </c>
       <c r="F1407" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1407" t="s">
         <v>11</v>
@@ -43125,13 +43896,13 @@
         <v>45</v>
       </c>
       <c r="B1408">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1408" t="s">
         <v>1424</v>
       </c>
       <c r="F1408" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1408" t="s">
         <v>11</v>
@@ -43151,13 +43922,13 @@
         <v>45</v>
       </c>
       <c r="B1409">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1409" t="s">
         <v>1425</v>
       </c>
       <c r="F1409" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1409" t="s">
         <v>11</v>
@@ -43177,13 +43948,13 @@
         <v>45</v>
       </c>
       <c r="B1410">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1410" t="s">
         <v>1426</v>
       </c>
       <c r="F1410" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1410" t="s">
         <v>11</v>
@@ -43203,13 +43974,13 @@
         <v>45</v>
       </c>
       <c r="B1411">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1411" t="s">
         <v>1427</v>
       </c>
       <c r="F1411" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1411" t="s">
         <v>11</v>
@@ -43229,13 +44000,13 @@
         <v>45</v>
       </c>
       <c r="B1412">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1412" t="s">
         <v>1428</v>
       </c>
       <c r="F1412" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1412" t="s">
         <v>11</v>
@@ -43255,13 +44026,13 @@
         <v>45</v>
       </c>
       <c r="B1413">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1413" t="s">
         <v>1429</v>
       </c>
       <c r="F1413" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1413" t="s">
         <v>11</v>
@@ -43281,13 +44052,13 @@
         <v>45</v>
       </c>
       <c r="B1414">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1414" t="s">
         <v>1430</v>
       </c>
       <c r="F1414" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1414" t="s">
         <v>11</v>
@@ -43307,13 +44078,13 @@
         <v>45</v>
       </c>
       <c r="B1415">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1415" t="s">
         <v>1431</v>
       </c>
       <c r="F1415" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1415" t="s">
         <v>11</v>
@@ -43333,13 +44104,13 @@
         <v>45</v>
       </c>
       <c r="B1416">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1416" t="s">
         <v>1432</v>
       </c>
       <c r="F1416" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1416" t="s">
         <v>11</v>
@@ -43359,13 +44130,13 @@
         <v>45</v>
       </c>
       <c r="B1417">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1417" t="s">
         <v>1433</v>
       </c>
       <c r="F1417" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1417" t="s">
         <v>11</v>
@@ -43385,13 +44156,13 @@
         <v>45</v>
       </c>
       <c r="B1418">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1418" t="s">
         <v>1434</v>
       </c>
       <c r="F1418" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1418" t="s">
         <v>11</v>
@@ -43411,13 +44182,13 @@
         <v>45</v>
       </c>
       <c r="B1419">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1419" t="s">
         <v>1435</v>
       </c>
       <c r="F1419" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1419" t="s">
         <v>11</v>
@@ -43437,13 +44208,13 @@
         <v>45</v>
       </c>
       <c r="B1420">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1420" t="s">
         <v>1436</v>
       </c>
       <c r="F1420" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1420" t="s">
         <v>11</v>
@@ -43463,13 +44234,13 @@
         <v>45</v>
       </c>
       <c r="B1421">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1421" t="s">
         <v>1437</v>
       </c>
       <c r="F1421" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1421" t="s">
         <v>11</v>
@@ -43489,13 +44260,13 @@
         <v>45</v>
       </c>
       <c r="B1422">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1422" t="s">
         <v>1438</v>
       </c>
       <c r="F1422" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1422" t="s">
         <v>11</v>
@@ -43515,13 +44286,13 @@
         <v>45</v>
       </c>
       <c r="B1423">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1423" t="s">
         <v>1439</v>
       </c>
       <c r="F1423" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1423" t="s">
         <v>11</v>
@@ -43541,13 +44312,13 @@
         <v>45</v>
       </c>
       <c r="B1424">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1424" t="s">
         <v>1440</v>
       </c>
       <c r="F1424" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1424" t="s">
         <v>11</v>
@@ -43567,13 +44338,13 @@
         <v>45</v>
       </c>
       <c r="B1425">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1425" t="s">
         <v>1441</v>
       </c>
       <c r="F1425" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1425" t="s">
         <v>11</v>
@@ -43593,13 +44364,13 @@
         <v>45</v>
       </c>
       <c r="B1426">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1426" t="s">
         <v>1442</v>
       </c>
       <c r="F1426" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1426" t="s">
         <v>11</v>
@@ -43619,13 +44390,13 @@
         <v>45</v>
       </c>
       <c r="B1427">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1427" t="s">
         <v>1443</v>
       </c>
       <c r="F1427" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1427" t="s">
         <v>11</v>
@@ -43645,13 +44416,13 @@
         <v>45</v>
       </c>
       <c r="B1428">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1428" t="s">
         <v>1444</v>
       </c>
       <c r="F1428" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1428" t="s">
         <v>11</v>
@@ -43671,13 +44442,13 @@
         <v>45</v>
       </c>
       <c r="B1429">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1429" t="s">
         <v>1445</v>
       </c>
       <c r="F1429" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1429" t="s">
         <v>11</v>
@@ -43697,13 +44468,13 @@
         <v>45</v>
       </c>
       <c r="B1430">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1430" t="s">
         <v>1446</v>
       </c>
       <c r="F1430" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1430" t="s">
         <v>11</v>
@@ -43723,13 +44494,13 @@
         <v>45</v>
       </c>
       <c r="B1431">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1431" t="s">
         <v>1447</v>
       </c>
       <c r="F1431" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1431" t="s">
         <v>11</v>
@@ -43749,13 +44520,13 @@
         <v>45</v>
       </c>
       <c r="B1432">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1432" t="s">
         <v>1448</v>
       </c>
       <c r="F1432" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1432" t="s">
         <v>11</v>
@@ -43775,13 +44546,13 @@
         <v>45</v>
       </c>
       <c r="B1433">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1433" t="s">
         <v>1449</v>
       </c>
       <c r="F1433" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1433" t="s">
         <v>11</v>
@@ -43801,13 +44572,13 @@
         <v>45</v>
       </c>
       <c r="B1434">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1434" t="s">
         <v>1450</v>
       </c>
       <c r="F1434" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1434" t="s">
         <v>11</v>
@@ -43827,13 +44598,13 @@
         <v>45</v>
       </c>
       <c r="B1435">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1435" t="s">
         <v>1451</v>
       </c>
       <c r="F1435" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1435" t="s">
         <v>11</v>
@@ -43853,13 +44624,13 @@
         <v>45</v>
       </c>
       <c r="B1436">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C1436" t="s">
         <v>1452</v>
       </c>
       <c r="F1436" t="s">
-        <v>504</v>
+        <v>1628</v>
       </c>
       <c r="H1436" t="s">
         <v>11</v>
@@ -43871,6 +44642,7486 @@
         <v>12</v>
       </c>
       <c r="K1436" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>44</v>
+      </c>
+      <c r="B1437">
+        <v>1879</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1437">
+        <v>47</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1437" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>44</v>
+      </c>
+      <c r="B1438">
+        <v>1879</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1438">
+        <v>47</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1438" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>44</v>
+      </c>
+      <c r="B1439">
+        <v>1879</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1439">
+        <v>47</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1439" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>44</v>
+      </c>
+      <c r="B1440">
+        <v>1879</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1440">
+        <v>47</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1440" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>44</v>
+      </c>
+      <c r="B1441">
+        <v>1879</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1441">
+        <v>47</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1441" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>44</v>
+      </c>
+      <c r="B1442">
+        <v>1879</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1442">
+        <v>47</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1442" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>44</v>
+      </c>
+      <c r="B1443">
+        <v>1879</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1443">
+        <v>47</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1443" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>44</v>
+      </c>
+      <c r="B1444">
+        <v>1879</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1444">
+        <v>47</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>44</v>
+      </c>
+      <c r="B1445">
+        <v>1879</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1445">
+        <v>47</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1445" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>44</v>
+      </c>
+      <c r="B1446">
+        <v>1879</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1446">
+        <v>47</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1446" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>44</v>
+      </c>
+      <c r="B1447">
+        <v>1879</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1447">
+        <v>47</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1447" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>44</v>
+      </c>
+      <c r="B1448">
+        <v>1879</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1448">
+        <v>47</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1448" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>44</v>
+      </c>
+      <c r="B1449">
+        <v>1879</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1449">
+        <v>47</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1449" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>44</v>
+      </c>
+      <c r="B1450">
+        <v>1879</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1450">
+        <v>47</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1450" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>44</v>
+      </c>
+      <c r="B1451">
+        <v>1879</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1451">
+        <v>47</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1451" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>44</v>
+      </c>
+      <c r="B1452">
+        <v>1879</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1452">
+        <v>47</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1452" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>44</v>
+      </c>
+      <c r="B1453">
+        <v>1879</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1453">
+        <v>47</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1453" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>44</v>
+      </c>
+      <c r="B1454">
+        <v>1879</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1454">
+        <v>47</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1454" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>44</v>
+      </c>
+      <c r="B1455">
+        <v>1879</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1455">
+        <v>47</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1455" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>44</v>
+      </c>
+      <c r="B1456">
+        <v>1879</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1456">
+        <v>47</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1456" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>44</v>
+      </c>
+      <c r="B1457">
+        <v>1879</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1457">
+        <v>47</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1457" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>44</v>
+      </c>
+      <c r="B1458">
+        <v>1879</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1458">
+        <v>47</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1458" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>44</v>
+      </c>
+      <c r="B1459">
+        <v>1879</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1459">
+        <v>47</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1459" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>44</v>
+      </c>
+      <c r="B1460">
+        <v>1879</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1460">
+        <v>47</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1460" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>44</v>
+      </c>
+      <c r="B1461">
+        <v>1879</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1461">
+        <v>47</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1461" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>44</v>
+      </c>
+      <c r="B1462">
+        <v>1879</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1462">
+        <v>47</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1462" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>44</v>
+      </c>
+      <c r="B1463">
+        <v>1879</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1463">
+        <v>47</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1463" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>44</v>
+      </c>
+      <c r="B1464">
+        <v>1879</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1464">
+        <v>47</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1464" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>44</v>
+      </c>
+      <c r="B1465">
+        <v>1879</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1465">
+        <v>47</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1465" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>44</v>
+      </c>
+      <c r="B1466">
+        <v>1879</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1466">
+        <v>47</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1466" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>44</v>
+      </c>
+      <c r="B1467">
+        <v>1879</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1467">
+        <v>47</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1467" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>44</v>
+      </c>
+      <c r="B1468">
+        <v>1879</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1468">
+        <v>47</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1468" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>44</v>
+      </c>
+      <c r="B1469">
+        <v>1879</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1469">
+        <v>47</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1469" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>44</v>
+      </c>
+      <c r="B1470">
+        <v>1879</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1470">
+        <v>47</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1470" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>44</v>
+      </c>
+      <c r="B1471">
+        <v>1879</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1471">
+        <v>47</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1471" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>44</v>
+      </c>
+      <c r="B1472">
+        <v>1879</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1472">
+        <v>47</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1472" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>44</v>
+      </c>
+      <c r="B1473">
+        <v>1879</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1473">
+        <v>47</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1473" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>44</v>
+      </c>
+      <c r="B1474">
+        <v>1879</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1474">
+        <v>47</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1474" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>44</v>
+      </c>
+      <c r="B1475">
+        <v>1879</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1475">
+        <v>47</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1475" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>44</v>
+      </c>
+      <c r="B1476">
+        <v>1879</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1476">
+        <v>47</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1476" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>44</v>
+      </c>
+      <c r="B1477">
+        <v>1879</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1477">
+        <v>47</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1477" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>44</v>
+      </c>
+      <c r="B1478">
+        <v>1879</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1478">
+        <v>47</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1478" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>44</v>
+      </c>
+      <c r="B1479">
+        <v>1879</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1479">
+        <v>47</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1479" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>44</v>
+      </c>
+      <c r="B1480">
+        <v>1879</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1480">
+        <v>47</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1480" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>44</v>
+      </c>
+      <c r="B1481">
+        <v>1879</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1481">
+        <v>47</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1481" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>44</v>
+      </c>
+      <c r="B1482">
+        <v>1879</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1482">
+        <v>47</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1482" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>44</v>
+      </c>
+      <c r="B1483">
+        <v>1879</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1483">
+        <v>47</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1483" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>44</v>
+      </c>
+      <c r="B1484">
+        <v>1879</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1484">
+        <v>47</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1484" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>44</v>
+      </c>
+      <c r="B1485">
+        <v>1879</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1485">
+        <v>47</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1485" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>44</v>
+      </c>
+      <c r="B1486">
+        <v>1879</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1486">
+        <v>47</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1486" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>44</v>
+      </c>
+      <c r="B1487">
+        <v>1879</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1487">
+        <v>47</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1487" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>44</v>
+      </c>
+      <c r="B1488">
+        <v>1879</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1488">
+        <v>47</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1488" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>44</v>
+      </c>
+      <c r="B1489">
+        <v>1879</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1489">
+        <v>47</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1489" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>44</v>
+      </c>
+      <c r="B1490">
+        <v>1879</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1490">
+        <v>47</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1490" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>44</v>
+      </c>
+      <c r="B1491">
+        <v>1879</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1491">
+        <v>47</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1491" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>44</v>
+      </c>
+      <c r="B1492">
+        <v>1879</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1492">
+        <v>47</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1492" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>44</v>
+      </c>
+      <c r="B1493">
+        <v>1879</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1493">
+        <v>47</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1493" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>44</v>
+      </c>
+      <c r="B1494">
+        <v>1879</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1494">
+        <v>47</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1494" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>44</v>
+      </c>
+      <c r="B1495">
+        <v>1879</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1495">
+        <v>47</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>44</v>
+      </c>
+      <c r="B1496">
+        <v>1879</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1496">
+        <v>47</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1496" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>44</v>
+      </c>
+      <c r="B1497">
+        <v>1879</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1497">
+        <v>47</v>
+      </c>
+      <c r="J1497" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1497" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>44</v>
+      </c>
+      <c r="B1498">
+        <v>1879</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1498">
+        <v>47</v>
+      </c>
+      <c r="J1498" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1498" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>44</v>
+      </c>
+      <c r="B1499">
+        <v>1879</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1499">
+        <v>47</v>
+      </c>
+      <c r="J1499" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1499" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>44</v>
+      </c>
+      <c r="B1500">
+        <v>1879</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1500">
+        <v>47</v>
+      </c>
+      <c r="J1500" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1500" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1501">
+        <v>44</v>
+      </c>
+      <c r="B1501">
+        <v>1879</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1501">
+        <v>47</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1501" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1502">
+        <v>44</v>
+      </c>
+      <c r="B1502">
+        <v>1879</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1502">
+        <v>47</v>
+      </c>
+      <c r="J1502" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1502" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1503">
+        <v>44</v>
+      </c>
+      <c r="B1503">
+        <v>1879</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1503">
+        <v>47</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1503" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1504">
+        <v>44</v>
+      </c>
+      <c r="B1504">
+        <v>1879</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1504">
+        <v>47</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1504" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1505">
+        <v>44</v>
+      </c>
+      <c r="B1505">
+        <v>1879</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1505">
+        <v>47</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1505" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1506">
+        <v>44</v>
+      </c>
+      <c r="B1506">
+        <v>1879</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1506">
+        <v>47</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1506" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1507">
+        <v>44</v>
+      </c>
+      <c r="B1507">
+        <v>1879</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1507">
+        <v>47</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1508">
+        <v>44</v>
+      </c>
+      <c r="B1508">
+        <v>1879</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1508">
+        <v>47</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1508" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1509">
+        <v>44</v>
+      </c>
+      <c r="B1509">
+        <v>1879</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1509">
+        <v>47</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1509" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1510">
+        <v>44</v>
+      </c>
+      <c r="B1510">
+        <v>1879</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1510">
+        <v>47</v>
+      </c>
+      <c r="J1510" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1510" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1511">
+        <v>44</v>
+      </c>
+      <c r="B1511">
+        <v>1879</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1511">
+        <v>47</v>
+      </c>
+      <c r="J1511" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1511" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1512">
+        <v>44</v>
+      </c>
+      <c r="B1512">
+        <v>1879</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1512">
+        <v>47</v>
+      </c>
+      <c r="J1512" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1512" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1513">
+        <v>44</v>
+      </c>
+      <c r="B1513">
+        <v>1879</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1513">
+        <v>47</v>
+      </c>
+      <c r="J1513" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1513" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1514">
+        <v>44</v>
+      </c>
+      <c r="B1514">
+        <v>1879</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1514">
+        <v>47</v>
+      </c>
+      <c r="J1514" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1514" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1515">
+        <v>44</v>
+      </c>
+      <c r="B1515">
+        <v>1879</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1515">
+        <v>47</v>
+      </c>
+      <c r="J1515" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1515" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1516">
+        <v>44</v>
+      </c>
+      <c r="B1516">
+        <v>1879</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1516">
+        <v>47</v>
+      </c>
+      <c r="J1516" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1516" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1517">
+        <v>44</v>
+      </c>
+      <c r="B1517">
+        <v>1879</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1517">
+        <v>47</v>
+      </c>
+      <c r="J1517" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1517" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1518">
+        <v>44</v>
+      </c>
+      <c r="B1518">
+        <v>1879</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1518">
+        <v>47</v>
+      </c>
+      <c r="J1518" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1518" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1519">
+        <v>44</v>
+      </c>
+      <c r="B1519">
+        <v>1879</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1519">
+        <v>47</v>
+      </c>
+      <c r="J1519" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1519" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1520">
+        <v>44</v>
+      </c>
+      <c r="B1520">
+        <v>1879</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1520">
+        <v>47</v>
+      </c>
+      <c r="J1520" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1520" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1521">
+        <v>44</v>
+      </c>
+      <c r="B1521">
+        <v>1879</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1521">
+        <v>47</v>
+      </c>
+      <c r="J1521" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1521" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1522">
+        <v>44</v>
+      </c>
+      <c r="B1522">
+        <v>1879</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1522">
+        <v>47</v>
+      </c>
+      <c r="J1522" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1522" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1523">
+        <v>44</v>
+      </c>
+      <c r="B1523">
+        <v>1879</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1523">
+        <v>47</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1523" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>44</v>
+      </c>
+      <c r="B1524">
+        <v>1879</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1524">
+        <v>47</v>
+      </c>
+      <c r="J1524" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1524" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>43</v>
+      </c>
+      <c r="B1525">
+        <v>1879</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1525">
+        <v>47</v>
+      </c>
+      <c r="J1525" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1525" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>43</v>
+      </c>
+      <c r="B1526">
+        <v>1879</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1526">
+        <v>47</v>
+      </c>
+      <c r="J1526" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1526" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>43</v>
+      </c>
+      <c r="B1527">
+        <v>1879</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1527">
+        <v>47</v>
+      </c>
+      <c r="J1527" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1527" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>43</v>
+      </c>
+      <c r="B1528">
+        <v>1879</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1528">
+        <v>47</v>
+      </c>
+      <c r="J1528" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1528" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>43</v>
+      </c>
+      <c r="B1529">
+        <v>1879</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1529">
+        <v>47</v>
+      </c>
+      <c r="J1529" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1529" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>43</v>
+      </c>
+      <c r="B1530">
+        <v>1879</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1530">
+        <v>47</v>
+      </c>
+      <c r="J1530" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1530" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>43</v>
+      </c>
+      <c r="B1531">
+        <v>1879</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1531">
+        <v>47</v>
+      </c>
+      <c r="J1531" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1531" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1532">
+        <v>43</v>
+      </c>
+      <c r="B1532">
+        <v>1879</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1532">
+        <v>47</v>
+      </c>
+      <c r="J1532" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1532" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>43</v>
+      </c>
+      <c r="B1533">
+        <v>1879</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1533">
+        <v>47</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1533" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1534">
+        <v>43</v>
+      </c>
+      <c r="B1534">
+        <v>1879</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1534">
+        <v>47</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1534" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>43</v>
+      </c>
+      <c r="B1535">
+        <v>1879</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1535">
+        <v>47</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1535" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1536">
+        <v>43</v>
+      </c>
+      <c r="B1536">
+        <v>1879</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1536">
+        <v>47</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1536" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>43</v>
+      </c>
+      <c r="B1537">
+        <v>1879</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1537">
+        <v>47</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1537" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1538">
+        <v>43</v>
+      </c>
+      <c r="B1538">
+        <v>1879</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1538">
+        <v>47</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1538" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>43</v>
+      </c>
+      <c r="B1539">
+        <v>1879</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1539">
+        <v>47</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1539" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1540">
+        <v>43</v>
+      </c>
+      <c r="B1540">
+        <v>1879</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1540">
+        <v>47</v>
+      </c>
+      <c r="J1540" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1540" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1541">
+        <v>43</v>
+      </c>
+      <c r="B1541">
+        <v>1879</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1541">
+        <v>47</v>
+      </c>
+      <c r="J1541" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1541" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1542">
+        <v>43</v>
+      </c>
+      <c r="B1542">
+        <v>1879</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1542">
+        <v>47</v>
+      </c>
+      <c r="J1542" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1542" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1543">
+        <v>43</v>
+      </c>
+      <c r="B1543">
+        <v>1879</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1543">
+        <v>47</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1543" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1544">
+        <v>43</v>
+      </c>
+      <c r="B1544">
+        <v>1879</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1544">
+        <v>47</v>
+      </c>
+      <c r="J1544" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1544" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1545">
+        <v>43</v>
+      </c>
+      <c r="B1545">
+        <v>1879</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1545">
+        <v>47</v>
+      </c>
+      <c r="J1545" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1545" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1546">
+        <v>43</v>
+      </c>
+      <c r="B1546">
+        <v>1879</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1546">
+        <v>47</v>
+      </c>
+      <c r="J1546" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1546" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1547">
+        <v>43</v>
+      </c>
+      <c r="B1547">
+        <v>1879</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1547">
+        <v>47</v>
+      </c>
+      <c r="J1547" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1547" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1548">
+        <v>43</v>
+      </c>
+      <c r="B1548">
+        <v>1879</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1548">
+        <v>47</v>
+      </c>
+      <c r="J1548" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1548" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1549">
+        <v>43</v>
+      </c>
+      <c r="B1549">
+        <v>1879</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1549">
+        <v>47</v>
+      </c>
+      <c r="J1549" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1549" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1550">
+        <v>43</v>
+      </c>
+      <c r="B1550">
+        <v>1879</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1550">
+        <v>47</v>
+      </c>
+      <c r="J1550" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1550" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1551">
+        <v>43</v>
+      </c>
+      <c r="B1551">
+        <v>1879</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1551">
+        <v>47</v>
+      </c>
+      <c r="J1551" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1551" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1552">
+        <v>43</v>
+      </c>
+      <c r="B1552">
+        <v>1879</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1552">
+        <v>47</v>
+      </c>
+      <c r="J1552" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1552" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1553">
+        <v>43</v>
+      </c>
+      <c r="B1553">
+        <v>1879</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1553" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1553">
+        <v>47</v>
+      </c>
+      <c r="J1553" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1553" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1554">
+        <v>43</v>
+      </c>
+      <c r="B1554">
+        <v>1879</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1554">
+        <v>47</v>
+      </c>
+      <c r="J1554" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1554" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1555">
+        <v>43</v>
+      </c>
+      <c r="B1555">
+        <v>1879</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1555">
+        <v>47</v>
+      </c>
+      <c r="J1555" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1555" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1556">
+        <v>43</v>
+      </c>
+      <c r="B1556">
+        <v>1879</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1556">
+        <v>47</v>
+      </c>
+      <c r="J1556" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1556" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1557">
+        <v>43</v>
+      </c>
+      <c r="B1557">
+        <v>1879</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1557">
+        <v>47</v>
+      </c>
+      <c r="J1557" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1557" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1558">
+        <v>43</v>
+      </c>
+      <c r="B1558">
+        <v>1879</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1558">
+        <v>47</v>
+      </c>
+      <c r="J1558" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1558" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1559">
+        <v>43</v>
+      </c>
+      <c r="B1559">
+        <v>1879</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1559">
+        <v>47</v>
+      </c>
+      <c r="J1559" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1559" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1560">
+        <v>43</v>
+      </c>
+      <c r="B1560">
+        <v>1879</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1560">
+        <v>47</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1560" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1561">
+        <v>43</v>
+      </c>
+      <c r="B1561">
+        <v>1879</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1561">
+        <v>47</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1561" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1562">
+        <v>43</v>
+      </c>
+      <c r="B1562">
+        <v>1879</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1562">
+        <v>47</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1562" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1563">
+        <v>43</v>
+      </c>
+      <c r="B1563">
+        <v>1879</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1563">
+        <v>47</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1563" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1564">
+        <v>43</v>
+      </c>
+      <c r="B1564">
+        <v>1879</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1564">
+        <v>47</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1564" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1565">
+        <v>43</v>
+      </c>
+      <c r="B1565">
+        <v>1879</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1565" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1565">
+        <v>47</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1565" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1566">
+        <v>43</v>
+      </c>
+      <c r="B1566">
+        <v>1879</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1566">
+        <v>47</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1566" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1567">
+        <v>43</v>
+      </c>
+      <c r="B1567">
+        <v>1879</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1567">
+        <v>47</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1567" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1568">
+        <v>43</v>
+      </c>
+      <c r="B1568">
+        <v>1879</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1568" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1568">
+        <v>47</v>
+      </c>
+      <c r="J1568" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1569">
+        <v>43</v>
+      </c>
+      <c r="B1569">
+        <v>1879</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1569" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1569">
+        <v>47</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1569" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1570">
+        <v>43</v>
+      </c>
+      <c r="B1570">
+        <v>1879</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1570">
+        <v>47</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1571">
+        <v>43</v>
+      </c>
+      <c r="B1571">
+        <v>1879</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1571">
+        <v>47</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1571" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1572">
+        <v>43</v>
+      </c>
+      <c r="B1572">
+        <v>1879</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1572">
+        <v>47</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1572" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1573">
+        <v>43</v>
+      </c>
+      <c r="B1573">
+        <v>1879</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1573" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1573">
+        <v>47</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1573" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1574">
+        <v>43</v>
+      </c>
+      <c r="B1574">
+        <v>1879</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1574">
+        <v>47</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1575">
+        <v>43</v>
+      </c>
+      <c r="B1575">
+        <v>1879</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1575">
+        <v>47</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1575" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1576">
+        <v>43</v>
+      </c>
+      <c r="B1576">
+        <v>1879</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1576">
+        <v>47</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1577">
+        <v>43</v>
+      </c>
+      <c r="B1577">
+        <v>1879</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1577">
+        <v>47</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1577" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1578">
+        <v>43</v>
+      </c>
+      <c r="B1578">
+        <v>1879</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1578">
+        <v>47</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1579">
+        <v>43</v>
+      </c>
+      <c r="B1579">
+        <v>1879</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1579">
+        <v>47</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1579" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1580">
+        <v>43</v>
+      </c>
+      <c r="B1580">
+        <v>1879</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1580">
+        <v>47</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>43</v>
+      </c>
+      <c r="B1581">
+        <v>1879</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1581" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1581">
+        <v>47</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1581" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>43</v>
+      </c>
+      <c r="B1582">
+        <v>1879</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1582">
+        <v>47</v>
+      </c>
+      <c r="J1582" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1582" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>43</v>
+      </c>
+      <c r="B1583">
+        <v>1879</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1583" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1583">
+        <v>47</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1583" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>43</v>
+      </c>
+      <c r="B1584">
+        <v>1879</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1584" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1584">
+        <v>47</v>
+      </c>
+      <c r="J1584" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1584" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>43</v>
+      </c>
+      <c r="B1585">
+        <v>1879</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1585" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1585">
+        <v>47</v>
+      </c>
+      <c r="J1585" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1585" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>43</v>
+      </c>
+      <c r="B1586">
+        <v>1879</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1586" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1586">
+        <v>47</v>
+      </c>
+      <c r="J1586" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1586" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>43</v>
+      </c>
+      <c r="B1587">
+        <v>1879</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1587">
+        <v>47</v>
+      </c>
+      <c r="J1587" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1587" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>43</v>
+      </c>
+      <c r="B1588">
+        <v>1879</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1588">
+        <v>47</v>
+      </c>
+      <c r="J1588" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1588" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>43</v>
+      </c>
+      <c r="B1589">
+        <v>1879</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1589">
+        <v>47</v>
+      </c>
+      <c r="J1589" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1589" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>43</v>
+      </c>
+      <c r="B1590">
+        <v>1879</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1590">
+        <v>47</v>
+      </c>
+      <c r="J1590" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1590" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>43</v>
+      </c>
+      <c r="B1591">
+        <v>1879</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1591">
+        <v>47</v>
+      </c>
+      <c r="J1591" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1591" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>43</v>
+      </c>
+      <c r="B1592">
+        <v>1879</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1592">
+        <v>47</v>
+      </c>
+      <c r="J1592" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1592" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>43</v>
+      </c>
+      <c r="B1593">
+        <v>1879</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1593">
+        <v>47</v>
+      </c>
+      <c r="J1593" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1593" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>43</v>
+      </c>
+      <c r="B1594">
+        <v>1879</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1594">
+        <v>47</v>
+      </c>
+      <c r="J1594" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1594" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>43</v>
+      </c>
+      <c r="B1595">
+        <v>1879</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1595">
+        <v>47</v>
+      </c>
+      <c r="J1595" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1595" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>43</v>
+      </c>
+      <c r="B1596">
+        <v>1879</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1596" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1596" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1596">
+        <v>47</v>
+      </c>
+      <c r="J1596" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1596" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>43</v>
+      </c>
+      <c r="B1597">
+        <v>1879</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1597" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1597">
+        <v>47</v>
+      </c>
+      <c r="J1597" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1597" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>43</v>
+      </c>
+      <c r="B1598">
+        <v>1879</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F1598" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1598">
+        <v>47</v>
+      </c>
+      <c r="J1598" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1598" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>43</v>
+      </c>
+      <c r="B1599">
+        <v>1879</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1599">
+        <v>47</v>
+      </c>
+      <c r="J1599" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1599" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>43</v>
+      </c>
+      <c r="B1600">
+        <v>1879</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1600">
+        <v>47</v>
+      </c>
+      <c r="J1600" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1600" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>43</v>
+      </c>
+      <c r="B1601">
+        <v>1879</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1601">
+        <v>47</v>
+      </c>
+      <c r="J1601" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1601" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>43</v>
+      </c>
+      <c r="B1602">
+        <v>1879</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F1602" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1602" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1602">
+        <v>47</v>
+      </c>
+      <c r="J1602" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1602" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>43</v>
+      </c>
+      <c r="B1603">
+        <v>1879</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1603">
+        <v>47</v>
+      </c>
+      <c r="J1603" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1603" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>43</v>
+      </c>
+      <c r="B1604">
+        <v>1879</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1604" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1604">
+        <v>47</v>
+      </c>
+      <c r="J1604" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1604" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>43</v>
+      </c>
+      <c r="B1605">
+        <v>1879</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1605" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1605">
+        <v>47</v>
+      </c>
+      <c r="J1605" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1605" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>43</v>
+      </c>
+      <c r="B1606">
+        <v>1879</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1606" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1606" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1606">
+        <v>47</v>
+      </c>
+      <c r="J1606" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1606" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>43</v>
+      </c>
+      <c r="B1607">
+        <v>1879</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1607">
+        <v>47</v>
+      </c>
+      <c r="J1607" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1607" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>43</v>
+      </c>
+      <c r="B1608">
+        <v>1879</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1608">
+        <v>47</v>
+      </c>
+      <c r="J1608" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1608" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>43</v>
+      </c>
+      <c r="B1609">
+        <v>1879</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F1609" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1609">
+        <v>47</v>
+      </c>
+      <c r="J1609" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1609" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>43</v>
+      </c>
+      <c r="B1610">
+        <v>1879</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1610">
+        <v>47</v>
+      </c>
+      <c r="J1610" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1610" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>43</v>
+      </c>
+      <c r="B1611">
+        <v>1879</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1611" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1611">
+        <v>47</v>
+      </c>
+      <c r="J1611" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1611" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>43</v>
+      </c>
+      <c r="B1612">
+        <v>1879</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1612">
+        <v>47</v>
+      </c>
+      <c r="J1612" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1612" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>43</v>
+      </c>
+      <c r="B1613">
+        <v>1879</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1613">
+        <v>47</v>
+      </c>
+      <c r="J1613" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1613" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>43</v>
+      </c>
+      <c r="B1614">
+        <v>1879</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1614">
+        <v>47</v>
+      </c>
+      <c r="J1614" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1614" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>42</v>
+      </c>
+      <c r="B1615">
+        <v>1879</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1615">
+        <v>47</v>
+      </c>
+      <c r="J1615" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1615" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>42</v>
+      </c>
+      <c r="B1616">
+        <v>1879</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1616">
+        <v>47</v>
+      </c>
+      <c r="J1616" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1616" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>42</v>
+      </c>
+      <c r="B1617">
+        <v>1879</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1617" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1617">
+        <v>47</v>
+      </c>
+      <c r="J1617" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1617" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>42</v>
+      </c>
+      <c r="B1618">
+        <v>1879</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1618" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1618">
+        <v>47</v>
+      </c>
+      <c r="J1618" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1618" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>42</v>
+      </c>
+      <c r="B1619">
+        <v>1879</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1619" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1619">
+        <v>47</v>
+      </c>
+      <c r="J1619" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1619" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>42</v>
+      </c>
+      <c r="B1620">
+        <v>1879</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1620" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1620" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1620">
+        <v>47</v>
+      </c>
+      <c r="J1620" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1620" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>42</v>
+      </c>
+      <c r="B1621">
+        <v>1879</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1621" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1621">
+        <v>47</v>
+      </c>
+      <c r="J1621" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1621" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>42</v>
+      </c>
+      <c r="B1622">
+        <v>1879</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1622" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1622">
+        <v>47</v>
+      </c>
+      <c r="J1622" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1622" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>42</v>
+      </c>
+      <c r="B1623">
+        <v>1879</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1623" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1623">
+        <v>47</v>
+      </c>
+      <c r="J1623" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1623" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>42</v>
+      </c>
+      <c r="B1624">
+        <v>1879</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1624">
+        <v>47</v>
+      </c>
+      <c r="J1624" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1624" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>42</v>
+      </c>
+      <c r="B1625">
+        <v>1879</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1625">
+        <v>47</v>
+      </c>
+      <c r="J1625" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1625" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>42</v>
+      </c>
+      <c r="B1626">
+        <v>1879</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1626" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1626" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1626">
+        <v>47</v>
+      </c>
+      <c r="J1626" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1626" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>42</v>
+      </c>
+      <c r="B1627">
+        <v>1879</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1627" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1627">
+        <v>47</v>
+      </c>
+      <c r="J1627" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1627" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>42</v>
+      </c>
+      <c r="B1628">
+        <v>1879</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1628" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1628">
+        <v>47</v>
+      </c>
+      <c r="J1628" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1628" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>42</v>
+      </c>
+      <c r="B1629">
+        <v>1879</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1629" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1629">
+        <v>47</v>
+      </c>
+      <c r="J1629" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1629" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>42</v>
+      </c>
+      <c r="B1630">
+        <v>1879</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F1630" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1630">
+        <v>47</v>
+      </c>
+      <c r="J1630" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1630" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>42</v>
+      </c>
+      <c r="B1631">
+        <v>1879</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F1631" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1631" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1631">
+        <v>47</v>
+      </c>
+      <c r="J1631" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1631" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>42</v>
+      </c>
+      <c r="B1632">
+        <v>1879</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F1632" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1632" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1632">
+        <v>47</v>
+      </c>
+      <c r="J1632" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1632" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>42</v>
+      </c>
+      <c r="B1633">
+        <v>1879</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F1633" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1633" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1633">
+        <v>47</v>
+      </c>
+      <c r="J1633" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>42</v>
+      </c>
+      <c r="B1634">
+        <v>1879</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F1634" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1634" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1634">
+        <v>47</v>
+      </c>
+      <c r="J1634" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1634" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>42</v>
+      </c>
+      <c r="B1635">
+        <v>1879</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F1635" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1635" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1635">
+        <v>47</v>
+      </c>
+      <c r="J1635" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1635" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>42</v>
+      </c>
+      <c r="B1636">
+        <v>1879</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F1636" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1636" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1636">
+        <v>47</v>
+      </c>
+      <c r="J1636" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1636" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>42</v>
+      </c>
+      <c r="B1637">
+        <v>1879</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F1637" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1637" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1637" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1637">
+        <v>47</v>
+      </c>
+      <c r="J1637" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1637" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>42</v>
+      </c>
+      <c r="B1638">
+        <v>1879</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F1638" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1638">
+        <v>47</v>
+      </c>
+      <c r="J1638" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1638" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>42</v>
+      </c>
+      <c r="B1639">
+        <v>1879</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F1639" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1639">
+        <v>47</v>
+      </c>
+      <c r="J1639" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1639" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1640">
+        <v>42</v>
+      </c>
+      <c r="B1640">
+        <v>1879</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F1640" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1640" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1640" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1640">
+        <v>47</v>
+      </c>
+      <c r="J1640" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1640" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1641">
+        <v>42</v>
+      </c>
+      <c r="B1641">
+        <v>1879</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F1641" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1641" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1641" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1641">
+        <v>47</v>
+      </c>
+      <c r="J1641" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1641" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1642">
+        <v>42</v>
+      </c>
+      <c r="B1642">
+        <v>1879</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F1642" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1642" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1642">
+        <v>47</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1642" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1643">
+        <v>42</v>
+      </c>
+      <c r="B1643">
+        <v>1879</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F1643" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1643" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1643">
+        <v>47</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1643" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1644">
+        <v>42</v>
+      </c>
+      <c r="B1644">
+        <v>1879</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F1644" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1644" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1644" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1644">
+        <v>47</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1644" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1645">
+        <v>42</v>
+      </c>
+      <c r="B1645">
+        <v>1879</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1645">
+        <v>47</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1645" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1646">
+        <v>42</v>
+      </c>
+      <c r="B1646">
+        <v>1879</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F1646" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1646" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1646" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1646">
+        <v>47</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1646" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1647">
+        <v>42</v>
+      </c>
+      <c r="B1647">
+        <v>1879</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F1647" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1647" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1647" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1647">
+        <v>47</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1647" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1648">
+        <v>42</v>
+      </c>
+      <c r="B1648">
+        <v>1879</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F1648" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1648" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1648">
+        <v>47</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1648" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1649">
+        <v>42</v>
+      </c>
+      <c r="B1649">
+        <v>1879</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F1649" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1649">
+        <v>47</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1649" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1650">
+        <v>42</v>
+      </c>
+      <c r="B1650">
+        <v>1879</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F1650" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1650">
+        <v>47</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1650" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1651">
+        <v>42</v>
+      </c>
+      <c r="B1651">
+        <v>1879</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F1651" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1651" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1651">
+        <v>47</v>
+      </c>
+      <c r="J1651" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1651" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>42</v>
+      </c>
+      <c r="B1652">
+        <v>1879</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1652" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1652">
+        <v>47</v>
+      </c>
+      <c r="J1652" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1652" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>42</v>
+      </c>
+      <c r="B1653">
+        <v>1879</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F1653" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1653" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1653" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1653">
+        <v>47</v>
+      </c>
+      <c r="J1653" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1653" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>42</v>
+      </c>
+      <c r="B1654">
+        <v>1879</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F1654" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1654" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1654">
+        <v>47</v>
+      </c>
+      <c r="J1654" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1654" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>42</v>
+      </c>
+      <c r="B1655">
+        <v>1879</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F1655" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1655" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1655" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1655">
+        <v>47</v>
+      </c>
+      <c r="J1655" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1655" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <v>42</v>
+      </c>
+      <c r="B1656">
+        <v>1879</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F1656" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1656" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1656" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1656">
+        <v>47</v>
+      </c>
+      <c r="J1656" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1656" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <v>42</v>
+      </c>
+      <c r="B1657">
+        <v>1879</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F1657" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1657">
+        <v>47</v>
+      </c>
+      <c r="J1657" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1657" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <v>42</v>
+      </c>
+      <c r="B1658">
+        <v>1879</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F1658" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1658" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1658">
+        <v>47</v>
+      </c>
+      <c r="J1658" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1658" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1659">
+        <v>42</v>
+      </c>
+      <c r="B1659">
+        <v>1879</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F1659" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1659">
+        <v>47</v>
+      </c>
+      <c r="J1659" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1659" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1660">
+        <v>42</v>
+      </c>
+      <c r="B1660">
+        <v>1879</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1660" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1660" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1660">
+        <v>47</v>
+      </c>
+      <c r="J1660" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1660" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1661">
+        <v>42</v>
+      </c>
+      <c r="B1661">
+        <v>1879</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1661" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1661">
+        <v>47</v>
+      </c>
+      <c r="J1661" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1661" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1662">
+        <v>42</v>
+      </c>
+      <c r="B1662">
+        <v>1879</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F1662" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1662" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1662">
+        <v>47</v>
+      </c>
+      <c r="J1662" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1662" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1663">
+        <v>42</v>
+      </c>
+      <c r="B1663">
+        <v>1879</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F1663" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1663" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1663">
+        <v>47</v>
+      </c>
+      <c r="J1663" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1663" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1664">
+        <v>42</v>
+      </c>
+      <c r="B1664">
+        <v>1879</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F1664" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1664">
+        <v>47</v>
+      </c>
+      <c r="J1664" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1664" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>42</v>
+      </c>
+      <c r="B1665">
+        <v>1879</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F1665" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1665" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1665">
+        <v>47</v>
+      </c>
+      <c r="J1665" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1665" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>42</v>
+      </c>
+      <c r="B1666">
+        <v>1879</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F1666" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1666" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1666">
+        <v>47</v>
+      </c>
+      <c r="J1666" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1666" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>42</v>
+      </c>
+      <c r="B1667">
+        <v>1879</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F1667" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1667" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1667" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1667">
+        <v>47</v>
+      </c>
+      <c r="J1667" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1667" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>42</v>
+      </c>
+      <c r="B1668">
+        <v>1879</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F1668" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1668" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1668" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1668">
+        <v>47</v>
+      </c>
+      <c r="J1668" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1668" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1669">
+        <v>42</v>
+      </c>
+      <c r="B1669">
+        <v>1879</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F1669" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1669" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1669" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1669">
+        <v>47</v>
+      </c>
+      <c r="J1669" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1669" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1670">
+        <v>42</v>
+      </c>
+      <c r="B1670">
+        <v>1879</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F1670" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1670" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1670" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1670">
+        <v>47</v>
+      </c>
+      <c r="J1670" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1670" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1671">
+        <v>42</v>
+      </c>
+      <c r="B1671">
+        <v>1879</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F1671" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1671" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1671" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1671">
+        <v>47</v>
+      </c>
+      <c r="J1671" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1671" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1672">
+        <v>42</v>
+      </c>
+      <c r="B1672">
+        <v>1879</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F1672" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1672" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1672">
+        <v>47</v>
+      </c>
+      <c r="J1672" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1672" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1673">
+        <v>42</v>
+      </c>
+      <c r="B1673">
+        <v>1879</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F1673" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1673" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1673">
+        <v>47</v>
+      </c>
+      <c r="J1673" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1673" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1674">
+        <v>42</v>
+      </c>
+      <c r="B1674">
+        <v>1879</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F1674" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1674" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1674" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1674">
+        <v>47</v>
+      </c>
+      <c r="J1674" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1674" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1675">
+        <v>42</v>
+      </c>
+      <c r="B1675">
+        <v>1879</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F1675" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1675" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1675" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1675">
+        <v>47</v>
+      </c>
+      <c r="J1675" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1675" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1676">
+        <v>42</v>
+      </c>
+      <c r="B1676">
+        <v>1879</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F1676" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1676" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1676" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1676">
+        <v>47</v>
+      </c>
+      <c r="J1676" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1676" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1677">
+        <v>42</v>
+      </c>
+      <c r="B1677">
+        <v>1879</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1677" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1677" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1677" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1677">
+        <v>47</v>
+      </c>
+      <c r="J1677" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1677" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>42</v>
+      </c>
+      <c r="B1678">
+        <v>1879</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F1678" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1678" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1678" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1678">
+        <v>47</v>
+      </c>
+      <c r="J1678" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1678" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>42</v>
+      </c>
+      <c r="B1679">
+        <v>1879</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1679" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1679" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1679" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1679">
+        <v>47</v>
+      </c>
+      <c r="J1679" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1679" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>42</v>
+      </c>
+      <c r="B1680">
+        <v>1879</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F1680" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1680" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1680" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1680">
+        <v>47</v>
+      </c>
+      <c r="J1680" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1680" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>42</v>
+      </c>
+      <c r="B1681">
+        <v>1879</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1681" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1681" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1681" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1681">
+        <v>47</v>
+      </c>
+      <c r="J1681" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1681" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>42</v>
+      </c>
+      <c r="B1682">
+        <v>1879</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1682" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1682" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1682">
+        <v>47</v>
+      </c>
+      <c r="J1682" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1682" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>42</v>
+      </c>
+      <c r="B1683">
+        <v>1879</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1683" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1683" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1683">
+        <v>47</v>
+      </c>
+      <c r="J1683" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1683" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>42</v>
+      </c>
+      <c r="B1684">
+        <v>1879</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F1684" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1684" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1684" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1684">
+        <v>47</v>
+      </c>
+      <c r="J1684" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1684" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>42</v>
+      </c>
+      <c r="B1685">
+        <v>1879</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F1685" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1685" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1685" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1685">
+        <v>47</v>
+      </c>
+      <c r="J1685" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1685" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>42</v>
+      </c>
+      <c r="B1686">
+        <v>1879</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F1686" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1686" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1686" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1686">
+        <v>47</v>
+      </c>
+      <c r="J1686" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1686" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>42</v>
+      </c>
+      <c r="B1687">
+        <v>1879</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F1687" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1687" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1687" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1687">
+        <v>47</v>
+      </c>
+      <c r="J1687" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1687" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>42</v>
+      </c>
+      <c r="B1688">
+        <v>1879</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F1688" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1688" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1688" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1688">
+        <v>47</v>
+      </c>
+      <c r="J1688" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1688" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>42</v>
+      </c>
+      <c r="B1689">
+        <v>1879</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1689" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1689" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1689">
+        <v>47</v>
+      </c>
+      <c r="J1689" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1689" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>42</v>
+      </c>
+      <c r="B1690">
+        <v>1879</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F1690" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1690" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1690" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1690">
+        <v>47</v>
+      </c>
+      <c r="J1690" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1690" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>42</v>
+      </c>
+      <c r="B1691">
+        <v>1879</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F1691" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1691" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1691" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1691">
+        <v>47</v>
+      </c>
+      <c r="J1691" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1691" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>42</v>
+      </c>
+      <c r="B1692">
+        <v>1879</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1692" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1692" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1692">
+        <v>47</v>
+      </c>
+      <c r="J1692" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1692" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>42</v>
+      </c>
+      <c r="B1693">
+        <v>1879</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1693" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1693" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1693">
+        <v>47</v>
+      </c>
+      <c r="J1693" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1693" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>42</v>
+      </c>
+      <c r="B1694">
+        <v>1879</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1694" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1694" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1694">
+        <v>47</v>
+      </c>
+      <c r="J1694" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1694" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>42</v>
+      </c>
+      <c r="B1695">
+        <v>1879</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1695" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1695" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1695">
+        <v>47</v>
+      </c>
+      <c r="J1695" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1695" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>42</v>
+      </c>
+      <c r="B1696">
+        <v>1879</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F1696" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1696" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1696" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1696">
+        <v>47</v>
+      </c>
+      <c r="J1696" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1696" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Confirmacions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E74A3F-3EBE-4EAC-B48B-398A0740FD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD2F32D-A293-4CAB-ADB7-11EF87172BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEEAE0F-87B7-4CFD-9217-CD5D622A9875}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8438" uniqueCount="1710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="1781">
   <si>
     <t>Cognons</t>
   </si>
@@ -5170,6 +5170,219 @@
   </si>
   <si>
     <t>Fabregat Miquel Dolors</t>
+  </si>
+  <si>
+    <t>Solé Ginestà Sebastià</t>
+  </si>
+  <si>
+    <t>Ginestà Gilabert Marceli</t>
+  </si>
+  <si>
+    <t>Sisteró Palomés Ramon</t>
+  </si>
+  <si>
+    <t>Batlle Brescó Josep</t>
+  </si>
+  <si>
+    <t>Torrent Lamarca Sebastià</t>
+  </si>
+  <si>
+    <t>Roca Camrubí Jaume</t>
+  </si>
+  <si>
+    <t>Escolà Pascual Josep</t>
+  </si>
+  <si>
+    <t>Roig Mas Francisco</t>
+  </si>
+  <si>
+    <t>Martí Palou Ramon</t>
+  </si>
+  <si>
+    <t>Pujades Valls Jaume</t>
+  </si>
+  <si>
+    <t>Falcó Oró Joan</t>
+  </si>
+  <si>
+    <t>Balcells Huguet Josep Antoni</t>
+  </si>
+  <si>
+    <t>Salles Coll Francisco</t>
+  </si>
+  <si>
+    <t>Trepat Ginestà Ramon</t>
+  </si>
+  <si>
+    <t>Cistró Falcó Ramon</t>
+  </si>
+  <si>
+    <t>Coca Palou Francisco</t>
+  </si>
+  <si>
+    <t>Mosset Mas Jaume</t>
+  </si>
+  <si>
+    <t>Majoral Pallerola Josep</t>
+  </si>
+  <si>
+    <t>Pedrós Sunyé Antoni</t>
+  </si>
+  <si>
+    <t>Roca Camrubí Francisco</t>
+  </si>
+  <si>
+    <t>Duart Costafreda Joan</t>
+  </si>
+  <si>
+    <t>Duart Costafreda Josep</t>
+  </si>
+  <si>
+    <t>Vallés Roig Francisco</t>
+  </si>
+  <si>
+    <t>Escolà Formiguera Jaume</t>
+  </si>
+  <si>
+    <t>Roma Giné Ramon</t>
+  </si>
+  <si>
+    <t>Colell Pedrós Antoni</t>
+  </si>
+  <si>
+    <t>Martí Piera Silbestre</t>
+  </si>
+  <si>
+    <t>Pedra Vallés Fernando</t>
+  </si>
+  <si>
+    <t>Planes Fabregat Pau</t>
+  </si>
+  <si>
+    <t>Majoral Pallerola Manuel</t>
+  </si>
+  <si>
+    <t>Formiguera Coll Ramon</t>
+  </si>
+  <si>
+    <t>Vergé Mases Salvador</t>
+  </si>
+  <si>
+    <t>Serra Escolà Sacarias</t>
+  </si>
+  <si>
+    <t>Pedrós Morera Ignasi</t>
+  </si>
+  <si>
+    <t>Ginestà Giné Francisco</t>
+  </si>
+  <si>
+    <t>Vilamajó Duart Felip</t>
+  </si>
+  <si>
+    <t>Pedrós Prats Francisco</t>
+  </si>
+  <si>
+    <t>Pedrós Solsona Joan</t>
+  </si>
+  <si>
+    <t>Serra Escolà Antoni</t>
+  </si>
+  <si>
+    <t>Camarasa Balcells Josep</t>
+  </si>
+  <si>
+    <t>Aldomà Brescó Josep</t>
+  </si>
+  <si>
+    <t>Giné Salles Francisco</t>
+  </si>
+  <si>
+    <t>Pallerola Bondia Josep</t>
+  </si>
+  <si>
+    <t>Cercós Sunyé Pere Jaume</t>
+  </si>
+  <si>
+    <t>Formiguera Novell Joan</t>
+  </si>
+  <si>
+    <t>Fabregat Mosset Bautista</t>
+  </si>
+  <si>
+    <t>Coll Mata Domingo</t>
+  </si>
+  <si>
+    <t>Figuera Sunyé Esteve</t>
+  </si>
+  <si>
+    <t>Gispert Regtós  Jaume</t>
+  </si>
+  <si>
+    <t>Jové Carbonell Josep</t>
+  </si>
+  <si>
+    <t>Jové Carbonell Francisco</t>
+  </si>
+  <si>
+    <t>Planes Pujol Ramon</t>
+  </si>
+  <si>
+    <t>Planes Fabregat Josep</t>
+  </si>
+  <si>
+    <t>Pedrós Pujades Andreu</t>
+  </si>
+  <si>
+    <t>Martí Piera Josep</t>
+  </si>
+  <si>
+    <t>Pedrós Bresolí Antoni Ramon</t>
+  </si>
+  <si>
+    <t>Mosset Farré Antoni</t>
+  </si>
+  <si>
+    <t>Querol Casals Melinton</t>
+  </si>
+  <si>
+    <t>Miquel Querol</t>
+  </si>
+  <si>
+    <t>Maria Casals</t>
+  </si>
+  <si>
+    <t>Coll Giné Josep</t>
+  </si>
+  <si>
+    <t>Colell Pedrós Francisco</t>
+  </si>
+  <si>
+    <t>Mas Vergé Pau</t>
+  </si>
+  <si>
+    <t>Vilaplana Pallerola Antoni</t>
+  </si>
+  <si>
+    <t>Martí Trilla Miquel</t>
+  </si>
+  <si>
+    <t>Auró Codun? Joan</t>
+  </si>
+  <si>
+    <t>Duart Colell Ignasi</t>
+  </si>
+  <si>
+    <t>Cascalló Farré Esteve</t>
+  </si>
+  <si>
+    <t>Roig Mas Maties</t>
+  </si>
+  <si>
+    <t>Druet Farré Domingo</t>
+  </si>
+  <si>
+    <t>Cascalló Farré Antoni</t>
   </si>
 </sst>
 </file>
@@ -5536,10 +5749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}">
-  <dimension ref="A1:L1696"/>
+  <dimension ref="A1:L1766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1684" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1697" sqref="A1697"/>
+    <sheetView tabSelected="1" topLeftCell="A1732" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1767" sqref="A1767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52122,6 +52335,2042 @@
         <v>12</v>
       </c>
       <c r="K1696" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>41</v>
+      </c>
+      <c r="B1697">
+        <v>1879</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1697" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1697" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1697">
+        <v>47</v>
+      </c>
+      <c r="J1697" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1697" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>41</v>
+      </c>
+      <c r="B1698">
+        <v>1879</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1698" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1698" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1698" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1698">
+        <v>47</v>
+      </c>
+      <c r="J1698" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1698" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>41</v>
+      </c>
+      <c r="B1699">
+        <v>1879</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1699" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1699" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1699" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1699">
+        <v>47</v>
+      </c>
+      <c r="J1699" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1699" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>41</v>
+      </c>
+      <c r="B1700">
+        <v>1879</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1700" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1700" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1700">
+        <v>47</v>
+      </c>
+      <c r="J1700" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1700" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>41</v>
+      </c>
+      <c r="B1701">
+        <v>1879</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1701" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1701" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1701">
+        <v>47</v>
+      </c>
+      <c r="J1701" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1701" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>41</v>
+      </c>
+      <c r="B1702">
+        <v>1879</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1702" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1702">
+        <v>47</v>
+      </c>
+      <c r="J1702" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1702" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>41</v>
+      </c>
+      <c r="B1703">
+        <v>1879</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F1703" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1703" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1703">
+        <v>47</v>
+      </c>
+      <c r="J1703" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1703" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>41</v>
+      </c>
+      <c r="B1704">
+        <v>1879</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1704" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1704" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1704">
+        <v>47</v>
+      </c>
+      <c r="J1704" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1704" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>41</v>
+      </c>
+      <c r="B1705">
+        <v>1879</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1705" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1705">
+        <v>47</v>
+      </c>
+      <c r="J1705" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1705" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>41</v>
+      </c>
+      <c r="B1706">
+        <v>1879</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1706" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1706">
+        <v>47</v>
+      </c>
+      <c r="J1706" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1706" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>41</v>
+      </c>
+      <c r="B1707">
+        <v>1879</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1707" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1707" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1707">
+        <v>47</v>
+      </c>
+      <c r="J1707" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1707" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>41</v>
+      </c>
+      <c r="B1708">
+        <v>1879</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1708" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1708" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1708" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1708">
+        <v>47</v>
+      </c>
+      <c r="J1708" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1708" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>41</v>
+      </c>
+      <c r="B1709">
+        <v>1879</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1709" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1709" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1709">
+        <v>47</v>
+      </c>
+      <c r="J1709" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1709" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>41</v>
+      </c>
+      <c r="B1710">
+        <v>1879</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1710" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1710" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1710">
+        <v>47</v>
+      </c>
+      <c r="J1710" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1710" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>41</v>
+      </c>
+      <c r="B1711">
+        <v>1879</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1711" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1711">
+        <v>47</v>
+      </c>
+      <c r="J1711" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1711" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>41</v>
+      </c>
+      <c r="B1712">
+        <v>1879</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F1712" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1712" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1712" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1712">
+        <v>47</v>
+      </c>
+      <c r="J1712" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1712" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>41</v>
+      </c>
+      <c r="B1713">
+        <v>1879</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1713" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1713" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1713">
+        <v>47</v>
+      </c>
+      <c r="J1713" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1713" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>41</v>
+      </c>
+      <c r="B1714">
+        <v>1879</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1714" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1714" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1714">
+        <v>47</v>
+      </c>
+      <c r="J1714" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1714" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>41</v>
+      </c>
+      <c r="B1715">
+        <v>1879</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1715" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1715">
+        <v>47</v>
+      </c>
+      <c r="J1715" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1715" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>41</v>
+      </c>
+      <c r="B1716">
+        <v>1879</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1716" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1716">
+        <v>47</v>
+      </c>
+      <c r="J1716" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1716" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>41</v>
+      </c>
+      <c r="B1717">
+        <v>1879</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1717" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1717">
+        <v>47</v>
+      </c>
+      <c r="J1717" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1717" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>41</v>
+      </c>
+      <c r="B1718">
+        <v>1879</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1718" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1718" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1718">
+        <v>47</v>
+      </c>
+      <c r="J1718" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1718" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>41</v>
+      </c>
+      <c r="B1719">
+        <v>1879</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1719" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1719" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1719">
+        <v>47</v>
+      </c>
+      <c r="J1719" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1719" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>41</v>
+      </c>
+      <c r="B1720">
+        <v>1879</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1720" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1720" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1720">
+        <v>47</v>
+      </c>
+      <c r="J1720" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1720" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>41</v>
+      </c>
+      <c r="B1721">
+        <v>1879</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1721" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1721" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1721">
+        <v>47</v>
+      </c>
+      <c r="J1721" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1721" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>41</v>
+      </c>
+      <c r="B1722">
+        <v>1879</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F1722" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1722" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1722" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1722">
+        <v>47</v>
+      </c>
+      <c r="J1722" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1722" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>41</v>
+      </c>
+      <c r="B1723">
+        <v>1879</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1723" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1723">
+        <v>47</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1723" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>41</v>
+      </c>
+      <c r="B1724">
+        <v>1879</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1724" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1724" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1724">
+        <v>47</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1724" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>41</v>
+      </c>
+      <c r="B1725">
+        <v>1879</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1725" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1725" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1725">
+        <v>47</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1725" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>41</v>
+      </c>
+      <c r="B1726">
+        <v>1879</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1726" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1726" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1726">
+        <v>47</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1726" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>41</v>
+      </c>
+      <c r="B1727">
+        <v>1879</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1727" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1727" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1727">
+        <v>47</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1727" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>41</v>
+      </c>
+      <c r="B1728">
+        <v>1879</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1728" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1728" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1728">
+        <v>47</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1728" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>41</v>
+      </c>
+      <c r="B1729">
+        <v>1879</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1729" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1729">
+        <v>47</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1729" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>41</v>
+      </c>
+      <c r="B1730">
+        <v>1879</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1730" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1730">
+        <v>47</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1730" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>41</v>
+      </c>
+      <c r="B1731">
+        <v>1879</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1731" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1731" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1731">
+        <v>47</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1731" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>41</v>
+      </c>
+      <c r="B1732">
+        <v>1879</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1732" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1732" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1732">
+        <v>47</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1732" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>41</v>
+      </c>
+      <c r="B1733">
+        <v>1879</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1733" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1733" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1733">
+        <v>47</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1733" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>41</v>
+      </c>
+      <c r="B1734">
+        <v>1879</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1734" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1734" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1734">
+        <v>47</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1734" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>41</v>
+      </c>
+      <c r="B1735">
+        <v>1879</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1735" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1735" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1735">
+        <v>47</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1735" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>41</v>
+      </c>
+      <c r="B1736">
+        <v>1879</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1736" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1736">
+        <v>47</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1736" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>41</v>
+      </c>
+      <c r="B1737">
+        <v>1879</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1737" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1737">
+        <v>47</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1737" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>41</v>
+      </c>
+      <c r="B1738">
+        <v>1879</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1738" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1738" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1738">
+        <v>47</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1738" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>41</v>
+      </c>
+      <c r="B1739">
+        <v>1879</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1739" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1739">
+        <v>47</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1739" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>41</v>
+      </c>
+      <c r="B1740">
+        <v>1879</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1740" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1740" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1740">
+        <v>47</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1740" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>41</v>
+      </c>
+      <c r="B1741">
+        <v>1879</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1741" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1741">
+        <v>47</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1741" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>41</v>
+      </c>
+      <c r="B1742">
+        <v>1879</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1742" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1742" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1742">
+        <v>47</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1742" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>41</v>
+      </c>
+      <c r="B1743">
+        <v>1879</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1743" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1743">
+        <v>47</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1743" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>41</v>
+      </c>
+      <c r="B1744">
+        <v>1879</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1744" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1744">
+        <v>47</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1744" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>41</v>
+      </c>
+      <c r="B1745">
+        <v>1879</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1745" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1745" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1745">
+        <v>47</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1745" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>41</v>
+      </c>
+      <c r="B1746">
+        <v>1879</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1746" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1746" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1746">
+        <v>47</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1746" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>41</v>
+      </c>
+      <c r="B1747">
+        <v>1879</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1747" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1747" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1747">
+        <v>47</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1747" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>41</v>
+      </c>
+      <c r="B1748">
+        <v>1879</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1748" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1748">
+        <v>47</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1748" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>41</v>
+      </c>
+      <c r="B1749">
+        <v>1879</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1749" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1749">
+        <v>47</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1749" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>41</v>
+      </c>
+      <c r="B1750">
+        <v>1879</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1750" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1750" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1750">
+        <v>47</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1750" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>41</v>
+      </c>
+      <c r="B1751">
+        <v>1879</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1751" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1751" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1751">
+        <v>47</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1751" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>41</v>
+      </c>
+      <c r="B1752">
+        <v>1879</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1752" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1752" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1752">
+        <v>47</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1752" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>41</v>
+      </c>
+      <c r="B1753">
+        <v>1879</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1753" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1753" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1753">
+        <v>47</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1753" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>41</v>
+      </c>
+      <c r="B1754">
+        <v>1879</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1754" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1754" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1754">
+        <v>47</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1754" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>41</v>
+      </c>
+      <c r="B1755">
+        <v>1879</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1755" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1755" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1755">
+        <v>47</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1755" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>41</v>
+      </c>
+      <c r="B1756">
+        <v>1879</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1756" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1756" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1756">
+        <v>47</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1756" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>41</v>
+      </c>
+      <c r="B1757">
+        <v>1879</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1757" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1757">
+        <v>47</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1757" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>41</v>
+      </c>
+      <c r="B1758">
+        <v>1879</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1758" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1758">
+        <v>47</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1758" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>41</v>
+      </c>
+      <c r="B1759">
+        <v>1879</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1759" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1759">
+        <v>47</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1759" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>41</v>
+      </c>
+      <c r="B1760">
+        <v>1879</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1760" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1760">
+        <v>47</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1760" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>41</v>
+      </c>
+      <c r="B1761">
+        <v>1879</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1761" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1761">
+        <v>47</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1761" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>41</v>
+      </c>
+      <c r="B1762">
+        <v>1879</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1762" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1762" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1762">
+        <v>47</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1762" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>41</v>
+      </c>
+      <c r="B1763">
+        <v>1879</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1763" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1763">
+        <v>47</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1763" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>41</v>
+      </c>
+      <c r="B1764">
+        <v>1879</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1764" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1764" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1764">
+        <v>47</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1764" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>41</v>
+      </c>
+      <c r="B1765">
+        <v>1879</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1765" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1765" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1765">
+        <v>47</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1765" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>41</v>
+      </c>
+      <c r="B1766">
+        <v>1879</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1766" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1766" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1766">
+        <v>47</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1766" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Confirmacions/Excel/Index_Llibres_Confirmacions_Linyola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Confirmacions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD2F32D-A293-4CAB-ADB7-11EF87172BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF60A0E-0F4D-4029-9BD4-7B7179FE77AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEEAE0F-87B7-4CFD-9217-CD5D622A9875}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9586" uniqueCount="1904">
   <si>
     <t>Cognons</t>
   </si>
@@ -5383,6 +5383,375 @@
   </si>
   <si>
     <t>Cascalló Farré Antoni</t>
+  </si>
+  <si>
+    <t>02/11/1867</t>
+  </si>
+  <si>
+    <t>Bellmunt Pujol Maria Rosa</t>
+  </si>
+  <si>
+    <t>Pallice Mollera? Cecilia</t>
+  </si>
+  <si>
+    <t>Pedrós Capdevila Rosa</t>
+  </si>
+  <si>
+    <t>Lluis Barque Carme</t>
+  </si>
+  <si>
+    <t>Gené Clua Enrica</t>
+  </si>
+  <si>
+    <t>Albadia Hortet Rosalia</t>
+  </si>
+  <si>
+    <t>Albadia Hortet Filomena</t>
+  </si>
+  <si>
+    <t>Bonjorn Domenjó Filomena</t>
+  </si>
+  <si>
+    <t>Vilaplana Vinefa Maria</t>
+  </si>
+  <si>
+    <t>Boldu Porta Paula</t>
+  </si>
+  <si>
+    <t>Pallicé Masana Cecilia</t>
+  </si>
+  <si>
+    <t>Castelló Mosset Magdalena</t>
+  </si>
+  <si>
+    <t>Escolà Mas Victoria</t>
+  </si>
+  <si>
+    <t>Pedrós Morera Maria Rosa</t>
+  </si>
+  <si>
+    <t>Pedrós Galceran Rosa</t>
+  </si>
+  <si>
+    <t>Roma Civit Maria Rosa</t>
+  </si>
+  <si>
+    <t>Mas Mosset Maria Antonia</t>
+  </si>
+  <si>
+    <t>Torrades Vergé Emilia</t>
+  </si>
+  <si>
+    <t>Nabau Cisteró Francisca</t>
+  </si>
+  <si>
+    <t>Bonjorn Martí Maria Rosa</t>
+  </si>
+  <si>
+    <t>Ribes Pasqual Francisca</t>
+  </si>
+  <si>
+    <t>Darba Colell Maria Rosa</t>
+  </si>
+  <si>
+    <t>Duart Fabregat Maria Antonia</t>
+  </si>
+  <si>
+    <t>Gomà Galceran Francisca</t>
+  </si>
+  <si>
+    <t>Trepat Fabregat Francisca</t>
+  </si>
+  <si>
+    <t>Sales Llovera Dolors</t>
+  </si>
+  <si>
+    <t>Caelles Riba Remei</t>
+  </si>
+  <si>
+    <t>Gilabert Tarragó Magdalena</t>
+  </si>
+  <si>
+    <t>Forés Mata Maria Antonia</t>
+  </si>
+  <si>
+    <t>Vergé Majoral Matilde</t>
+  </si>
+  <si>
+    <t>Brós Pujol Francisca</t>
+  </si>
+  <si>
+    <t>Figuera Majoral Francisca</t>
+  </si>
+  <si>
+    <t>Gilabert Tarragó Maria Antonia</t>
+  </si>
+  <si>
+    <t>Mas Ricart Maria Teresa</t>
+  </si>
+  <si>
+    <t>Civit Rabajet Teresa</t>
+  </si>
+  <si>
+    <t>Boreu Farré Antonia</t>
+  </si>
+  <si>
+    <t>Querol Casals Prudencia</t>
+  </si>
+  <si>
+    <t>Roig Bonell Maria</t>
+  </si>
+  <si>
+    <t>Martí Bonjan Maria Francisca</t>
+  </si>
+  <si>
+    <t>Pujol Bros Rosa</t>
+  </si>
+  <si>
+    <t>Gispert Martí Francesca</t>
+  </si>
+  <si>
+    <t>Vilaplana Cercos? Antonia</t>
+  </si>
+  <si>
+    <t>Giné Ginestà Josepa</t>
+  </si>
+  <si>
+    <t>Civit Valls Dolors</t>
+  </si>
+  <si>
+    <t>Ignasi Pedrós</t>
+  </si>
+  <si>
+    <t>Maria Anna Morera</t>
+  </si>
+  <si>
+    <t>Farré Ribes Miquel</t>
+  </si>
+  <si>
+    <t>Martí Sellart Antoni</t>
+  </si>
+  <si>
+    <t>Civit Martí Ramon</t>
+  </si>
+  <si>
+    <t>Domenjó Ginestà Antonio</t>
+  </si>
+  <si>
+    <t>Gispert Reatosa Josep Antoni</t>
+  </si>
+  <si>
+    <t>Solsona Closa Jaume</t>
+  </si>
+  <si>
+    <t>Marti Civit Antoni</t>
+  </si>
+  <si>
+    <t>Mas Vallés Joan</t>
+  </si>
+  <si>
+    <t>Ginestà Roigé Manuel</t>
+  </si>
+  <si>
+    <t>Riba Caelles Sebastià</t>
+  </si>
+  <si>
+    <t>Giné Ginestà Josep</t>
+  </si>
+  <si>
+    <t>Mas Vergé Antoni</t>
+  </si>
+  <si>
+    <t>Majoral Vergé Felip</t>
+  </si>
+  <si>
+    <t>Mas Mosset Miquel</t>
+  </si>
+  <si>
+    <t>Colell Farré Roc</t>
+  </si>
+  <si>
+    <t>Marti Trilla Antoni</t>
+  </si>
+  <si>
+    <t>Roig Bonell Francisco</t>
+  </si>
+  <si>
+    <t>Civit Valls Joan</t>
+  </si>
+  <si>
+    <t>Bertran Margall Felip</t>
+  </si>
+  <si>
+    <t>Lluch Bollera Joan</t>
+  </si>
+  <si>
+    <t>Binefa Martí Ramon</t>
+  </si>
+  <si>
+    <t>Ginestà Gilabert Antoni Ramon</t>
+  </si>
+  <si>
+    <t>Vallés Mata Magi</t>
+  </si>
+  <si>
+    <t>Sales Tantull Josep</t>
+  </si>
+  <si>
+    <t>Mas Mosset Ramon</t>
+  </si>
+  <si>
+    <t>Pedrós Solsona Ignasi</t>
+  </si>
+  <si>
+    <t>Prenafeta Torres Josep</t>
+  </si>
+  <si>
+    <t>Marti Travesia Francisco</t>
+  </si>
+  <si>
+    <t>Mas Niubó Josep</t>
+  </si>
+  <si>
+    <t>Martí Palou Salvador</t>
+  </si>
+  <si>
+    <t>Planes Agulló Antoni</t>
+  </si>
+  <si>
+    <t>Sales Tantull Jaume</t>
+  </si>
+  <si>
+    <t>Vallés Pou Ramon</t>
+  </si>
+  <si>
+    <t>Solsona Mas Josep Antoni</t>
+  </si>
+  <si>
+    <t>Trepat Cabestany Francisco</t>
+  </si>
+  <si>
+    <t>Camrubí Argelich Josep</t>
+  </si>
+  <si>
+    <t>Martí Sellart Pol</t>
+  </si>
+  <si>
+    <t>Fabregat Mosset Francisco</t>
+  </si>
+  <si>
+    <t>Binefa Martí Andreu</t>
+  </si>
+  <si>
+    <t>Bellet Escolà Joan</t>
+  </si>
+  <si>
+    <t>Caba Codina Jaume</t>
+  </si>
+  <si>
+    <t>Mas Niubó Ramon</t>
+  </si>
+  <si>
+    <t>Giné Pujades Josep</t>
+  </si>
+  <si>
+    <t>Cercós Martí Ramon</t>
+  </si>
+  <si>
+    <t>Torres Prenafeta Pere Jaume</t>
+  </si>
+  <si>
+    <t>Mas Vallés Ramon</t>
+  </si>
+  <si>
+    <t>Torrades Vergé Saxoni?</t>
+  </si>
+  <si>
+    <t>Coca Batlle Josep</t>
+  </si>
+  <si>
+    <t>Cos Bresolí Sebastia</t>
+  </si>
+  <si>
+    <t>Planes Berengué Josep Antoni</t>
+  </si>
+  <si>
+    <t>Planes Berengué Miquel</t>
+  </si>
+  <si>
+    <t>Cava Espinet Josep</t>
+  </si>
+  <si>
+    <t>Monfà Pujol Martí</t>
+  </si>
+  <si>
+    <t>Pallicé Teixidó Francisco</t>
+  </si>
+  <si>
+    <t>Aldomà Torrent Pere</t>
+  </si>
+  <si>
+    <t>Solsona Aldomà Eusebi</t>
+  </si>
+  <si>
+    <t>Parés Pedrós Delfí</t>
+  </si>
+  <si>
+    <t>Mirada Droguet Antoni</t>
+  </si>
+  <si>
+    <t>Fusté Bonjorn Baltasar</t>
+  </si>
+  <si>
+    <t>Vila Masoteres Armentes</t>
+  </si>
+  <si>
+    <t>Segarra Viladot Prudenci</t>
+  </si>
+  <si>
+    <t>Solé Pallerola Pere</t>
+  </si>
+  <si>
+    <t>Roca Batlle Modesto</t>
+  </si>
+  <si>
+    <t>Hortet Pon Ramon</t>
+  </si>
+  <si>
+    <t>Cercós Sunyé Maria Antonia</t>
+  </si>
+  <si>
+    <t>Pallerola Bondia Maria Antonia</t>
+  </si>
+  <si>
+    <t>Pedrós Pedrós Maria</t>
+  </si>
+  <si>
+    <t>Majoral Figuera Esteve</t>
+  </si>
+  <si>
+    <t>Martí Martí Josep</t>
+  </si>
+  <si>
+    <t>Majoral Figuera Miquel</t>
+  </si>
+  <si>
+    <t>Forrell Pujol Crespin</t>
+  </si>
+  <si>
+    <t>Lluch Bellera Manuel</t>
+  </si>
+  <si>
+    <t>Mosset Mas Antoni</t>
+  </si>
+  <si>
+    <t>Trepat Fabregat Antoni</t>
+  </si>
+  <si>
+    <t>Viladrich Pujol Ramon</t>
+  </si>
+  <si>
+    <t>12/11/1862</t>
   </si>
 </sst>
 </file>
@@ -5749,10 +6118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}">
-  <dimension ref="A1:L1766"/>
+  <dimension ref="A1:L1887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1732" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1767" sqref="A1767"/>
+    <sheetView tabSelected="1" topLeftCell="A1858" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1887" sqref="C1887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54374,6 +54743,3515 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>40</v>
+      </c>
+      <c r="B1767">
+        <v>1867</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1767">
+        <v>47</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1767" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>40</v>
+      </c>
+      <c r="B1768">
+        <v>1867</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1768">
+        <v>47</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1768" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>40</v>
+      </c>
+      <c r="B1769">
+        <v>1867</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1769">
+        <v>47</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1769" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>40</v>
+      </c>
+      <c r="B1770">
+        <v>1867</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1770">
+        <v>47</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1770" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>40</v>
+      </c>
+      <c r="B1771">
+        <v>1867</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1771">
+        <v>47</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1771" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>40</v>
+      </c>
+      <c r="B1772">
+        <v>1867</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1772">
+        <v>47</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1772" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>40</v>
+      </c>
+      <c r="B1773">
+        <v>1867</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1773">
+        <v>47</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1773" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>40</v>
+      </c>
+      <c r="B1774">
+        <v>1867</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1774">
+        <v>47</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1774" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>40</v>
+      </c>
+      <c r="B1775">
+        <v>1867</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1775">
+        <v>47</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1775" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>40</v>
+      </c>
+      <c r="B1776">
+        <v>1867</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1776">
+        <v>47</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1776" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>40</v>
+      </c>
+      <c r="B1777">
+        <v>1867</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1777">
+        <v>47</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1777" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>40</v>
+      </c>
+      <c r="B1778">
+        <v>1867</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1778">
+        <v>47</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1778" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>40</v>
+      </c>
+      <c r="B1779">
+        <v>1867</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1779">
+        <v>47</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1779" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>40</v>
+      </c>
+      <c r="B1780">
+        <v>1867</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1780">
+        <v>47</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1780" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>40</v>
+      </c>
+      <c r="B1781">
+        <v>1867</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1781">
+        <v>47</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1781" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>40</v>
+      </c>
+      <c r="B1782">
+        <v>1867</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1782">
+        <v>47</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1782" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>40</v>
+      </c>
+      <c r="B1783">
+        <v>1867</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1783">
+        <v>47</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1783" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>40</v>
+      </c>
+      <c r="B1784">
+        <v>1867</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1784">
+        <v>47</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1784" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>40</v>
+      </c>
+      <c r="B1785">
+        <v>1867</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1785">
+        <v>47</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1785" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>40</v>
+      </c>
+      <c r="B1786">
+        <v>1867</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1786">
+        <v>47</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1786" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>40</v>
+      </c>
+      <c r="B1787">
+        <v>1867</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1787">
+        <v>47</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1787" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>40</v>
+      </c>
+      <c r="B1788">
+        <v>1867</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1788">
+        <v>47</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1788" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>40</v>
+      </c>
+      <c r="B1789">
+        <v>1867</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1789">
+        <v>47</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1789" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>40</v>
+      </c>
+      <c r="B1790">
+        <v>1867</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1790">
+        <v>47</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1790" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>40</v>
+      </c>
+      <c r="B1791">
+        <v>1867</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1791">
+        <v>47</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1791" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>40</v>
+      </c>
+      <c r="B1792">
+        <v>1867</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1792">
+        <v>47</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1792" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>40</v>
+      </c>
+      <c r="B1793">
+        <v>1867</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1793">
+        <v>47</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1793" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>40</v>
+      </c>
+      <c r="B1794">
+        <v>1867</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1794">
+        <v>47</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1794" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>40</v>
+      </c>
+      <c r="B1795">
+        <v>1867</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1795">
+        <v>47</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1795" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>40</v>
+      </c>
+      <c r="B1796">
+        <v>1867</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1796">
+        <v>47</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1796" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>40</v>
+      </c>
+      <c r="B1797">
+        <v>1867</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1797" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1797">
+        <v>47</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1797" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>40</v>
+      </c>
+      <c r="B1798">
+        <v>1867</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1798" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1798">
+        <v>47</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1798" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>40</v>
+      </c>
+      <c r="B1799">
+        <v>1867</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1799">
+        <v>47</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1799" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>40</v>
+      </c>
+      <c r="B1800">
+        <v>1867</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1800">
+        <v>47</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1800" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>40</v>
+      </c>
+      <c r="B1801">
+        <v>1867</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1801">
+        <v>47</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1801" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>40</v>
+      </c>
+      <c r="B1802">
+        <v>1867</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1802">
+        <v>47</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1802" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>40</v>
+      </c>
+      <c r="B1803">
+        <v>1867</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1803">
+        <v>47</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1803" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>40</v>
+      </c>
+      <c r="B1804">
+        <v>1867</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1804">
+        <v>47</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1804" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>40</v>
+      </c>
+      <c r="B1805">
+        <v>1867</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1805">
+        <v>47</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1805" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>40</v>
+      </c>
+      <c r="B1806">
+        <v>1867</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1806">
+        <v>47</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1806" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>40</v>
+      </c>
+      <c r="B1807">
+        <v>1867</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1807">
+        <v>47</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1807" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>40</v>
+      </c>
+      <c r="B1808">
+        <v>1867</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1808">
+        <v>47</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1808" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>40</v>
+      </c>
+      <c r="B1809">
+        <v>1867</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1809">
+        <v>47</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1809" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>40</v>
+      </c>
+      <c r="B1810">
+        <v>1867</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1810">
+        <v>47</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1810" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>40</v>
+      </c>
+      <c r="B1811">
+        <v>1867</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1811">
+        <v>47</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1811" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>39</v>
+      </c>
+      <c r="B1812">
+        <v>1867</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1812">
+        <v>47</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1812" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>39</v>
+      </c>
+      <c r="B1813">
+        <v>1867</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1813">
+        <v>47</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1813" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>39</v>
+      </c>
+      <c r="B1814">
+        <v>1867</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1814">
+        <v>47</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1814" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>39</v>
+      </c>
+      <c r="B1815">
+        <v>1867</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1815">
+        <v>47</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1815" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>39</v>
+      </c>
+      <c r="B1816">
+        <v>1867</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1816">
+        <v>47</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1816" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>39</v>
+      </c>
+      <c r="B1817">
+        <v>1867</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1817">
+        <v>47</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1817" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>39</v>
+      </c>
+      <c r="B1818">
+        <v>1867</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1818">
+        <v>47</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1818" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>39</v>
+      </c>
+      <c r="B1819">
+        <v>1867</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1819">
+        <v>47</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1819" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>39</v>
+      </c>
+      <c r="B1820">
+        <v>1867</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1820">
+        <v>47</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1820" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>39</v>
+      </c>
+      <c r="B1821">
+        <v>1867</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1821">
+        <v>47</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1821" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>39</v>
+      </c>
+      <c r="B1822">
+        <v>1867</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1822">
+        <v>47</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1822" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>39</v>
+      </c>
+      <c r="B1823">
+        <v>1867</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1823">
+        <v>47</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1823" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>39</v>
+      </c>
+      <c r="B1824">
+        <v>1867</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1824">
+        <v>47</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1824" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>39</v>
+      </c>
+      <c r="B1825">
+        <v>1867</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1825">
+        <v>47</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1825" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>39</v>
+      </c>
+      <c r="B1826">
+        <v>1867</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1826">
+        <v>47</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1826" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>39</v>
+      </c>
+      <c r="B1827">
+        <v>1867</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1827">
+        <v>47</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1827" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>39</v>
+      </c>
+      <c r="B1828">
+        <v>1867</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1828">
+        <v>47</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1828" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>39</v>
+      </c>
+      <c r="B1829">
+        <v>1867</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1829">
+        <v>47</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1829" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>39</v>
+      </c>
+      <c r="B1830">
+        <v>1867</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1830">
+        <v>47</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1830" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>39</v>
+      </c>
+      <c r="B1831">
+        <v>1867</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1831">
+        <v>47</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1831" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>39</v>
+      </c>
+      <c r="B1832">
+        <v>1867</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1832">
+        <v>47</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1832" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>39</v>
+      </c>
+      <c r="B1833">
+        <v>1867</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1833">
+        <v>47</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1833" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>39</v>
+      </c>
+      <c r="B1834">
+        <v>1867</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1834">
+        <v>47</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1834" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>39</v>
+      </c>
+      <c r="B1835">
+        <v>1867</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1835">
+        <v>47</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1835" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>39</v>
+      </c>
+      <c r="B1836">
+        <v>1867</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1836">
+        <v>47</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1836" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>39</v>
+      </c>
+      <c r="B1837">
+        <v>1867</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1837">
+        <v>47</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1837" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>39</v>
+      </c>
+      <c r="B1838">
+        <v>1867</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1838">
+        <v>47</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1838" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>39</v>
+      </c>
+      <c r="B1839">
+        <v>1867</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1839">
+        <v>47</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1839" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>39</v>
+      </c>
+      <c r="B1840">
+        <v>1867</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1840">
+        <v>47</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1840" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>39</v>
+      </c>
+      <c r="B1841">
+        <v>1867</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1841">
+        <v>47</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1841" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>39</v>
+      </c>
+      <c r="B1842">
+        <v>1867</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1842">
+        <v>47</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1842" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>39</v>
+      </c>
+      <c r="B1843">
+        <v>1867</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1843">
+        <v>47</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1843" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>39</v>
+      </c>
+      <c r="B1844">
+        <v>1867</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1844">
+        <v>47</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1844" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>39</v>
+      </c>
+      <c r="B1845">
+        <v>1867</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1845">
+        <v>47</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1845" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>39</v>
+      </c>
+      <c r="B1846">
+        <v>1867</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1846">
+        <v>47</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1846" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>39</v>
+      </c>
+      <c r="B1847">
+        <v>1867</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1847">
+        <v>47</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1847" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>39</v>
+      </c>
+      <c r="B1848">
+        <v>1867</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1848">
+        <v>47</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1848" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>39</v>
+      </c>
+      <c r="B1849">
+        <v>1867</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1849">
+        <v>47</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1849" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>39</v>
+      </c>
+      <c r="B1850">
+        <v>1867</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1850">
+        <v>47</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1850" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>39</v>
+      </c>
+      <c r="B1851">
+        <v>1867</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1851">
+        <v>47</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1851" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>39</v>
+      </c>
+      <c r="B1852">
+        <v>1867</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1852">
+        <v>47</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1852" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>39</v>
+      </c>
+      <c r="B1853">
+        <v>1867</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1853">
+        <v>47</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1853" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>39</v>
+      </c>
+      <c r="B1854">
+        <v>1867</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1854">
+        <v>47</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1854" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>39</v>
+      </c>
+      <c r="B1855">
+        <v>1867</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1855">
+        <v>47</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1855" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>39</v>
+      </c>
+      <c r="B1856">
+        <v>1867</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1856">
+        <v>47</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1856" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>39</v>
+      </c>
+      <c r="B1857">
+        <v>1867</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1857">
+        <v>47</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1857" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>39</v>
+      </c>
+      <c r="B1858">
+        <v>1867</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1858">
+        <v>47</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1858" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>39</v>
+      </c>
+      <c r="B1859">
+        <v>1867</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1859">
+        <v>47</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1859" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>39</v>
+      </c>
+      <c r="B1860">
+        <v>1867</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1860">
+        <v>47</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1860" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>39</v>
+      </c>
+      <c r="B1861">
+        <v>1867</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1861">
+        <v>47</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1861" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>39</v>
+      </c>
+      <c r="B1862">
+        <v>1867</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1862">
+        <v>47</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1862" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>39</v>
+      </c>
+      <c r="B1863">
+        <v>1867</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1863">
+        <v>47</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1863" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>39</v>
+      </c>
+      <c r="B1864">
+        <v>1867</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1864">
+        <v>47</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1864" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>39</v>
+      </c>
+      <c r="B1865">
+        <v>1867</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1865">
+        <v>47</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1865" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>39</v>
+      </c>
+      <c r="B1866">
+        <v>1867</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1866">
+        <v>47</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1866" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>39</v>
+      </c>
+      <c r="B1867">
+        <v>1867</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1867">
+        <v>47</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1867" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>39</v>
+      </c>
+      <c r="B1868">
+        <v>1867</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1868">
+        <v>47</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1868" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>39</v>
+      </c>
+      <c r="B1869">
+        <v>1867</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1869">
+        <v>47</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1869" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>39</v>
+      </c>
+      <c r="B1870">
+        <v>1867</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1870" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1870">
+        <v>47</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1870" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>39</v>
+      </c>
+      <c r="B1871">
+        <v>1867</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1871" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1871">
+        <v>47</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1871" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>39</v>
+      </c>
+      <c r="B1872">
+        <v>1867</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1872" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1872">
+        <v>47</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1872" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>39</v>
+      </c>
+      <c r="B1873">
+        <v>1867</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1873" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1873">
+        <v>47</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1873" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>39</v>
+      </c>
+      <c r="B1874">
+        <v>1867</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1874" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1874">
+        <v>47</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1874" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>39</v>
+      </c>
+      <c r="B1875">
+        <v>1867</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1875">
+        <v>47</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1875" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>39</v>
+      </c>
+      <c r="B1876">
+        <v>1867</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1876">
+        <v>47</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1876" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>39</v>
+      </c>
+      <c r="B1877">
+        <v>1867</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1877" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1877">
+        <v>47</v>
+      </c>
+      <c r="J1877" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1877" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>39</v>
+      </c>
+      <c r="B1878">
+        <v>1867</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1878">
+        <v>47</v>
+      </c>
+      <c r="J1878" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1878" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>38</v>
+      </c>
+      <c r="B1879">
+        <v>1867</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1879">
+        <v>47</v>
+      </c>
+      <c r="J1879" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1879" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>38</v>
+      </c>
+      <c r="B1880">
+        <v>1867</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1880">
+        <v>47</v>
+      </c>
+      <c r="J1880" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1880" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>38</v>
+      </c>
+      <c r="B1881">
+        <v>1867</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1881">
+        <v>47</v>
+      </c>
+      <c r="J1881" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1881" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>38</v>
+      </c>
+      <c r="B1882">
+        <v>1867</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1882" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1882">
+        <v>47</v>
+      </c>
+      <c r="J1882" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1882" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>38</v>
+      </c>
+      <c r="B1883">
+        <v>1867</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1883" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1883">
+        <v>47</v>
+      </c>
+      <c r="J1883" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1883" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>38</v>
+      </c>
+      <c r="B1884">
+        <v>1867</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1884">
+        <v>47</v>
+      </c>
+      <c r="J1884" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1884" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>38</v>
+      </c>
+      <c r="B1885">
+        <v>1867</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1885">
+        <v>47</v>
+      </c>
+      <c r="J1885" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1885" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>38</v>
+      </c>
+      <c r="B1886">
+        <v>1867</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1886">
+        <v>47</v>
+      </c>
+      <c r="J1886" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1886" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>38</v>
+      </c>
+      <c r="B1887">
+        <v>1862</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1887">
+        <v>47</v>
+      </c>
+      <c r="J1887" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1887" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L369" xr:uid="{A9EAC519-AAA9-4752-A1C1-63CDDDDDC53A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54386,7 +58264,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54492,6 +58370,9 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -54505,6 +58386,9 @@
       </c>
       <c r="D7" s="3">
         <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
